--- a/socialstyrelsen/statistik-covid19-inskrivna_2021-01-24.xlsx
+++ b/socialstyrelsen/statistik-covid19-inskrivna_2021-01-24.xlsx
@@ -31,12 +31,12 @@
     <definedName name="innehållsförteckning" localSheetId="2">'[2]Om statistiken'!#REF!</definedName>
     <definedName name="innehållsförteckning">'Om statistiken'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="288">
   <si>
     <t>Diabetes</t>
   </si>
@@ -995,141 +995,6 @@
     </r>
   </si>
   <si>
-    <t>Antal unika patienter som rapporterats till Socialstyrelsen som inskrivna i slutenvård med diagnosen covid-19.</t>
-  </si>
-  <si>
-    <t>vecka 26</t>
-  </si>
-  <si>
-    <t>vecka 27</t>
-  </si>
-  <si>
-    <t>vecka 28</t>
-  </si>
-  <si>
-    <t>vecka 29</t>
-  </si>
-  <si>
-    <t>vecka 30</t>
-  </si>
-  <si>
-    <t>vecka 31</t>
-  </si>
-  <si>
-    <t>vecka 32</t>
-  </si>
-  <si>
-    <t>vecka 33</t>
-  </si>
-  <si>
-    <t>vecka 34</t>
-  </si>
-  <si>
-    <t>Beräkning av boendeform/socialtjänstinsats har korrigerats.</t>
-  </si>
-  <si>
-    <t>vecka 35</t>
-  </si>
-  <si>
-    <t>vecka 36</t>
-  </si>
-  <si>
-    <t>vecka 37</t>
-  </si>
-  <si>
-    <t>vecka 39</t>
-  </si>
-  <si>
-    <t>vecka 38</t>
-  </si>
-  <si>
-    <t>vecka 40</t>
-  </si>
-  <si>
-    <t>Population</t>
-  </si>
-  <si>
-    <t>Blekinge</t>
-  </si>
-  <si>
-    <t>vecka 41</t>
-  </si>
-  <si>
-    <t>vecka 42</t>
-  </si>
-  <si>
-    <t>vecka 48</t>
-  </si>
-  <si>
-    <t>vecka 47</t>
-  </si>
-  <si>
-    <t>vecka 46</t>
-  </si>
-  <si>
-    <t>vecka 45</t>
-  </si>
-  <si>
-    <t>vecka 44</t>
-  </si>
-  <si>
-    <t>vecka 43</t>
-  </si>
-  <si>
-    <t>vecka 50</t>
-  </si>
-  <si>
-    <t>vecka 49</t>
-  </si>
-  <si>
-    <t>vecka 51</t>
-  </si>
-  <si>
-    <t>vecka 52</t>
-  </si>
-  <si>
-    <t>vecka 53</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>IU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IU </t>
-  </si>
-  <si>
-    <t>Populationen utgörs av alla individer som slutenvårdats för covid-19 med inskrivningsdatum fram till och med 24 januari enligt rapportering till patientregistret eller frivillig särskild</t>
-  </si>
-  <si>
-    <t>gång. Statistiken är preliminär och baserad på de uppgifter som inkommit till Socialstyrelsen vid den 24 januari 2021. Notera bortfallet som beskrivs nedan.</t>
-  </si>
-  <si>
-    <t>2021W03</t>
-  </si>
-  <si>
-    <t>2020W49</t>
-  </si>
-  <si>
-    <t>2021W04</t>
-  </si>
-  <si>
-    <t>2021W02</t>
-  </si>
-  <si>
-    <t>vecka 1 2021</t>
-  </si>
-  <si>
-    <t>vecka 2 2021</t>
-  </si>
-  <si>
-    <t>vecka 3 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antal unika patienter som rapporterats till Socialstyrelsen, som utskrivna från slutenvård som vårdats med diagnosen covid-19. Endast den sista utskrivningen i slutenvård för en patient ingår i statistiken, om det skulle förekomma mer än ett. </t>
-  </si>
-  <si>
     <r>
       <t>Antal unika patienter som rapporterats till Socialstyrelsen som inskrivna i slutenvård med diagnosen covid-19</t>
     </r>
@@ -1150,11 +1015,146 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Endast den första inskrivningen i slutenvård för en patient ingår i statistiken, om det skulle förekomma mer än ett.</t>
+      <t xml:space="preserve"> Endast den första inskrivningen i slutenvård för en patient ingår i statistiken, skulle det förkomma mer än ett.</t>
     </r>
   </si>
   <si>
-    <t>Antal unika patienter som rapporterats till Socialstyrelsen som inskrivna i slutenvård med diagnosen covid-19. Endast ett slutenvårdstillfälle för en patient ingår i statistiken,  om det skulle förekomma mer än ett.</t>
+    <t xml:space="preserve">Antal unika patienter som rapporterats till Socialstyrelsen, som utskrivna från slutenvård som vårdats med diagnosen covid-19. Endast den sista utskrivningen i slutenvård för en patient ingår i statistiken, skulle det förkomma mer än ett. </t>
+  </si>
+  <si>
+    <t>Antal unika patienter som rapporterats till Socialstyrelsen som inskrivna i slutenvård med diagnosen covid-19.</t>
+  </si>
+  <si>
+    <t>Antal unika patienter som rapporterats till Socialstyrelsen som inskrivna i slutenvård med diagnosen covid-19. Endast ett slutenvårdstillfälle för en patient ingår i statistiken, skulle det förkomma mer än ett.</t>
+  </si>
+  <si>
+    <t>vecka 26</t>
+  </si>
+  <si>
+    <t>vecka 27</t>
+  </si>
+  <si>
+    <t>vecka 28</t>
+  </si>
+  <si>
+    <t>vecka 29</t>
+  </si>
+  <si>
+    <t>vecka 30</t>
+  </si>
+  <si>
+    <t>vecka 31</t>
+  </si>
+  <si>
+    <t>vecka 32</t>
+  </si>
+  <si>
+    <t>vecka 33</t>
+  </si>
+  <si>
+    <t>vecka 34</t>
+  </si>
+  <si>
+    <t>Beräkning av boendeform/socialtjänstinsats har korrigerats.</t>
+  </si>
+  <si>
+    <t>vecka 35</t>
+  </si>
+  <si>
+    <t>vecka 36</t>
+  </si>
+  <si>
+    <t>vecka 37</t>
+  </si>
+  <si>
+    <t>vecka 39</t>
+  </si>
+  <si>
+    <t>vecka 38</t>
+  </si>
+  <si>
+    <t>vecka 40</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>Blekinge</t>
+  </si>
+  <si>
+    <t>vecka 41</t>
+  </si>
+  <si>
+    <t>vecka 42</t>
+  </si>
+  <si>
+    <t>vecka 48</t>
+  </si>
+  <si>
+    <t>vecka 47</t>
+  </si>
+  <si>
+    <t>vecka 46</t>
+  </si>
+  <si>
+    <t>vecka 45</t>
+  </si>
+  <si>
+    <t>vecka 44</t>
+  </si>
+  <si>
+    <t>vecka 43</t>
+  </si>
+  <si>
+    <t>vecka 50</t>
+  </si>
+  <si>
+    <t>vecka 49</t>
+  </si>
+  <si>
+    <t>vecka 51</t>
+  </si>
+  <si>
+    <t>vecka 52</t>
+  </si>
+  <si>
+    <t>vecka 53</t>
+  </si>
+  <si>
+    <t>vecka 1</t>
+  </si>
+  <si>
+    <t>vecka 2</t>
+  </si>
+  <si>
+    <t>vecka 3</t>
+  </si>
+  <si>
+    <t>IU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IU </t>
+  </si>
+  <si>
+    <t>Populationen utgörs av alla individer som slutenvårdats för covid-19 med inskrivningsdatum fram till och med 24 januari enligt rapportering till patientregistret eller frivillig särskild</t>
+  </si>
+  <si>
+    <t>gång. Statistiken är preliminär och baserad på de uppgifter som inkommit till Socialstyrelsen vid den 24 januari 2021. Notera bortfallet som beskrivs nedan.</t>
+  </si>
+  <si>
+    <t>2021W03</t>
+  </si>
+  <si>
+    <t>2020W49</t>
+  </si>
+  <si>
+    <t>2021W04</t>
+  </si>
+  <si>
+    <t>2021W02</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
   <si>
     <r>
@@ -1449,7 +1449,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="53">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -2029,6 +2029,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2080,7 +2091,7 @@
     <xf numFmtId="167" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="301">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2700,25 +2711,22 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="52" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="36" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="38" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="36" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="19" fillId="0" borderId="53" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2760,9 +2768,60 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2790,63 +2849,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2904,32 +2912,32 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="29" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="47" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="29" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="47" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="52" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5451,16 +5459,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>483870</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>55845</xdr:colOff>
+      <xdr:colOff>65370</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>17145</xdr:rowOff>
+      <xdr:rowOff>36195</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5471,7 +5479,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4912995" y="619125"/>
+          <a:off x="4922520" y="638175"/>
           <a:ext cx="1296000" cy="360045"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -5950,7 +5958,7 @@
               <a:latin typeface="Century Gothic"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>Antal unika patienter som rapporterats till Socialstyrelsen som inskrivna i slutenvård med diagnosen covid-19. Endast ett slutenvårdstillfälle för en patient ingår i statistiken,  om det skulle förekomma mer än ett.</a:t>
+            <a:t>Antal unika patienter som rapporterats till Socialstyrelsen som inskrivna i slutenvård med diagnosen covid-19. Endast ett slutenvårdstillfälle för en patient ingår i statistiken, skulle det förkomma mer än ett.</a:t>
           </a:fld>
           <a:endParaRPr lang="sv-SE" sz="800" b="0"/>
         </a:p>
@@ -7783,88 +7791,88 @@
     <row r="1" spans="2:6" ht="60" customHeight="1"/>
     <row r="2" spans="2:6" ht="14.25" thickBot="1"/>
     <row r="3" spans="2:6" ht="15.6" customHeight="1">
-      <c r="B3" s="234" t="s">
-        <v>256</v>
-      </c>
-      <c r="C3" s="235"/>
-      <c r="D3" s="235"/>
-      <c r="E3" s="235"/>
-      <c r="F3" s="236"/>
+      <c r="B3" s="233" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3" s="234"/>
+      <c r="D3" s="234"/>
+      <c r="E3" s="234"/>
+      <c r="F3" s="235"/>
     </row>
     <row r="4" spans="2:6" s="30" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B4" s="240" t="s">
-        <v>274</v>
-      </c>
-      <c r="C4" s="241"/>
-      <c r="D4" s="241"/>
-      <c r="E4" s="241"/>
-      <c r="F4" s="242"/>
+      <c r="B4" s="239" t="s">
+        <v>279</v>
+      </c>
+      <c r="C4" s="240"/>
+      <c r="D4" s="240"/>
+      <c r="E4" s="240"/>
+      <c r="F4" s="241"/>
     </row>
     <row r="5" spans="2:6" s="30" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B5" s="240" t="str">
+      <c r="B5" s="239" t="str">
         <f>"veckovis inrapportering om slutenvård till Socialstyrelsen från regionerna. Patienter som slutenvårdas vid fler än ett tillfälle räknas bara som inskriven en gång respektive utskriven en"</f>
         <v>veckovis inrapportering om slutenvård till Socialstyrelsen från regionerna. Patienter som slutenvårdas vid fler än ett tillfälle räknas bara som inskriven en gång respektive utskriven en</v>
       </c>
-      <c r="C5" s="241"/>
-      <c r="D5" s="241"/>
-      <c r="E5" s="241"/>
-      <c r="F5" s="242"/>
+      <c r="C5" s="240"/>
+      <c r="D5" s="240"/>
+      <c r="E5" s="240"/>
+      <c r="F5" s="241"/>
     </row>
     <row r="6" spans="2:6" s="30" customFormat="1" ht="15.6" customHeight="1">
-      <c r="B6" s="240" t="s">
-        <v>275</v>
-      </c>
-      <c r="C6" s="241"/>
-      <c r="D6" s="241"/>
-      <c r="E6" s="241"/>
-      <c r="F6" s="242"/>
+      <c r="B6" s="239" t="s">
+        <v>280</v>
+      </c>
+      <c r="C6" s="240"/>
+      <c r="D6" s="240"/>
+      <c r="E6" s="240"/>
+      <c r="F6" s="241"/>
     </row>
     <row r="7" spans="2:6" ht="42.6" customHeight="1">
-      <c r="B7" s="237" t="s">
+      <c r="B7" s="236" t="s">
         <v>220</v>
       </c>
-      <c r="C7" s="238"/>
-      <c r="D7" s="238"/>
-      <c r="E7" s="238"/>
-      <c r="F7" s="239"/>
+      <c r="C7" s="237"/>
+      <c r="D7" s="237"/>
+      <c r="E7" s="237"/>
+      <c r="F7" s="238"/>
     </row>
     <row r="8" spans="2:6" ht="33" customHeight="1">
-      <c r="B8" s="237" t="s">
+      <c r="B8" s="236" t="s">
         <v>179</v>
       </c>
-      <c r="C8" s="238"/>
-      <c r="D8" s="238"/>
-      <c r="E8" s="238"/>
-      <c r="F8" s="239"/>
+      <c r="C8" s="237"/>
+      <c r="D8" s="237"/>
+      <c r="E8" s="237"/>
+      <c r="F8" s="238"/>
     </row>
     <row r="9" spans="2:6" ht="57.75" customHeight="1">
-      <c r="B9" s="240" t="s">
+      <c r="B9" s="239" t="s">
         <v>223</v>
       </c>
-      <c r="C9" s="241"/>
-      <c r="D9" s="241"/>
-      <c r="E9" s="241"/>
-      <c r="F9" s="242"/>
+      <c r="C9" s="240"/>
+      <c r="D9" s="240"/>
+      <c r="E9" s="240"/>
+      <c r="F9" s="241"/>
     </row>
     <row r="10" spans="2:6" ht="54.75" customHeight="1">
-      <c r="B10" s="240" t="s">
+      <c r="B10" s="239" t="s">
         <v>188</v>
       </c>
-      <c r="C10" s="241"/>
-      <c r="D10" s="241"/>
-      <c r="E10" s="241"/>
-      <c r="F10" s="242"/>
-    </row>
-    <row r="11" spans="2:6" ht="153.75" customHeight="1" thickBot="1">
-      <c r="B11" s="231" t="s">
+      <c r="C10" s="240"/>
+      <c r="D10" s="240"/>
+      <c r="E10" s="240"/>
+      <c r="F10" s="241"/>
+    </row>
+    <row r="11" spans="2:6" ht="148.5" customHeight="1" thickBot="1">
+      <c r="B11" s="230" t="s">
         <v>286</v>
       </c>
-      <c r="C11" s="232"/>
-      <c r="D11" s="232"/>
-      <c r="E11" s="232"/>
-      <c r="F11" s="233"/>
-    </row>
-    <row r="12" spans="2:6" ht="14.25" customHeight="1">
+      <c r="C11" s="231"/>
+      <c r="D11" s="231"/>
+      <c r="E11" s="231"/>
+      <c r="F11" s="232"/>
+    </row>
+    <row r="12" spans="2:6">
       <c r="B12" s="20"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -7883,11 +7891,11 @@
       <c r="B15" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="C15" s="230" t="s">
+      <c r="C15" s="229" t="s">
         <v>155</v>
       </c>
-      <c r="D15" s="230"/>
-      <c r="E15" s="230"/>
+      <c r="D15" s="229"/>
+      <c r="E15" s="229"/>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="37" t="s">
@@ -8412,7 +8420,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="50.45" customHeight="1">
-      <c r="B13" s="266" t="s">
+      <c r="B13" s="244" t="s">
         <v>163</v>
       </c>
       <c r="C13" s="74" t="s">
@@ -8426,24 +8434,24 @@
       </c>
     </row>
     <row r="14" spans="2:5" s="30" customFormat="1" ht="29.25" customHeight="1">
-      <c r="B14" s="267"/>
+      <c r="B14" s="245"/>
       <c r="C14" s="129" t="s">
         <v>238</v>
       </c>
-      <c r="D14" s="264" t="s">
+      <c r="D14" s="242" t="s">
         <v>151</v>
       </c>
-      <c r="E14" s="264" t="s">
+      <c r="E14" s="242" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="15" spans="2:5" s="30" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
-      <c r="B15" s="267"/>
+      <c r="B15" s="245"/>
       <c r="C15" s="112" t="s">
         <v>187</v>
       </c>
-      <c r="D15" s="264"/>
-      <c r="E15" s="265"/>
+      <c r="D15" s="242"/>
+      <c r="E15" s="243"/>
     </row>
     <row r="16" spans="2:5" s="30" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="B16" s="109" t="s">
@@ -8459,20 +8467,20 @@
       <c r="B17" s="106" t="s">
         <v>215</v>
       </c>
-      <c r="C17" s="271" t="s">
+      <c r="C17" s="251" t="s">
         <v>219</v>
       </c>
-      <c r="D17" s="271"/>
+      <c r="D17" s="251"/>
       <c r="E17" s="108"/>
     </row>
     <row r="18" spans="2:6" s="30" customFormat="1" ht="40.5" customHeight="1" thickBot="1">
       <c r="B18" s="107" t="s">
         <v>216</v>
       </c>
-      <c r="C18" s="270" t="s">
+      <c r="C18" s="250" t="s">
         <v>217</v>
       </c>
-      <c r="D18" s="270"/>
+      <c r="D18" s="250"/>
       <c r="E18" s="108"/>
     </row>
     <row r="19" spans="2:6" ht="14.25" thickTop="1">
@@ -8689,16 +8697,16 @@
       <c r="F38" s="39"/>
     </row>
     <row r="39" spans="2:6" ht="27.75" thickTop="1">
-      <c r="B39" s="268" t="s">
+      <c r="B39" s="246" t="s">
         <v>47</v>
       </c>
       <c r="C39" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="269" t="s">
+      <c r="D39" s="248" t="s">
         <v>48</v>
       </c>
-      <c r="E39" s="269" t="s">
+      <c r="E39" s="248" t="s">
         <v>49</v>
       </c>
       <c r="F39" s="10" t="s">
@@ -8706,45 +8714,45 @@
       </c>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="260"/>
+      <c r="B40" s="247"/>
       <c r="C40" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="255"/>
-      <c r="E40" s="255"/>
+      <c r="D40" s="249"/>
+      <c r="E40" s="249"/>
       <c r="F40" s="11" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="260"/>
+      <c r="B41" s="247"/>
       <c r="C41" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="255"/>
-      <c r="E41" s="255"/>
+      <c r="D41" s="249"/>
+      <c r="E41" s="249"/>
       <c r="F41" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="260"/>
+      <c r="B42" s="247"/>
       <c r="C42" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="D42" s="255"/>
-      <c r="E42" s="255"/>
+      <c r="D42" s="249"/>
+      <c r="E42" s="249"/>
       <c r="F42" s="11" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="43" spans="2:6" ht="27">
-      <c r="B43" s="260"/>
+      <c r="B43" s="247"/>
       <c r="C43" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="D43" s="255"/>
-      <c r="E43" s="255"/>
+      <c r="D43" s="249"/>
+      <c r="E43" s="249"/>
       <c r="F43" s="11" t="s">
         <v>55</v>
       </c>
@@ -8774,22 +8782,22 @@
       <c r="F45" s="26"/>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="254"/>
-      <c r="C46" s="254"/>
-      <c r="D46" s="255" t="s">
+      <c r="B46" s="255"/>
+      <c r="C46" s="255"/>
+      <c r="D46" s="249" t="s">
         <v>60</v>
       </c>
-      <c r="E46" s="255" t="s">
+      <c r="E46" s="249" t="s">
         <v>61</v>
       </c>
-      <c r="F46" s="255"/>
+      <c r="F46" s="249"/>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="254"/>
-      <c r="C47" s="254"/>
-      <c r="D47" s="255"/>
-      <c r="E47" s="255"/>
-      <c r="F47" s="255"/>
+      <c r="B47" s="255"/>
+      <c r="C47" s="255"/>
+      <c r="D47" s="249"/>
+      <c r="E47" s="249"/>
+      <c r="F47" s="249"/>
     </row>
     <row r="48" spans="2:6" ht="14.25" thickBot="1">
       <c r="B48" s="39"/>
@@ -8803,16 +8811,16 @@
       <c r="F48" s="40"/>
     </row>
     <row r="49" spans="2:6" ht="14.25" thickTop="1">
-      <c r="B49" s="259" t="s">
+      <c r="B49" s="254" t="s">
         <v>0</v>
       </c>
       <c r="C49" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D49" s="261" t="s">
+      <c r="D49" s="256" t="s">
         <v>65</v>
       </c>
-      <c r="E49" s="261" t="s">
+      <c r="E49" s="256" t="s">
         <v>66</v>
       </c>
       <c r="F49" s="25" t="s">
@@ -8820,30 +8828,30 @@
       </c>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="260"/>
+      <c r="B50" s="247"/>
       <c r="C50" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="254"/>
-      <c r="E50" s="254"/>
+      <c r="D50" s="255"/>
+      <c r="E50" s="255"/>
       <c r="F50" s="25"/>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="260"/>
+      <c r="B51" s="247"/>
       <c r="C51" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D51" s="254"/>
-      <c r="E51" s="254"/>
+      <c r="D51" s="255"/>
+      <c r="E51" s="255"/>
       <c r="F51" s="25"/>
     </row>
     <row r="52" spans="2:6">
-      <c r="B52" s="260"/>
+      <c r="B52" s="247"/>
       <c r="C52" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="D52" s="254"/>
-      <c r="E52" s="254"/>
+      <c r="D52" s="255"/>
+      <c r="E52" s="255"/>
       <c r="F52" s="25"/>
     </row>
     <row r="53" spans="2:6" ht="27">
@@ -8895,46 +8903,46 @@
       <c r="F56" s="39"/>
     </row>
     <row r="57" spans="2:6" ht="14.25" thickTop="1">
-      <c r="B57" s="262" t="s">
+      <c r="B57" s="257" t="s">
         <v>76</v>
       </c>
       <c r="C57" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D57" s="263" t="s">
+      <c r="D57" s="259" t="s">
         <v>77</v>
       </c>
-      <c r="E57" s="263" t="s">
+      <c r="E57" s="259" t="s">
         <v>76</v>
       </c>
-      <c r="F57" s="258"/>
+      <c r="F57" s="252"/>
     </row>
     <row r="58" spans="2:6">
-      <c r="B58" s="253"/>
+      <c r="B58" s="258"/>
       <c r="C58" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D58" s="255"/>
-      <c r="E58" s="255"/>
-      <c r="F58" s="243"/>
+      <c r="D58" s="249"/>
+      <c r="E58" s="249"/>
+      <c r="F58" s="253"/>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="253"/>
+      <c r="B59" s="258"/>
       <c r="C59" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="255"/>
-      <c r="E59" s="255"/>
-      <c r="F59" s="243"/>
+      <c r="D59" s="249"/>
+      <c r="E59" s="249"/>
+      <c r="F59" s="253"/>
     </row>
     <row r="60" spans="2:6">
-      <c r="B60" s="253"/>
+      <c r="B60" s="258"/>
       <c r="C60" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="D60" s="255"/>
-      <c r="E60" s="255"/>
-      <c r="F60" s="243"/>
+      <c r="D60" s="249"/>
+      <c r="E60" s="249"/>
+      <c r="F60" s="253"/>
     </row>
     <row r="61" spans="2:6" ht="27">
       <c r="B61" s="24"/>
@@ -8950,22 +8958,22 @@
       <c r="F61" s="23"/>
     </row>
     <row r="62" spans="2:6">
-      <c r="B62" s="253"/>
-      <c r="C62" s="254"/>
-      <c r="D62" s="255" t="s">
+      <c r="B62" s="258"/>
+      <c r="C62" s="255"/>
+      <c r="D62" s="249" t="s">
         <v>80</v>
       </c>
-      <c r="E62" s="255" t="s">
+      <c r="E62" s="249" t="s">
         <v>81</v>
       </c>
-      <c r="F62" s="243"/>
+      <c r="F62" s="253"/>
     </row>
     <row r="63" spans="2:6">
-      <c r="B63" s="253"/>
-      <c r="C63" s="254"/>
-      <c r="D63" s="255"/>
-      <c r="E63" s="255"/>
-      <c r="F63" s="243"/>
+      <c r="B63" s="258"/>
+      <c r="C63" s="255"/>
+      <c r="D63" s="249"/>
+      <c r="E63" s="249"/>
+      <c r="F63" s="253"/>
     </row>
     <row r="64" spans="2:6">
       <c r="B64" s="24"/>
@@ -9101,47 +9109,47 @@
     </row>
     <row r="76" spans="2:6" ht="14.25" thickTop="1"/>
     <row r="78" spans="2:6">
-      <c r="B78" s="250" t="s">
+      <c r="B78" s="266" t="s">
         <v>147</v>
       </c>
-      <c r="C78" s="251"/>
-      <c r="D78" s="251"/>
-      <c r="E78" s="251"/>
+      <c r="C78" s="267"/>
+      <c r="D78" s="267"/>
+      <c r="E78" s="267"/>
     </row>
     <row r="79" spans="2:6" s="30" customFormat="1" ht="45.75" customHeight="1" thickBot="1">
-      <c r="B79" s="248" t="s">
+      <c r="B79" s="264" t="s">
         <v>287</v>
       </c>
-      <c r="C79" s="248"/>
-      <c r="D79" s="248"/>
+      <c r="C79" s="264"/>
+      <c r="D79" s="264"/>
       <c r="E79" s="28"/>
     </row>
     <row r="80" spans="2:6">
       <c r="B80" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="C80" s="247" t="s">
+      <c r="C80" s="263" t="s">
         <v>138</v>
       </c>
-      <c r="D80" s="247"/>
+      <c r="D80" s="263"/>
     </row>
     <row r="81" spans="2:4" ht="57" customHeight="1">
       <c r="B81" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="C81" s="249" t="s">
+      <c r="C81" s="265" t="s">
         <v>143</v>
       </c>
-      <c r="D81" s="249"/>
+      <c r="D81" s="265"/>
     </row>
     <row r="82" spans="2:4" ht="72" customHeight="1" thickBot="1">
       <c r="B82" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="C82" s="246" t="s">
+      <c r="C82" s="262" t="s">
         <v>144</v>
       </c>
-      <c r="D82" s="246"/>
+      <c r="D82" s="262"/>
     </row>
     <row r="83" spans="2:4" ht="14.25" thickTop="1"/>
     <row r="84" spans="2:4">
@@ -9156,37 +9164,37 @@
       <c r="C85" s="73"/>
     </row>
     <row r="86" spans="2:4" ht="42" customHeight="1" thickBot="1">
-      <c r="B86" s="257" t="s">
+      <c r="B86" s="270" t="s">
         <v>186</v>
       </c>
-      <c r="C86" s="257"/>
-      <c r="D86" s="257"/>
+      <c r="C86" s="270"/>
+      <c r="D86" s="270"/>
     </row>
     <row r="87" spans="2:4" ht="14.25" thickBot="1">
-      <c r="B87" s="244" t="s">
+      <c r="B87" s="260" t="s">
         <v>148</v>
       </c>
-      <c r="C87" s="252" t="s">
+      <c r="C87" s="268" t="s">
         <v>224</v>
       </c>
-      <c r="D87" s="256" t="s">
+      <c r="D87" s="269" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="88" spans="2:4">
-      <c r="B88" s="245"/>
-      <c r="C88" s="252"/>
-      <c r="D88" s="256"/>
+      <c r="B88" s="261"/>
+      <c r="C88" s="268"/>
+      <c r="D88" s="269"/>
     </row>
     <row r="89" spans="2:4">
       <c r="B89" s="19" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C89" s="133">
         <v>44220</v>
       </c>
       <c r="D89" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="90" spans="2:4">
@@ -9197,7 +9205,7 @@
         <v>44217</v>
       </c>
       <c r="D90" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="91" spans="2:4">
@@ -9208,7 +9216,7 @@
         <v>44165</v>
       </c>
       <c r="D91" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="92" spans="2:4">
@@ -9219,7 +9227,7 @@
         <v>44218</v>
       </c>
       <c r="D92" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="93" spans="2:4">
@@ -9230,7 +9238,7 @@
         <v>44220</v>
       </c>
       <c r="D93" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="94" spans="2:4">
@@ -9241,7 +9249,7 @@
         <v>44220</v>
       </c>
       <c r="D94" s="30" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="95" spans="2:4">
@@ -9252,7 +9260,7 @@
         <v>44220</v>
       </c>
       <c r="D95" s="30" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="96" spans="2:4">
@@ -9263,7 +9271,7 @@
         <v>44220</v>
       </c>
       <c r="D96" s="30" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="97" spans="2:4">
@@ -9274,7 +9282,7 @@
         <v>44220</v>
       </c>
       <c r="D97" s="30" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="98" spans="2:4">
@@ -9285,7 +9293,7 @@
         <v>44165</v>
       </c>
       <c r="D98" s="30" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="99" spans="2:4">
@@ -9296,7 +9304,7 @@
         <v>44214</v>
       </c>
       <c r="D99" s="30" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="100" spans="2:4">
@@ -9307,7 +9315,7 @@
         <v>44220</v>
       </c>
       <c r="D100" s="30" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="101" spans="2:4">
@@ -9318,7 +9326,7 @@
         <v>44221</v>
       </c>
       <c r="D101" s="30" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="102" spans="2:4">
@@ -9329,7 +9337,7 @@
         <v>44220</v>
       </c>
       <c r="D102" s="30" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="103" spans="2:4">
@@ -9340,7 +9348,7 @@
         <v>44220</v>
       </c>
       <c r="D103" s="30" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="104" spans="2:4">
@@ -9351,7 +9359,7 @@
         <v>44216</v>
       </c>
       <c r="D104" s="30" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="105" spans="2:4">
@@ -9359,10 +9367,10 @@
         <v>125</v>
       </c>
       <c r="C105" s="133">
-        <v>44221</v>
+        <v>44224</v>
       </c>
       <c r="D105" s="30" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="106" spans="2:4">
@@ -9373,7 +9381,7 @@
         <v>44215</v>
       </c>
       <c r="D106" s="30" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="107" spans="2:4">
@@ -9384,7 +9392,7 @@
         <v>44221</v>
       </c>
       <c r="D107" s="30" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="108" spans="2:4">
@@ -9395,7 +9403,7 @@
         <v>44213</v>
       </c>
       <c r="D108" s="30" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="109" spans="2:4" ht="14.25" thickBot="1">
@@ -9406,7 +9414,7 @@
         <v>44220</v>
       </c>
       <c r="D109" s="135" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="110" spans="2:4" ht="14.25" thickTop="1"/>
@@ -9415,26 +9423,6 @@
     <sortCondition ref="B85:B105"/>
   </sortState>
   <mergeCells count="34">
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="E39:E43"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F57:F60"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="E49:E52"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="D57:D60"/>
-    <mergeCell ref="E57:E60"/>
     <mergeCell ref="F62:F63"/>
     <mergeCell ref="B87:B88"/>
     <mergeCell ref="C82:D82"/>
@@ -9449,6 +9437,26 @@
     <mergeCell ref="E62:E63"/>
     <mergeCell ref="D87:D88"/>
     <mergeCell ref="B86:D86"/>
+    <mergeCell ref="F57:F60"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="E49:E52"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="E57:E60"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="E39:E43"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C17:D17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B6" location="Definitioner!B21" display="Riskfaktorer"/>
@@ -9470,7 +9478,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="30" customWidth="1"/>
     <col min="2" max="16384" width="9.33203125" style="30"/>
   </cols>
   <sheetData>
@@ -9484,7 +9492,7 @@
         <v>44069</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -9546,15 +9554,15 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="29.25" customHeight="1">
-      <c r="A2" s="272" t="s">
-        <v>285</v>
-      </c>
-      <c r="B2" s="272"/>
-      <c r="C2" s="272"/>
-      <c r="D2" s="272"/>
-      <c r="E2" s="272"/>
-      <c r="F2" s="272"/>
-      <c r="G2" s="272"/>
+      <c r="A2" s="271" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2" s="271"/>
+      <c r="C2" s="271"/>
+      <c r="D2" s="271"/>
+      <c r="E2" s="271"/>
+      <c r="F2" s="271"/>
+      <c r="G2" s="271"/>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="76"/>
@@ -9585,29 +9593,29 @@
     </row>
     <row r="6" spans="1:22" ht="21.75" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="273" t="s">
+      <c r="B6" s="272" t="s">
         <v>178</v>
       </c>
-      <c r="C6" s="274"/>
-      <c r="D6" s="274"/>
-      <c r="E6" s="274"/>
-      <c r="F6" s="274"/>
-      <c r="G6" s="275"/>
+      <c r="C6" s="273"/>
+      <c r="D6" s="273"/>
+      <c r="E6" s="273"/>
+      <c r="F6" s="273"/>
+      <c r="G6" s="274"/>
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="58"/>
-      <c r="B7" s="281" t="s">
+      <c r="B7" s="280" t="s">
         <v>160</v>
       </c>
-      <c r="C7" s="281"/>
-      <c r="D7" s="279" t="s">
+      <c r="C7" s="280"/>
+      <c r="D7" s="278" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="280"/>
-      <c r="F7" s="278" t="s">
+      <c r="E7" s="279"/>
+      <c r="F7" s="277" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="278"/>
+      <c r="G7" s="277"/>
       <c r="V7" t="s">
         <v>110</v>
       </c>
@@ -9684,16 +9692,16 @@
         <v>214</v>
       </c>
       <c r="B11" s="34">
-        <v>33881</v>
+        <v>33880</v>
       </c>
       <c r="C11" s="119">
-        <v>78.036253099999996</v>
+        <v>78.033949800000002</v>
       </c>
       <c r="D11" s="34">
-        <v>18534</v>
+        <v>18533</v>
       </c>
       <c r="E11" s="54">
-        <v>76.391064200000002</v>
+        <v>76.386942500000004</v>
       </c>
       <c r="F11" s="34">
         <v>15347</v>
@@ -9707,43 +9715,43 @@
         <v>205</v>
       </c>
       <c r="B12" s="34">
-        <v>6592</v>
+        <v>6664</v>
       </c>
       <c r="C12" s="119">
-        <v>15.182992799999999</v>
+        <v>15.348826499999999</v>
       </c>
       <c r="D12" s="34">
-        <v>4017</v>
+        <v>4066</v>
       </c>
       <c r="E12" s="54">
-        <v>16.5567554</v>
+        <v>16.758717300000001</v>
       </c>
       <c r="F12" s="34">
-        <v>2575</v>
+        <v>2598</v>
       </c>
       <c r="G12" s="54">
-        <v>13.442965299999999</v>
+        <v>13.5630384</v>
       </c>
     </row>
     <row r="13" spans="1:22" s="30" customFormat="1">
       <c r="A13" s="17"/>
       <c r="B13" s="118">
-        <v>4305</v>
+        <v>4314</v>
       </c>
       <c r="C13" s="121">
-        <v>9.9154709000000008</v>
+        <v>9.9362001000000006</v>
       </c>
       <c r="D13" s="118">
-        <v>3075</v>
+        <v>3082</v>
       </c>
       <c r="E13" s="81">
-        <v>12.674140599999999</v>
+        <v>12.7029923</v>
       </c>
       <c r="F13" s="118">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="G13" s="82">
-        <v>6.4212999000000002</v>
+        <v>6.4317411</v>
       </c>
     </row>
     <row r="14" spans="1:22" s="30" customFormat="1">
@@ -10255,22 +10263,22 @@
         <v>133</v>
       </c>
       <c r="B36" s="29">
-        <v>2702</v>
+        <v>2719</v>
       </c>
       <c r="C36" s="119">
-        <v>6.2233687</v>
+        <v>6.2625238999999997</v>
       </c>
       <c r="D36" s="29">
-        <v>1273</v>
+        <v>1281</v>
       </c>
       <c r="E36" s="54">
-        <v>5.2468880999999996</v>
+        <v>5.2798615</v>
       </c>
       <c r="F36" s="60">
-        <v>1429</v>
+        <v>1438</v>
       </c>
       <c r="G36" s="54">
-        <v>7.4601932</v>
+        <v>7.5071782999999996</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="14.25" thickBot="1">
@@ -10278,56 +10286,56 @@
         <v>146</v>
       </c>
       <c r="B37" s="52">
-        <v>7847</v>
+        <v>7901</v>
       </c>
       <c r="C37" s="120">
-        <v>18.0735657</v>
+        <v>18.197940899999999</v>
       </c>
       <c r="D37" s="52">
-        <v>3547</v>
+        <v>3581</v>
       </c>
       <c r="E37" s="69">
-        <v>14.6195697</v>
+        <v>14.7597065</v>
       </c>
       <c r="F37" s="52">
-        <v>4300</v>
+        <v>4320</v>
       </c>
       <c r="G37" s="69">
-        <v>22.4484469</v>
+        <v>22.5528583</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="24" customHeight="1" thickTop="1">
-      <c r="A38" s="276" t="s">
+      <c r="A38" s="275" t="s">
         <v>182</v>
       </c>
-      <c r="B38" s="276"/>
-      <c r="C38" s="276"/>
-      <c r="D38" s="276"/>
-      <c r="E38" s="276"/>
-      <c r="F38" s="276"/>
-      <c r="G38" s="276"/>
+      <c r="B38" s="275"/>
+      <c r="C38" s="275"/>
+      <c r="D38" s="275"/>
+      <c r="E38" s="275"/>
+      <c r="F38" s="275"/>
+      <c r="G38" s="275"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="282" t="s">
+      <c r="A39" s="281" t="s">
         <v>177</v>
       </c>
-      <c r="B39" s="282"/>
-      <c r="C39" s="282"/>
-      <c r="D39" s="282"/>
-      <c r="E39" s="282"/>
-      <c r="F39" s="282"/>
-      <c r="G39" s="282"/>
+      <c r="B39" s="281"/>
+      <c r="C39" s="281"/>
+      <c r="D39" s="281"/>
+      <c r="E39" s="281"/>
+      <c r="F39" s="281"/>
+      <c r="G39" s="281"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="277" t="s">
+      <c r="A40" s="276" t="s">
         <v>129</v>
       </c>
-      <c r="B40" s="277"/>
-      <c r="C40" s="277"/>
-      <c r="D40" s="277"/>
-      <c r="E40" s="277"/>
-      <c r="F40" s="277"/>
-      <c r="G40" s="277"/>
+      <c r="B40" s="276"/>
+      <c r="C40" s="276"/>
+      <c r="D40" s="276"/>
+      <c r="E40" s="276"/>
+      <c r="F40" s="276"/>
+      <c r="G40" s="276"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="47"/>
@@ -10379,15 +10387,15 @@
       <c r="I1" s="30"/>
     </row>
     <row r="2" spans="1:9" ht="28.5" customHeight="1">
-      <c r="A2" s="283" t="s">
-        <v>239</v>
-      </c>
-      <c r="B2" s="283"/>
-      <c r="C2" s="283"/>
-      <c r="D2" s="283"/>
-      <c r="E2" s="283"/>
-      <c r="F2" s="283"/>
-      <c r="G2" s="283"/>
+      <c r="A2" s="282" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" s="282"/>
+      <c r="C2" s="282"/>
+      <c r="D2" s="282"/>
+      <c r="E2" s="282"/>
+      <c r="F2" s="282"/>
+      <c r="G2" s="282"/>
       <c r="H2" s="76"/>
       <c r="I2" s="76"/>
     </row>
@@ -10396,30 +10404,30 @@
     </row>
     <row r="5" spans="1:9" ht="13.5" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="285" t="s">
+      <c r="B5" s="284" t="s">
         <v>202</v>
       </c>
-      <c r="C5" s="286"/>
-      <c r="D5" s="285" t="s">
+      <c r="C5" s="285"/>
+      <c r="D5" s="284" t="s">
         <v>214</v>
       </c>
-      <c r="E5" s="286"/>
-      <c r="F5" s="285" t="s">
+      <c r="E5" s="285"/>
+      <c r="F5" s="284" t="s">
         <v>205</v>
       </c>
-      <c r="G5" s="286"/>
+      <c r="G5" s="285"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="287"/>
-      <c r="B6" s="280"/>
-      <c r="C6" s="279"/>
-      <c r="D6" s="280"/>
-      <c r="E6" s="279"/>
-      <c r="F6" s="280"/>
-      <c r="G6" s="279"/>
+      <c r="A6" s="286"/>
+      <c r="B6" s="279"/>
+      <c r="C6" s="278"/>
+      <c r="D6" s="279"/>
+      <c r="E6" s="278"/>
+      <c r="F6" s="279"/>
+      <c r="G6" s="278"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="288"/>
+      <c r="A7" s="287"/>
       <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
@@ -10450,16 +10458,16 @@
         <v>100</v>
       </c>
       <c r="D8" s="88">
-        <v>33881</v>
+        <v>33880</v>
       </c>
       <c r="E8" s="128">
-        <v>78.036253080590598</v>
+        <v>78.033949835317998</v>
       </c>
       <c r="F8" s="88">
-        <v>6592</v>
+        <v>6664</v>
       </c>
       <c r="G8" s="128">
-        <v>15.1829928369072</v>
+        <v>15.348826496533601</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -10502,10 +10510,10 @@
         <v>76.487856952228498</v>
       </c>
       <c r="F10" s="103">
-        <v>2368</v>
+        <v>2388</v>
       </c>
       <c r="G10" s="127">
-        <v>15.7993061115559</v>
+        <v>15.9327461969576</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -10525,10 +10533,10 @@
         <v>77.189109639440801</v>
       </c>
       <c r="F11" s="103">
-        <v>1081</v>
+        <v>1103</v>
       </c>
       <c r="G11" s="127">
-        <v>15.9087564385578</v>
+        <v>16.2325239146431</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -10548,10 +10556,10 @@
         <v>81.406283393887605</v>
       </c>
       <c r="F12" s="103">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="G12" s="127">
-        <v>15.238298781791</v>
+        <v>15.345159222055999</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -10571,10 +10579,10 @@
         <v>79.685393258426998</v>
       </c>
       <c r="F13" s="103">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="G13" s="127">
-        <v>11.5955056179775</v>
+        <v>11.8202247191011</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -10594,10 +10602,10 @@
         <v>81.090909090909093</v>
       </c>
       <c r="F14" s="103">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G14" s="127">
-        <v>13.454545454545499</v>
+        <v>13.5151515151515</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -10611,16 +10619,16 @@
         <v>3.58845613469378</v>
       </c>
       <c r="D15" s="103">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="E15" s="127">
-        <v>80.487804878048806</v>
+        <v>80.423620025673998</v>
       </c>
       <c r="F15" s="103">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="G15" s="127">
-        <v>15.982028241335</v>
+        <v>16.1745827984596</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -10640,10 +10648,10 @@
         <v>77.680965147453094</v>
       </c>
       <c r="F16" s="103">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G16" s="127">
-        <v>15.884718498659501</v>
+        <v>15.9517426273458</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -10686,10 +10694,10 @@
         <v>74.635332252836307</v>
       </c>
       <c r="F18" s="103">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G18" s="127">
-        <v>12.2366288492707</v>
+        <v>12.4797406807131</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -10709,10 +10717,10 @@
         <v>86.503067484662594</v>
       </c>
       <c r="F19" s="103">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G19" s="127">
-        <v>11.349693251533701</v>
+        <v>11.451942740286301</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -10755,10 +10763,10 @@
         <v>69.7175141242938</v>
       </c>
       <c r="F21" s="103">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G21" s="127">
-        <v>18.079096045197701</v>
+        <v>18.1920903954802</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -10778,10 +10786,10 @@
         <v>85.204755614266901</v>
       </c>
       <c r="F22" s="103">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G22" s="127">
-        <v>12.4174372523118</v>
+        <v>12.549537648612899</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -10801,10 +10809,10 @@
         <v>68.4722222222222</v>
       </c>
       <c r="F23" s="103">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G23" s="127">
-        <v>18.3333333333333</v>
+        <v>18.8888888888889</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -10824,10 +10832,10 @@
         <v>81.805359661495103</v>
       </c>
       <c r="F24" s="103">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G24" s="127">
-        <v>10.578279266572601</v>
+        <v>10.7193229901269</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -10847,10 +10855,10 @@
         <v>79.603399433427796</v>
       </c>
       <c r="F25" s="103">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G25" s="127">
-        <v>13.7393767705382</v>
+        <v>14.022662889518401</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -10870,10 +10878,10 @@
         <v>68.126888217522705</v>
       </c>
       <c r="F26" s="103">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G26" s="127">
-        <v>16.465256797583098</v>
+        <v>16.616314199395799</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -10901,7 +10909,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="30" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B28" s="92">
         <v>386</v>
@@ -10962,10 +10970,10 @@
         <v>69.523809523809504</v>
       </c>
       <c r="F30" s="150">
-        <v>13</v>
-      </c>
-      <c r="G30" s="149">
-        <v>12.380952380952399</v>
+        <v>14</v>
+      </c>
+      <c r="G30" s="228">
+        <v>13.3333333333333</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -10990,13 +10998,13 @@
       <c r="C33" s="80"/>
     </row>
     <row r="34" spans="1:7" ht="24.75" customHeight="1">
-      <c r="A34" s="284"/>
-      <c r="B34" s="284"/>
-      <c r="C34" s="284"/>
-      <c r="D34" s="284"/>
-      <c r="E34" s="284"/>
-      <c r="F34" s="284"/>
-      <c r="G34" s="284"/>
+      <c r="A34" s="283"/>
+      <c r="B34" s="283"/>
+      <c r="C34" s="283"/>
+      <c r="D34" s="283"/>
+      <c r="E34" s="283"/>
+      <c r="F34" s="283"/>
+      <c r="G34" s="283"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -11053,17 +11061,17 @@
       </c>
     </row>
     <row r="2" spans="1:97" ht="30" customHeight="1">
-      <c r="A2" s="272" t="s">
-        <v>284</v>
-      </c>
-      <c r="B2" s="272"/>
-      <c r="C2" s="272"/>
-      <c r="D2" s="272"/>
-      <c r="E2" s="272"/>
-      <c r="F2" s="272"/>
-      <c r="G2" s="272"/>
-      <c r="H2" s="272"/>
-      <c r="I2" s="272"/>
+      <c r="A2" s="271" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" s="271"/>
+      <c r="C2" s="271"/>
+      <c r="D2" s="271"/>
+      <c r="E2" s="271"/>
+      <c r="F2" s="271"/>
+      <c r="G2" s="271"/>
+      <c r="H2" s="271"/>
+      <c r="I2" s="271"/>
     </row>
     <row r="3" spans="1:97">
       <c r="A3" s="61"/>
@@ -11084,304 +11092,304 @@
     </row>
     <row r="5" spans="1:97" ht="28.5" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="285" t="s">
+      <c r="B5" s="284" t="s">
         <v>202</v>
       </c>
-      <c r="C5" s="286"/>
-      <c r="D5" s="273" t="s">
+      <c r="C5" s="285"/>
+      <c r="D5" s="223" t="s">
         <v>193</v>
       </c>
-      <c r="E5" s="274"/>
-      <c r="F5" s="274"/>
-      <c r="G5" s="274"/>
-      <c r="H5" s="274"/>
-      <c r="I5" s="274"/>
-      <c r="J5" s="274"/>
-      <c r="K5" s="274"/>
-      <c r="L5" s="274"/>
-      <c r="M5" s="274"/>
-      <c r="N5" s="274"/>
-      <c r="O5" s="274"/>
-      <c r="P5" s="274"/>
-      <c r="Q5" s="274"/>
-      <c r="R5" s="274"/>
-      <c r="S5" s="274"/>
-      <c r="T5" s="274"/>
-      <c r="U5" s="274"/>
-      <c r="V5" s="274"/>
-      <c r="W5" s="274"/>
-      <c r="X5" s="274"/>
-      <c r="Y5" s="274"/>
-      <c r="Z5" s="274"/>
-      <c r="AA5" s="274"/>
-      <c r="AB5" s="274"/>
-      <c r="AC5" s="274"/>
-      <c r="AD5" s="274"/>
-      <c r="AE5" s="274"/>
-      <c r="AF5" s="274"/>
-      <c r="AG5" s="274"/>
-      <c r="AH5" s="274"/>
-      <c r="AI5" s="274"/>
-      <c r="AJ5" s="274"/>
-      <c r="AK5" s="274"/>
-      <c r="AL5" s="274"/>
-      <c r="AM5" s="274"/>
-      <c r="AN5" s="274"/>
-      <c r="AO5" s="274"/>
-      <c r="AP5" s="274"/>
-      <c r="AQ5" s="274"/>
-      <c r="AR5" s="274"/>
-      <c r="AS5" s="274"/>
-      <c r="AT5" s="274"/>
-      <c r="AU5" s="274"/>
-      <c r="AV5" s="274"/>
-      <c r="AW5" s="274"/>
-      <c r="AX5" s="274"/>
-      <c r="AY5" s="274"/>
-      <c r="AZ5" s="274"/>
-      <c r="BA5" s="274"/>
-      <c r="BB5" s="274"/>
-      <c r="BC5" s="274"/>
-      <c r="BD5" s="274"/>
-      <c r="BE5" s="274"/>
-      <c r="BF5" s="274"/>
-      <c r="BG5" s="274"/>
-      <c r="BH5" s="274"/>
-      <c r="BI5" s="274"/>
-      <c r="BJ5" s="274"/>
-      <c r="BK5" s="274"/>
-      <c r="BL5" s="274"/>
-      <c r="BM5" s="274"/>
-      <c r="BN5" s="274"/>
-      <c r="BO5" s="274"/>
-      <c r="BP5" s="274"/>
-      <c r="BQ5" s="274"/>
-      <c r="BR5" s="274"/>
-      <c r="BS5" s="274"/>
-      <c r="BT5" s="274"/>
-      <c r="BU5" s="274"/>
-      <c r="BV5" s="274"/>
-      <c r="BW5" s="274"/>
-      <c r="BX5" s="274"/>
-      <c r="BY5" s="274"/>
-      <c r="BZ5" s="274"/>
-      <c r="CA5" s="274"/>
-      <c r="CB5" s="274"/>
-      <c r="CC5" s="274"/>
-      <c r="CD5" s="274"/>
-      <c r="CE5" s="300"/>
-      <c r="CF5" s="299" t="s">
+      <c r="E5" s="224"/>
+      <c r="F5" s="224"/>
+      <c r="G5" s="224"/>
+      <c r="H5" s="224"/>
+      <c r="I5" s="224"/>
+      <c r="J5" s="224"/>
+      <c r="K5" s="224"/>
+      <c r="L5" s="224"/>
+      <c r="M5" s="224"/>
+      <c r="N5" s="224"/>
+      <c r="O5" s="224"/>
+      <c r="P5" s="224"/>
+      <c r="Q5" s="224"/>
+      <c r="R5" s="224"/>
+      <c r="S5" s="224"/>
+      <c r="T5" s="224"/>
+      <c r="U5" s="224"/>
+      <c r="V5" s="224"/>
+      <c r="W5" s="224"/>
+      <c r="X5" s="224"/>
+      <c r="Y5" s="224"/>
+      <c r="Z5" s="224"/>
+      <c r="AA5" s="224"/>
+      <c r="AB5" s="224"/>
+      <c r="AC5" s="224"/>
+      <c r="AD5" s="224"/>
+      <c r="AE5" s="224"/>
+      <c r="AF5" s="224"/>
+      <c r="AG5" s="224"/>
+      <c r="AH5" s="224"/>
+      <c r="AI5" s="224"/>
+      <c r="AJ5" s="224"/>
+      <c r="AK5" s="224"/>
+      <c r="AL5" s="224"/>
+      <c r="AM5" s="224"/>
+      <c r="AN5" s="224"/>
+      <c r="AO5" s="224"/>
+      <c r="AP5" s="224"/>
+      <c r="AQ5" s="224"/>
+      <c r="AR5" s="224"/>
+      <c r="AS5" s="224"/>
+      <c r="AT5" s="224"/>
+      <c r="AU5" s="224"/>
+      <c r="AV5" s="224"/>
+      <c r="AW5" s="224"/>
+      <c r="AX5" s="224"/>
+      <c r="AY5" s="224"/>
+      <c r="AZ5" s="224"/>
+      <c r="BA5" s="224"/>
+      <c r="BB5" s="224"/>
+      <c r="BC5" s="224"/>
+      <c r="BD5" s="222"/>
+      <c r="BE5" s="222"/>
+      <c r="BF5" s="222"/>
+      <c r="BG5" s="222"/>
+      <c r="BH5" s="222"/>
+      <c r="BI5" s="222"/>
+      <c r="BJ5" s="222"/>
+      <c r="BK5" s="222"/>
+      <c r="BL5" s="222"/>
+      <c r="BM5" s="222"/>
+      <c r="BN5" s="222"/>
+      <c r="BO5" s="222"/>
+      <c r="BP5" s="222"/>
+      <c r="BQ5" s="222"/>
+      <c r="BR5" s="222"/>
+      <c r="BS5" s="222"/>
+      <c r="BT5" s="224"/>
+      <c r="BU5" s="224"/>
+      <c r="BV5" s="224"/>
+      <c r="BW5" s="224"/>
+      <c r="BX5" s="224"/>
+      <c r="BY5" s="224"/>
+      <c r="BZ5" s="224"/>
+      <c r="CA5" s="224"/>
+      <c r="CB5" s="224"/>
+      <c r="CC5" s="224"/>
+      <c r="CD5" s="224"/>
+      <c r="CE5" s="225"/>
+      <c r="CF5" s="290" t="s">
         <v>194</v>
       </c>
-      <c r="CG5" s="274"/>
-      <c r="CH5" s="274"/>
-      <c r="CI5" s="274"/>
-      <c r="CJ5" s="274"/>
-      <c r="CK5" s="274"/>
-      <c r="CL5" s="274"/>
-      <c r="CM5" s="274"/>
-      <c r="CN5" s="274"/>
-      <c r="CO5" s="274"/>
-      <c r="CP5" s="274"/>
-      <c r="CQ5" s="274"/>
-      <c r="CR5" s="274"/>
-      <c r="CS5" s="274"/>
+      <c r="CG5" s="273"/>
+      <c r="CH5" s="273"/>
+      <c r="CI5" s="273"/>
+      <c r="CJ5" s="273"/>
+      <c r="CK5" s="273"/>
+      <c r="CL5" s="273"/>
+      <c r="CM5" s="273"/>
+      <c r="CN5" s="273"/>
+      <c r="CO5" s="273"/>
+      <c r="CP5" s="273"/>
+      <c r="CQ5" s="273"/>
+      <c r="CR5" s="273"/>
+      <c r="CS5" s="273"/>
     </row>
     <row r="6" spans="1:97" ht="13.5" customHeight="1">
-      <c r="A6" s="297"/>
-      <c r="B6" s="295"/>
-      <c r="C6" s="296"/>
-      <c r="D6" s="293" t="s">
+      <c r="A6" s="295"/>
+      <c r="B6" s="293"/>
+      <c r="C6" s="294"/>
+      <c r="D6" s="291" t="s">
         <v>195</v>
       </c>
       <c r="E6" s="292"/>
-      <c r="F6" s="293" t="s">
+      <c r="F6" s="291" t="s">
         <v>196</v>
       </c>
       <c r="G6" s="292"/>
-      <c r="H6" s="293" t="s">
+      <c r="H6" s="291" t="s">
         <v>191</v>
       </c>
       <c r="I6" s="292"/>
-      <c r="J6" s="293" t="s">
+      <c r="J6" s="291" t="s">
         <v>167</v>
       </c>
       <c r="K6" s="292"/>
-      <c r="L6" s="293" t="s">
+      <c r="L6" s="291" t="s">
         <v>168</v>
       </c>
       <c r="M6" s="292"/>
-      <c r="N6" s="293" t="s">
+      <c r="N6" s="291" t="s">
         <v>169</v>
       </c>
       <c r="O6" s="292"/>
-      <c r="P6" s="293" t="s">
+      <c r="P6" s="291" t="s">
         <v>170</v>
       </c>
       <c r="Q6" s="292"/>
-      <c r="R6" s="293" t="s">
+      <c r="R6" s="291" t="s">
         <v>171</v>
       </c>
       <c r="S6" s="292"/>
-      <c r="T6" s="293" t="s">
+      <c r="T6" s="291" t="s">
         <v>172</v>
       </c>
       <c r="U6" s="292"/>
-      <c r="V6" s="293" t="s">
+      <c r="V6" s="291" t="s">
         <v>173</v>
       </c>
       <c r="W6" s="292"/>
-      <c r="X6" s="293" t="s">
+      <c r="X6" s="291" t="s">
         <v>174</v>
       </c>
       <c r="Y6" s="292"/>
-      <c r="Z6" s="293" t="s">
+      <c r="Z6" s="291" t="s">
         <v>175</v>
       </c>
       <c r="AA6" s="292"/>
-      <c r="AB6" s="293" t="s">
+      <c r="AB6" s="291" t="s">
         <v>201</v>
       </c>
       <c r="AC6" s="292"/>
-      <c r="AD6" s="293" t="s">
+      <c r="AD6" s="291" t="s">
         <v>222</v>
       </c>
       <c r="AE6" s="292"/>
-      <c r="AF6" s="293" t="s">
+      <c r="AF6" s="291" t="s">
         <v>230</v>
       </c>
       <c r="AG6" s="292"/>
-      <c r="AH6" s="293" t="s">
+      <c r="AH6" s="291" t="s">
         <v>234</v>
       </c>
       <c r="AI6" s="292"/>
-      <c r="AJ6" s="293" t="s">
-        <v>240</v>
+      <c r="AJ6" s="291" t="s">
+        <v>243</v>
       </c>
       <c r="AK6" s="292"/>
-      <c r="AL6" s="293" t="s">
-        <v>241</v>
+      <c r="AL6" s="291" t="s">
+        <v>244</v>
       </c>
       <c r="AM6" s="292"/>
-      <c r="AN6" s="293" t="s">
-        <v>242</v>
+      <c r="AN6" s="291" t="s">
+        <v>245</v>
       </c>
       <c r="AO6" s="292"/>
-      <c r="AP6" s="293" t="s">
-        <v>243</v>
+      <c r="AP6" s="291" t="s">
+        <v>246</v>
       </c>
       <c r="AQ6" s="292"/>
-      <c r="AR6" s="293" t="s">
-        <v>244</v>
+      <c r="AR6" s="291" t="s">
+        <v>247</v>
       </c>
       <c r="AS6" s="292"/>
-      <c r="AT6" s="293" t="s">
-        <v>245</v>
+      <c r="AT6" s="291" t="s">
+        <v>248</v>
       </c>
       <c r="AU6" s="292"/>
-      <c r="AV6" s="293" t="s">
-        <v>246</v>
+      <c r="AV6" s="291" t="s">
+        <v>249</v>
       </c>
       <c r="AW6" s="292"/>
-      <c r="AX6" s="293" t="s">
-        <v>247</v>
+      <c r="AX6" s="291" t="s">
+        <v>250</v>
       </c>
       <c r="AY6" s="292"/>
-      <c r="AZ6" s="293" t="s">
-        <v>248</v>
-      </c>
-      <c r="BA6" s="294"/>
-      <c r="BB6" s="289" t="s">
-        <v>250</v>
-      </c>
-      <c r="BC6" s="298"/>
-      <c r="BD6" s="289" t="s">
+      <c r="AZ6" s="291" t="s">
         <v>251</v>
       </c>
-      <c r="BE6" s="290"/>
-      <c r="BF6" s="289" t="s">
-        <v>252</v>
-      </c>
-      <c r="BG6" s="290"/>
-      <c r="BH6" s="289" t="s">
+      <c r="BA6" s="297"/>
+      <c r="BB6" s="288" t="s">
+        <v>253</v>
+      </c>
+      <c r="BC6" s="296"/>
+      <c r="BD6" s="288" t="s">
         <v>254</v>
       </c>
-      <c r="BI6" s="290"/>
-      <c r="BJ6" s="289" t="s">
-        <v>253</v>
-      </c>
-      <c r="BK6" s="290"/>
-      <c r="BL6" s="289" t="s">
+      <c r="BE6" s="289"/>
+      <c r="BF6" s="288" t="s">
         <v>255</v>
       </c>
-      <c r="BM6" s="290"/>
-      <c r="BN6" s="289" t="s">
+      <c r="BG6" s="289"/>
+      <c r="BH6" s="288" t="s">
+        <v>257</v>
+      </c>
+      <c r="BI6" s="289"/>
+      <c r="BJ6" s="288" t="s">
+        <v>256</v>
+      </c>
+      <c r="BK6" s="289"/>
+      <c r="BL6" s="288" t="s">
         <v>258</v>
       </c>
-      <c r="BO6" s="290"/>
-      <c r="BP6" s="289" t="s">
-        <v>259</v>
-      </c>
-      <c r="BQ6" s="290"/>
-      <c r="BR6" s="289" t="s">
+      <c r="BM6" s="289"/>
+      <c r="BN6" s="288" t="s">
+        <v>261</v>
+      </c>
+      <c r="BO6" s="289"/>
+      <c r="BP6" s="288" t="s">
+        <v>262</v>
+      </c>
+      <c r="BQ6" s="289"/>
+      <c r="BR6" s="288" t="s">
+        <v>268</v>
+      </c>
+      <c r="BS6" s="289"/>
+      <c r="BT6" s="288" t="s">
+        <v>267</v>
+      </c>
+      <c r="BU6" s="289"/>
+      <c r="BV6" s="288" t="s">
+        <v>266</v>
+      </c>
+      <c r="BW6" s="289"/>
+      <c r="BX6" s="288" t="s">
         <v>265</v>
       </c>
-      <c r="BS6" s="290"/>
-      <c r="BT6" s="289" t="s">
+      <c r="BY6" s="289"/>
+      <c r="BZ6" s="288" t="s">
         <v>264</v>
       </c>
-      <c r="BU6" s="290"/>
-      <c r="BV6" s="289" t="s">
+      <c r="CA6" s="289"/>
+      <c r="CB6" s="288" t="s">
         <v>263</v>
       </c>
-      <c r="BW6" s="290"/>
-      <c r="BX6" s="289" t="s">
-        <v>262</v>
-      </c>
-      <c r="BY6" s="290"/>
-      <c r="BZ6" s="289" t="s">
-        <v>261</v>
-      </c>
-      <c r="CA6" s="290"/>
-      <c r="CB6" s="289" t="s">
-        <v>260</v>
-      </c>
-      <c r="CC6" s="290"/>
-      <c r="CD6" s="289" t="s">
-        <v>267</v>
-      </c>
-      <c r="CE6" s="290"/>
-      <c r="CF6" s="289" t="s">
-        <v>266</v>
-      </c>
-      <c r="CG6" s="290"/>
-      <c r="CH6" s="289" t="s">
-        <v>268</v>
-      </c>
-      <c r="CI6" s="290"/>
-      <c r="CJ6" s="289" t="s">
+      <c r="CC6" s="289"/>
+      <c r="CD6" s="288" t="s">
+        <v>270</v>
+      </c>
+      <c r="CE6" s="289"/>
+      <c r="CF6" s="288" t="s">
         <v>269</v>
       </c>
-      <c r="CK6" s="290"/>
-      <c r="CL6" s="289" t="s">
-        <v>270</v>
-      </c>
-      <c r="CM6" s="290"/>
-      <c r="CN6" s="291" t="s">
-        <v>280</v>
-      </c>
-      <c r="CO6" s="292"/>
-      <c r="CP6" s="291" t="s">
-        <v>281</v>
-      </c>
-      <c r="CQ6" s="292"/>
-      <c r="CR6" s="291" t="s">
-        <v>282</v>
-      </c>
-      <c r="CS6" s="292"/>
+      <c r="CG6" s="289"/>
+      <c r="CH6" s="288" t="s">
+        <v>271</v>
+      </c>
+      <c r="CI6" s="289"/>
+      <c r="CJ6" s="288" t="s">
+        <v>272</v>
+      </c>
+      <c r="CK6" s="289"/>
+      <c r="CL6" s="288" t="s">
+        <v>273</v>
+      </c>
+      <c r="CM6" s="289"/>
+      <c r="CN6" s="288" t="s">
+        <v>274</v>
+      </c>
+      <c r="CO6" s="289"/>
+      <c r="CP6" s="288" t="s">
+        <v>275</v>
+      </c>
+      <c r="CQ6" s="289"/>
+      <c r="CR6" s="288" t="s">
+        <v>276</v>
+      </c>
+      <c r="CS6" s="289"/>
     </row>
     <row r="7" spans="1:97">
-      <c r="A7" s="297"/>
+      <c r="A7" s="295"/>
       <c r="B7" s="191" t="s">
         <v>5</v>
       </c>
@@ -11951,13 +11959,13 @@
       <c r="CO8" s="163">
         <v>3.7105281341410099</v>
       </c>
-      <c r="CP8" s="163">
+      <c r="CP8" s="164">
         <v>1049</v>
       </c>
       <c r="CQ8" s="163">
         <v>2.41610429094594</v>
       </c>
-      <c r="CR8" s="163">
+      <c r="CR8" s="164">
         <v>267</v>
       </c>
       <c r="CS8" s="163">
@@ -12061,13 +12069,9 @@
       <c r="CN9" s="65"/>
       <c r="CO9" s="169"/>
       <c r="CP9" s="65"/>
-      <c r="CQ9" s="169" t="s">
-        <v>110</v>
-      </c>
+      <c r="CQ9" s="169"/>
       <c r="CR9" s="65"/>
-      <c r="CS9" s="169" t="s">
-        <v>110</v>
-      </c>
+      <c r="CS9" s="169"/>
     </row>
     <row r="10" spans="1:97">
       <c r="A10" s="68" t="s">
@@ -12666,7 +12670,7 @@
         <v>10.7768846304443</v>
       </c>
       <c r="D12" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="E12" s="163" t="s">
         <v>110</v>
@@ -12942,7 +12946,7 @@
         <v>3.7401154092754898</v>
       </c>
       <c r="CR12" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="CS12" s="163" t="s">
         <v>110</v>
@@ -13097,7 +13101,7 @@
         <v>0.17977528089888001</v>
       </c>
       <c r="AX13" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AY13" s="163" t="s">
         <v>110</v>
@@ -13115,7 +13119,7 @@
         <v>0.35955056179775002</v>
       </c>
       <c r="BD13" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BE13" s="163" t="s">
         <v>110</v>
@@ -13252,7 +13256,7 @@
         <v>2.9527604394592002</v>
       </c>
       <c r="D14" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="E14" s="163" t="s">
         <v>110</v>
@@ -13372,13 +13376,13 @@
         <v>0.54602184087364003</v>
       </c>
       <c r="AR14" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AS14" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AT14" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AU14" s="163" t="s">
         <v>110</v>
@@ -13390,19 +13394,19 @@
         <v>0</v>
       </c>
       <c r="AX14" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AY14" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AZ14" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BA14" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BB14" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BC14" s="163" t="s">
         <v>110</v>
@@ -13414,31 +13418,31 @@
         <v>0</v>
       </c>
       <c r="BF14" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BG14" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BH14" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BI14" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BJ14" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BK14" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BL14" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BM14" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BN14" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BO14" s="163" t="s">
         <v>110</v>
@@ -13528,7 +13532,7 @@
         <v>2.3400936037441502</v>
       </c>
       <c r="CR14" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="CS14" s="163" t="s">
         <v>110</v>
@@ -13545,7 +13549,7 @@
         <v>3.8003546997719799</v>
       </c>
       <c r="D15" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="E15" s="163" t="s">
         <v>110</v>
@@ -13689,13 +13693,13 @@
         <v>0.42424242424241998</v>
       </c>
       <c r="AZ15" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BA15" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BB15" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BC15" s="163" t="s">
         <v>110</v>
@@ -13713,19 +13717,19 @@
         <v>0.36363636363635998</v>
       </c>
       <c r="BH15" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BI15" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BJ15" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BK15" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BL15" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BM15" s="163" t="s">
         <v>110</v>
@@ -14006,7 +14010,7 @@
         <v>0.70603337612324002</v>
       </c>
       <c r="BH16" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BI16" s="163" t="s">
         <v>110</v>
@@ -14114,7 +14118,7 @@
         <v>1.5404364569961499</v>
       </c>
       <c r="CR16" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="CS16" s="163" t="s">
         <v>110</v>
@@ -14131,7 +14135,7 @@
         <v>3.4364419467028999</v>
       </c>
       <c r="D17" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="E17" s="163" t="s">
         <v>110</v>
@@ -14239,25 +14243,25 @@
         <v>0.73726541554960001</v>
       </c>
       <c r="AN17" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AO17" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AP17" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AQ17" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AR17" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AS17" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AT17" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AU17" s="163" t="s">
         <v>110</v>
@@ -14275,13 +14279,13 @@
         <v>0.26809651474530999</v>
       </c>
       <c r="AZ17" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BA17" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BB17" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BC17" s="163" t="s">
         <v>110</v>
@@ -14299,7 +14303,7 @@
         <v>0.26809651474530999</v>
       </c>
       <c r="BH17" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BI17" s="163" t="s">
         <v>110</v>
@@ -14407,7 +14411,7 @@
         <v>1.27345844504021</v>
       </c>
       <c r="CR17" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="CS17" s="163" t="s">
         <v>110</v>
@@ -14430,7 +14434,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="G18" s="163" t="s">
         <v>110</v>
@@ -14574,7 +14578,7 @@
         <v>0.64829821717989999</v>
       </c>
       <c r="BB18" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BC18" s="163" t="s">
         <v>110</v>
@@ -14586,13 +14590,13 @@
         <v>0.40518638573743998</v>
       </c>
       <c r="BF18" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BG18" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BH18" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BI18" s="163" t="s">
         <v>110</v>
@@ -14700,7 +14704,7 @@
         <v>1.53970826580227</v>
       </c>
       <c r="CR18" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="CS18" s="163" t="s">
         <v>110</v>
@@ -14723,7 +14727,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="G19" s="163" t="s">
         <v>110</v>
@@ -14903,7 +14907,7 @@
         <v>0.70521861777150996</v>
       </c>
       <c r="BN19" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BO19" s="163" t="s">
         <v>110</v>
@@ -14950,53 +14954,53 @@
       <c r="CC19" s="163">
         <v>1.69252468265162</v>
       </c>
-      <c r="CD19" s="226" t="s">
-        <v>272</v>
-      </c>
-      <c r="CE19" s="227" t="s">
-        <v>273</v>
+      <c r="CD19" s="164">
+        <v>0</v>
+      </c>
+      <c r="CE19" s="163">
+        <v>0</v>
       </c>
       <c r="CF19" s="226" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="CG19" s="227" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="CH19" s="226" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="CI19" s="227" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="CJ19" s="226" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="CK19" s="227" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="CL19" s="226" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="CM19" s="227" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="CN19" s="226" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="CO19" s="227" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="CP19" s="226" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="CQ19" s="227" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="CR19" s="226" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="CS19" s="227" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:97">
@@ -15010,13 +15014,13 @@
         <v>2.2525738765921202</v>
       </c>
       <c r="D20" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="E20" s="163" t="s">
         <v>110</v>
       </c>
       <c r="F20" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="G20" s="163" t="s">
         <v>110</v>
@@ -15118,19 +15122,19 @@
         <v>0.71574642126789001</v>
       </c>
       <c r="AN20" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AO20" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AP20" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AQ20" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AR20" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AS20" s="163" t="s">
         <v>110</v>
@@ -15142,37 +15146,37 @@
         <v>0.40899795501023001</v>
       </c>
       <c r="AV20" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AW20" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AX20" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AY20" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AZ20" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BA20" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BB20" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BC20" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BD20" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BE20" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BF20" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BG20" s="163" t="s">
         <v>110</v>
@@ -15184,7 +15188,7 @@
         <v>0.40899795501023001</v>
       </c>
       <c r="BJ20" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BK20" s="163" t="s">
         <v>110</v>
@@ -15285,11 +15289,11 @@
       <c r="CQ20" s="163">
         <v>0.81799591002045002</v>
       </c>
-      <c r="CR20" s="226" t="s">
-        <v>272</v>
-      </c>
-      <c r="CS20" s="227" t="s">
-        <v>273</v>
+      <c r="CR20" s="164">
+        <v>0</v>
+      </c>
+      <c r="CS20" s="163">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:97">
@@ -15303,7 +15307,7 @@
         <v>2.03837206624133</v>
       </c>
       <c r="D21" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="E21" s="163" t="s">
         <v>110</v>
@@ -15417,7 +15421,7 @@
         <v>1.1299435028248599</v>
       </c>
       <c r="AP21" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AQ21" s="163" t="s">
         <v>110</v>
@@ -15429,25 +15433,25 @@
         <v>0.45197740112994</v>
       </c>
       <c r="AT21" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AU21" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AV21" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AW21" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AX21" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AY21" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AZ21" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BA21" s="163" t="s">
         <v>110</v>
@@ -15459,7 +15463,7 @@
         <v>1.0169491525423699</v>
       </c>
       <c r="BD21" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BE21" s="163" t="s">
         <v>110</v>
@@ -15602,7 +15606,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="G22" s="163" t="s">
         <v>110</v>
@@ -15746,13 +15750,13 @@
         <v>0.89086859688195996</v>
       </c>
       <c r="BB22" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BC22" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BD22" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BE22" s="163" t="s">
         <v>110</v>
@@ -15788,7 +15792,7 @@
         <v>0.89086859688195996</v>
       </c>
       <c r="BP22" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BQ22" s="163" t="s">
         <v>110</v>
@@ -15800,7 +15804,7 @@
         <v>0.44543429844097998</v>
       </c>
       <c r="BT22" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BU22" s="163" t="s">
         <v>110</v>
@@ -15872,7 +15876,7 @@
         <v>1.67037861915368</v>
       </c>
       <c r="CR22" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="CS22" s="163" t="s">
         <v>110</v>
@@ -15889,7 +15893,7 @@
         <v>1.5247483704539699</v>
       </c>
       <c r="D23" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="E23" s="163" t="s">
         <v>110</v>
@@ -16003,13 +16007,13 @@
         <v>1.5105740181268901</v>
       </c>
       <c r="AP23" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AQ23" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AR23" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AS23" s="163" t="s">
         <v>110</v>
@@ -16021,7 +16025,7 @@
         <v>0</v>
       </c>
       <c r="AV23" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AW23" s="163" t="s">
         <v>110</v>
@@ -16033,7 +16037,7 @@
         <v>0.75528700906344004</v>
       </c>
       <c r="AZ23" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BA23" s="163" t="s">
         <v>110</v>
@@ -16051,19 +16055,19 @@
         <v>0.75528700906344004</v>
       </c>
       <c r="BF23" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BG23" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BH23" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BI23" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BJ23" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BK23" s="163" t="s">
         <v>110</v>
@@ -16075,19 +16079,19 @@
         <v>1.0574018126888201</v>
       </c>
       <c r="BN23" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BO23" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BP23" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BQ23" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BR23" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BS23" s="163" t="s">
         <v>110</v>
@@ -16165,7 +16169,7 @@
         <v>1.5105740181268901</v>
       </c>
       <c r="CR23" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="CS23" s="163" t="s">
         <v>110</v>
@@ -16188,7 +16192,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="G24" s="163" t="s">
         <v>110</v>
@@ -16290,25 +16294,25 @@
         <v>0.79260237780713005</v>
       </c>
       <c r="AN24" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AO24" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AP24" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AQ24" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AR24" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AS24" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AT24" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AU24" s="163" t="s">
         <v>110</v>
@@ -16320,13 +16324,13 @@
         <v>0.52840158520475999</v>
       </c>
       <c r="AX24" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AY24" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AZ24" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BA24" s="163" t="s">
         <v>110</v>
@@ -16344,7 +16348,7 @@
         <v>0.52840158520475999</v>
       </c>
       <c r="BF24" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BG24" s="163" t="s">
         <v>110</v>
@@ -16481,7 +16485,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="G25" s="163" t="s">
         <v>110</v>
@@ -16595,25 +16599,25 @@
         <v>0.70821529745042999</v>
       </c>
       <c r="AR25" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AS25" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AT25" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AU25" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AV25" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AW25" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AX25" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AY25" s="163" t="s">
         <v>110</v>
@@ -16631,19 +16635,19 @@
         <v>0.70821529745042999</v>
       </c>
       <c r="BD25" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BE25" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BF25" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BG25" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BH25" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BI25" s="163" t="s">
         <v>110</v>
@@ -16655,19 +16659,19 @@
         <v>0</v>
       </c>
       <c r="BL25" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BM25" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BN25" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BO25" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BP25" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BQ25" s="163" t="s">
         <v>110</v>
@@ -16792,7 +16796,7 @@
         <v>0.97222222222221999</v>
       </c>
       <c r="L26" s="79" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="M26" s="163" t="s">
         <v>110</v>
@@ -16876,19 +16880,19 @@
         <v>0.69444444444443998</v>
       </c>
       <c r="AN26" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AO26" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AP26" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AQ26" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AR26" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AS26" s="163" t="s">
         <v>110</v>
@@ -16900,7 +16904,7 @@
         <v>1.1111111111111101</v>
       </c>
       <c r="AV26" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AW26" s="163" t="s">
         <v>110</v>
@@ -16912,7 +16916,7 @@
         <v>0.55555555555556002</v>
       </c>
       <c r="AZ26" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BA26" s="163" t="s">
         <v>110</v>
@@ -16924,7 +16928,7 @@
         <v>0</v>
       </c>
       <c r="BD26" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BE26" s="163" t="s">
         <v>110</v>
@@ -16948,7 +16952,7 @@
         <v>0.97222222222221999</v>
       </c>
       <c r="BL26" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BM26" s="163" t="s">
         <v>110</v>
@@ -17169,13 +17173,13 @@
         <v>2.3489932885906</v>
       </c>
       <c r="AN27" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AO27" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AP27" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AQ27" s="163" t="s">
         <v>110</v>
@@ -17187,7 +17191,7 @@
         <v>1.34228187919463</v>
       </c>
       <c r="AT27" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AU27" s="163" t="s">
         <v>110</v>
@@ -17205,19 +17209,19 @@
         <v>0</v>
       </c>
       <c r="AZ27" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BA27" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BB27" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BC27" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BD27" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BE27" s="163" t="s">
         <v>110</v>
@@ -17229,31 +17233,31 @@
         <v>0</v>
       </c>
       <c r="BH27" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BI27" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BJ27" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BK27" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BL27" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BM27" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BN27" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BO27" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BP27" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BQ27" s="163" t="s">
         <v>110</v>
@@ -17265,13 +17269,13 @@
         <v>1.6778523489932899</v>
       </c>
       <c r="BT27" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BU27" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BV27" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BW27" s="163" t="s">
         <v>110</v>
@@ -17360,7 +17364,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="G28" s="163" t="s">
         <v>110</v>
@@ -17408,7 +17412,7 @@
         <v>1.9512195121951199</v>
       </c>
       <c r="V28" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="W28" s="163" t="s">
         <v>110</v>
@@ -17426,7 +17430,7 @@
         <v>1.7073170731707299</v>
       </c>
       <c r="AB28" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AC28" s="163" t="s">
         <v>110</v>
@@ -17468,7 +17472,7 @@
         <v>0.97560975609755995</v>
       </c>
       <c r="AP28" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AQ28" s="163" t="s">
         <v>110</v>
@@ -17480,7 +17484,7 @@
         <v>0</v>
       </c>
       <c r="AT28" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AU28" s="163" t="s">
         <v>110</v>
@@ -17504,7 +17508,7 @@
         <v>0</v>
       </c>
       <c r="BB28" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BC28" s="163" t="s">
         <v>110</v>
@@ -17516,31 +17520,31 @@
         <v>0</v>
       </c>
       <c r="BF28" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BG28" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BH28" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BI28" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BJ28" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BK28" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BL28" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BM28" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BN28" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BO28" s="163" t="s">
         <v>110</v>
@@ -17552,7 +17556,7 @@
         <v>0.97560975609755995</v>
       </c>
       <c r="BR28" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BS28" s="163" t="s">
         <v>110</v>
@@ -17638,7 +17642,7 @@
     </row>
     <row r="29" spans="1:97">
       <c r="A29" s="153" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B29" s="78">
         <v>386</v>
@@ -17677,25 +17681,25 @@
         <v>1.2953367875647701</v>
       </c>
       <c r="N29" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="O29" s="163" t="s">
         <v>110</v>
       </c>
       <c r="P29" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="Q29" s="163" t="s">
         <v>110</v>
       </c>
       <c r="R29" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="S29" s="163" t="s">
         <v>110</v>
       </c>
       <c r="T29" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="U29" s="163" t="s">
         <v>110</v>
@@ -17743,7 +17747,7 @@
         <v>3.3678756476683902</v>
       </c>
       <c r="AJ29" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AK29" s="163" t="s">
         <v>110</v>
@@ -17755,7 +17759,7 @@
         <v>1.2953367875647701</v>
       </c>
       <c r="AN29" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AO29" s="163" t="s">
         <v>110</v>
@@ -17767,7 +17771,7 @@
         <v>1.03626943005181</v>
       </c>
       <c r="AR29" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AS29" s="163" t="s">
         <v>110</v>
@@ -17779,7 +17783,7 @@
         <v>1.2953367875647701</v>
       </c>
       <c r="AV29" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AW29" s="163" t="s">
         <v>110</v>
@@ -17803,7 +17807,7 @@
         <v>0</v>
       </c>
       <c r="BD29" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BE29" s="163" t="s">
         <v>110</v>
@@ -17815,7 +17819,7 @@
         <v>0</v>
       </c>
       <c r="BH29" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BI29" s="163" t="s">
         <v>110</v>
@@ -17839,7 +17843,7 @@
         <v>1.03626943005181</v>
       </c>
       <c r="BP29" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BQ29" s="163" t="s">
         <v>110</v>
@@ -17923,7 +17927,7 @@
         <v>6.4766839378238403</v>
       </c>
       <c r="CR29" s="164" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="CS29" s="163" t="s">
         <v>110</v>
@@ -17952,13 +17956,13 @@
         <v>0</v>
       </c>
       <c r="H30" s="158" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="I30" s="154" t="s">
         <v>110</v>
       </c>
       <c r="J30" s="155" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="K30" s="154" t="s">
         <v>110</v>
@@ -17970,13 +17974,13 @@
         <v>0</v>
       </c>
       <c r="N30" s="155" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="O30" s="154" t="s">
         <v>110</v>
       </c>
       <c r="P30" s="155" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="Q30" s="154" t="s">
         <v>110</v>
@@ -17988,7 +17992,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="155" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="U30" s="154" t="s">
         <v>110</v>
@@ -18000,31 +18004,31 @@
         <v>0</v>
       </c>
       <c r="X30" s="155" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="Y30" s="154" t="s">
         <v>110</v>
       </c>
       <c r="Z30" s="155" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AA30" s="154" t="s">
         <v>110</v>
       </c>
       <c r="AB30" s="155" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AC30" s="154" t="s">
         <v>110</v>
       </c>
       <c r="AD30" s="155" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AE30" s="154" t="s">
         <v>110</v>
       </c>
       <c r="AF30" s="155" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AG30" s="154" t="s">
         <v>110</v>
@@ -18036,7 +18040,7 @@
         <v>0</v>
       </c>
       <c r="AJ30" s="155" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AK30" s="154" t="s">
         <v>110</v>
@@ -18048,7 +18052,7 @@
         <v>0</v>
       </c>
       <c r="AN30" s="155" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AO30" s="154" t="s">
         <v>110</v>
@@ -18060,7 +18064,7 @@
         <v>0</v>
       </c>
       <c r="AR30" s="155" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AS30" s="154" t="s">
         <v>110</v>
@@ -18078,13 +18082,13 @@
         <v>0</v>
       </c>
       <c r="AX30" s="155" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AY30" s="154" t="s">
         <v>110</v>
       </c>
       <c r="AZ30" s="155" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BA30" s="154" t="s">
         <v>110</v>
@@ -18096,7 +18100,7 @@
         <v>0</v>
       </c>
       <c r="BD30" s="155" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BE30" s="154" t="s">
         <v>110</v>
@@ -18108,7 +18112,7 @@
         <v>0</v>
       </c>
       <c r="BH30" s="155" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BI30" s="154" t="s">
         <v>110</v>
@@ -18126,25 +18130,25 @@
         <v>0</v>
       </c>
       <c r="BN30" s="155" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BO30" s="154" t="s">
         <v>110</v>
       </c>
       <c r="BP30" s="155" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BQ30" s="154" t="s">
         <v>110</v>
       </c>
       <c r="BR30" s="155" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BS30" s="154" t="s">
         <v>110</v>
       </c>
       <c r="BT30" s="155" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BU30" s="154" t="s">
         <v>110</v>
@@ -18152,19 +18156,19 @@
       <c r="BV30" s="155">
         <v>11</v>
       </c>
-      <c r="BW30" s="225">
+      <c r="BW30" s="154">
         <v>10.476190476190499</v>
       </c>
       <c r="BX30" s="155">
         <v>23</v>
       </c>
-      <c r="BY30" s="225">
+      <c r="BY30" s="154">
         <v>21.904761904761902</v>
       </c>
       <c r="BZ30" s="155">
         <v>15</v>
       </c>
-      <c r="CA30" s="225">
+      <c r="CA30" s="154">
         <v>14.285714285714301</v>
       </c>
       <c r="CB30" s="155">
@@ -18173,53 +18177,53 @@
       <c r="CC30" s="154">
         <v>20</v>
       </c>
-      <c r="CD30" s="155" t="s">
-        <v>272</v>
-      </c>
-      <c r="CE30" s="154" t="s">
-        <v>273</v>
+      <c r="CD30" s="155">
+        <v>21</v>
+      </c>
+      <c r="CE30" s="154">
+        <v>20</v>
       </c>
       <c r="CF30" s="155" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="CG30" s="154" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="CH30" s="155" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="CI30" s="154" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="CJ30" s="155" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="CK30" s="154" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="CL30" s="155" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="CM30" s="154" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="CN30" s="155" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="CO30" s="154" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="CP30" s="155" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="CQ30" s="154" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="CR30" s="155" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="CS30" s="154" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31" spans="1:97" ht="15.75" customHeight="1" thickTop="1">
@@ -18334,28 +18338,24 @@
       <c r="A37" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="CP6:CQ6"/>
-    <mergeCell ref="CR6:CS6"/>
-    <mergeCell ref="CF5:CS5"/>
-    <mergeCell ref="D5:CE5"/>
-    <mergeCell ref="CJ6:CK6"/>
-    <mergeCell ref="BX6:BY6"/>
-    <mergeCell ref="BZ6:CA6"/>
-    <mergeCell ref="CB6:CC6"/>
-    <mergeCell ref="BV6:BW6"/>
-    <mergeCell ref="BN6:BO6"/>
-    <mergeCell ref="CD6:CE6"/>
-    <mergeCell ref="CF6:CG6"/>
-    <mergeCell ref="CH6:CI6"/>
-    <mergeCell ref="BJ6:BK6"/>
-    <mergeCell ref="BL6:BM6"/>
-    <mergeCell ref="BP6:BQ6"/>
+  <mergeCells count="51">
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="AN6:AO6"/>
+    <mergeCell ref="AL6:AM6"/>
+    <mergeCell ref="AJ6:AK6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="H6:I6"/>
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="R6:S6"/>
-    <mergeCell ref="BR6:BS6"/>
-    <mergeCell ref="BT6:BU6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="T6:U6"/>
     <mergeCell ref="AT6:AU6"/>
     <mergeCell ref="Z6:AA6"/>
     <mergeCell ref="AH6:AI6"/>
@@ -18365,28 +18365,31 @@
     <mergeCell ref="AF6:AG6"/>
     <mergeCell ref="AD6:AE6"/>
     <mergeCell ref="BB6:BC6"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="CL6:CM6"/>
-    <mergeCell ref="CN6:CO6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
     <mergeCell ref="AV6:AW6"/>
-    <mergeCell ref="T6:U6"/>
     <mergeCell ref="AZ6:BA6"/>
     <mergeCell ref="AR6:AS6"/>
     <mergeCell ref="AP6:AQ6"/>
     <mergeCell ref="AX6:AY6"/>
     <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="AN6:AO6"/>
-    <mergeCell ref="AL6:AM6"/>
-    <mergeCell ref="AJ6:AK6"/>
-    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="BJ6:BK6"/>
+    <mergeCell ref="BL6:BM6"/>
+    <mergeCell ref="BP6:BQ6"/>
+    <mergeCell ref="BR6:BS6"/>
+    <mergeCell ref="BT6:BU6"/>
+    <mergeCell ref="BV6:BW6"/>
+    <mergeCell ref="BN6:BO6"/>
+    <mergeCell ref="CD6:CE6"/>
+    <mergeCell ref="CF6:CG6"/>
+    <mergeCell ref="CH6:CI6"/>
+    <mergeCell ref="CP6:CQ6"/>
+    <mergeCell ref="CR6:CS6"/>
+    <mergeCell ref="CF5:CS5"/>
+    <mergeCell ref="CJ6:CK6"/>
+    <mergeCell ref="BX6:BY6"/>
+    <mergeCell ref="BZ6:CA6"/>
+    <mergeCell ref="CB6:CC6"/>
+    <mergeCell ref="CL6:CM6"/>
+    <mergeCell ref="CN6:CO6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18471,15 +18474,15 @@
       </c>
     </row>
     <row r="2" spans="1:95" ht="46.5" customHeight="1">
-      <c r="A2" s="283" t="s">
-        <v>283</v>
-      </c>
-      <c r="B2" s="283"/>
-      <c r="C2" s="283"/>
-      <c r="D2" s="283"/>
-      <c r="E2" s="283"/>
-      <c r="F2" s="283"/>
-      <c r="G2" s="283"/>
+      <c r="A2" s="282" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" s="282"/>
+      <c r="C2" s="282"/>
+      <c r="D2" s="282"/>
+      <c r="E2" s="282"/>
+      <c r="F2" s="282"/>
+      <c r="G2" s="282"/>
       <c r="BC2" s="30"/>
       <c r="BD2" s="193"/>
       <c r="BE2" s="30"/>
@@ -18518,62 +18521,62 @@
     </row>
     <row r="5" spans="1:95" ht="28.5" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="285" t="s">
+      <c r="B5" s="284" t="s">
         <v>204</v>
       </c>
-      <c r="C5" s="286"/>
-      <c r="D5" s="273" t="s">
+      <c r="C5" s="285"/>
+      <c r="D5" s="272" t="s">
         <v>193</v>
       </c>
-      <c r="E5" s="274"/>
-      <c r="F5" s="274"/>
-      <c r="G5" s="274"/>
-      <c r="H5" s="274"/>
-      <c r="I5" s="274"/>
-      <c r="J5" s="274"/>
-      <c r="K5" s="274"/>
-      <c r="L5" s="274"/>
-      <c r="M5" s="274"/>
-      <c r="N5" s="274"/>
-      <c r="O5" s="274"/>
-      <c r="P5" s="274"/>
-      <c r="Q5" s="274"/>
-      <c r="R5" s="274"/>
-      <c r="S5" s="274"/>
-      <c r="T5" s="274"/>
-      <c r="U5" s="274"/>
-      <c r="V5" s="274"/>
-      <c r="W5" s="274"/>
-      <c r="X5" s="274"/>
-      <c r="Y5" s="274"/>
-      <c r="Z5" s="274"/>
-      <c r="AA5" s="274"/>
-      <c r="AB5" s="274"/>
-      <c r="AC5" s="274"/>
-      <c r="AD5" s="274"/>
-      <c r="AE5" s="274"/>
-      <c r="AF5" s="274"/>
-      <c r="AG5" s="274"/>
-      <c r="AH5" s="274"/>
-      <c r="AI5" s="274"/>
-      <c r="AJ5" s="274"/>
-      <c r="AK5" s="274"/>
-      <c r="AL5" s="274"/>
-      <c r="AM5" s="274"/>
-      <c r="AN5" s="274"/>
-      <c r="AO5" s="274"/>
-      <c r="AP5" s="274"/>
-      <c r="AQ5" s="274"/>
-      <c r="AR5" s="274"/>
-      <c r="AS5" s="274"/>
-      <c r="AT5" s="274"/>
-      <c r="AU5" s="274"/>
-      <c r="AV5" s="274"/>
-      <c r="AW5" s="274"/>
-      <c r="AX5" s="274"/>
-      <c r="AY5" s="274"/>
-      <c r="AZ5" s="274"/>
-      <c r="BA5" s="274"/>
+      <c r="E5" s="273"/>
+      <c r="F5" s="273"/>
+      <c r="G5" s="273"/>
+      <c r="H5" s="273"/>
+      <c r="I5" s="273"/>
+      <c r="J5" s="273"/>
+      <c r="K5" s="273"/>
+      <c r="L5" s="273"/>
+      <c r="M5" s="273"/>
+      <c r="N5" s="273"/>
+      <c r="O5" s="273"/>
+      <c r="P5" s="273"/>
+      <c r="Q5" s="273"/>
+      <c r="R5" s="273"/>
+      <c r="S5" s="273"/>
+      <c r="T5" s="273"/>
+      <c r="U5" s="273"/>
+      <c r="V5" s="273"/>
+      <c r="W5" s="273"/>
+      <c r="X5" s="273"/>
+      <c r="Y5" s="273"/>
+      <c r="Z5" s="273"/>
+      <c r="AA5" s="273"/>
+      <c r="AB5" s="273"/>
+      <c r="AC5" s="273"/>
+      <c r="AD5" s="273"/>
+      <c r="AE5" s="273"/>
+      <c r="AF5" s="273"/>
+      <c r="AG5" s="273"/>
+      <c r="AH5" s="273"/>
+      <c r="AI5" s="273"/>
+      <c r="AJ5" s="273"/>
+      <c r="AK5" s="273"/>
+      <c r="AL5" s="273"/>
+      <c r="AM5" s="273"/>
+      <c r="AN5" s="273"/>
+      <c r="AO5" s="273"/>
+      <c r="AP5" s="273"/>
+      <c r="AQ5" s="273"/>
+      <c r="AR5" s="273"/>
+      <c r="AS5" s="273"/>
+      <c r="AT5" s="273"/>
+      <c r="AU5" s="273"/>
+      <c r="AV5" s="273"/>
+      <c r="AW5" s="273"/>
+      <c r="AX5" s="273"/>
+      <c r="AY5" s="273"/>
+      <c r="AZ5" s="273"/>
+      <c r="BA5" s="273"/>
       <c r="BB5" s="222"/>
       <c r="BC5" s="222"/>
       <c r="BD5" s="222"/>
@@ -18590,226 +18593,226 @@
       <c r="BO5" s="222"/>
       <c r="BP5" s="222"/>
       <c r="BQ5" s="222"/>
-      <c r="BR5" s="223"/>
-      <c r="BS5" s="223"/>
-      <c r="BT5" s="223"/>
-      <c r="BU5" s="223"/>
-      <c r="BV5" s="223"/>
-      <c r="BW5" s="223"/>
-      <c r="BX5" s="223"/>
-      <c r="BY5" s="223"/>
-      <c r="BZ5" s="223"/>
-      <c r="CA5" s="223"/>
-      <c r="CB5" s="223"/>
-      <c r="CC5" s="224"/>
-      <c r="CD5" s="299" t="s">
+      <c r="BR5" s="224"/>
+      <c r="BS5" s="224"/>
+      <c r="BT5" s="224"/>
+      <c r="BU5" s="224"/>
+      <c r="BV5" s="224"/>
+      <c r="BW5" s="224"/>
+      <c r="BX5" s="224"/>
+      <c r="BY5" s="224"/>
+      <c r="BZ5" s="224"/>
+      <c r="CA5" s="224"/>
+      <c r="CB5" s="224"/>
+      <c r="CC5" s="225"/>
+      <c r="CD5" s="290" t="s">
         <v>203</v>
       </c>
-      <c r="CE5" s="274"/>
-      <c r="CF5" s="274"/>
-      <c r="CG5" s="274"/>
-      <c r="CH5" s="274"/>
-      <c r="CI5" s="274"/>
-      <c r="CJ5" s="274"/>
-      <c r="CK5" s="274"/>
-      <c r="CL5" s="274"/>
-      <c r="CM5" s="274"/>
-      <c r="CN5" s="274"/>
-      <c r="CO5" s="274"/>
-      <c r="CP5" s="274"/>
-      <c r="CQ5" s="274"/>
+      <c r="CE5" s="273"/>
+      <c r="CF5" s="273"/>
+      <c r="CG5" s="273"/>
+      <c r="CH5" s="273"/>
+      <c r="CI5" s="273"/>
+      <c r="CJ5" s="273"/>
+      <c r="CK5" s="273"/>
+      <c r="CL5" s="273"/>
+      <c r="CM5" s="273"/>
+      <c r="CN5" s="273"/>
+      <c r="CO5" s="273"/>
+      <c r="CP5" s="273"/>
+      <c r="CQ5" s="299"/>
     </row>
     <row r="6" spans="1:95" ht="13.5" customHeight="1">
-      <c r="A6" s="287"/>
-      <c r="B6" s="280"/>
-      <c r="C6" s="279"/>
-      <c r="D6" s="293" t="s">
+      <c r="A6" s="286"/>
+      <c r="B6" s="279"/>
+      <c r="C6" s="278"/>
+      <c r="D6" s="291" t="s">
         <v>196</v>
       </c>
       <c r="E6" s="292"/>
-      <c r="F6" s="293" t="s">
+      <c r="F6" s="291" t="s">
         <v>191</v>
       </c>
       <c r="G6" s="292"/>
-      <c r="H6" s="293" t="s">
+      <c r="H6" s="291" t="s">
         <v>167</v>
       </c>
       <c r="I6" s="292"/>
-      <c r="J6" s="293" t="s">
+      <c r="J6" s="291" t="s">
         <v>168</v>
       </c>
       <c r="K6" s="292"/>
-      <c r="L6" s="293" t="s">
+      <c r="L6" s="291" t="s">
         <v>169</v>
       </c>
       <c r="M6" s="292"/>
-      <c r="N6" s="293" t="s">
+      <c r="N6" s="291" t="s">
         <v>170</v>
       </c>
       <c r="O6" s="292"/>
-      <c r="P6" s="293" t="s">
+      <c r="P6" s="291" t="s">
         <v>171</v>
       </c>
       <c r="Q6" s="292"/>
-      <c r="R6" s="293" t="s">
+      <c r="R6" s="291" t="s">
         <v>172</v>
       </c>
       <c r="S6" s="292"/>
-      <c r="T6" s="293" t="s">
+      <c r="T6" s="291" t="s">
         <v>173</v>
       </c>
       <c r="U6" s="292"/>
-      <c r="V6" s="293" t="s">
+      <c r="V6" s="291" t="s">
         <v>174</v>
       </c>
       <c r="W6" s="292"/>
-      <c r="X6" s="293" t="s">
+      <c r="X6" s="291" t="s">
         <v>175</v>
       </c>
       <c r="Y6" s="292"/>
-      <c r="Z6" s="293" t="s">
+      <c r="Z6" s="291" t="s">
         <v>201</v>
       </c>
       <c r="AA6" s="292"/>
-      <c r="AB6" s="293" t="s">
+      <c r="AB6" s="291" t="s">
         <v>222</v>
       </c>
       <c r="AC6" s="292"/>
-      <c r="AD6" s="291" t="s">
+      <c r="AD6" s="298" t="s">
         <v>230</v>
       </c>
       <c r="AE6" s="292"/>
-      <c r="AF6" s="291" t="s">
+      <c r="AF6" s="298" t="s">
         <v>234</v>
       </c>
       <c r="AG6" s="292"/>
-      <c r="AH6" s="291" t="s">
-        <v>240</v>
+      <c r="AH6" s="298" t="s">
+        <v>243</v>
       </c>
       <c r="AI6" s="292"/>
-      <c r="AJ6" s="291" t="s">
-        <v>241</v>
+      <c r="AJ6" s="298" t="s">
+        <v>244</v>
       </c>
       <c r="AK6" s="292"/>
-      <c r="AL6" s="291" t="s">
-        <v>242</v>
+      <c r="AL6" s="298" t="s">
+        <v>245</v>
       </c>
       <c r="AM6" s="292"/>
-      <c r="AN6" s="291" t="s">
-        <v>243</v>
+      <c r="AN6" s="298" t="s">
+        <v>246</v>
       </c>
       <c r="AO6" s="292"/>
-      <c r="AP6" s="291" t="s">
-        <v>244</v>
+      <c r="AP6" s="298" t="s">
+        <v>247</v>
       </c>
       <c r="AQ6" s="292"/>
-      <c r="AR6" s="291" t="s">
-        <v>245</v>
+      <c r="AR6" s="298" t="s">
+        <v>248</v>
       </c>
       <c r="AS6" s="292"/>
-      <c r="AT6" s="291" t="s">
-        <v>246</v>
+      <c r="AT6" s="298" t="s">
+        <v>249</v>
       </c>
       <c r="AU6" s="292"/>
-      <c r="AV6" s="291" t="s">
-        <v>247</v>
+      <c r="AV6" s="298" t="s">
+        <v>250</v>
       </c>
       <c r="AW6" s="292"/>
-      <c r="AX6" s="291" t="s">
-        <v>248</v>
+      <c r="AX6" s="298" t="s">
+        <v>251</v>
       </c>
       <c r="AY6" s="292"/>
-      <c r="AZ6" s="291" t="s">
-        <v>250</v>
+      <c r="AZ6" s="298" t="s">
+        <v>253</v>
       </c>
       <c r="BA6" s="292"/>
-      <c r="BB6" s="291" t="s">
-        <v>251</v>
+      <c r="BB6" s="298" t="s">
+        <v>254</v>
       </c>
       <c r="BC6" s="292"/>
-      <c r="BD6" s="291" t="s">
-        <v>252</v>
+      <c r="BD6" s="298" t="s">
+        <v>255</v>
       </c>
       <c r="BE6" s="292"/>
-      <c r="BF6" s="291" t="s">
-        <v>254</v>
+      <c r="BF6" s="298" t="s">
+        <v>257</v>
       </c>
       <c r="BG6" s="292"/>
-      <c r="BH6" s="291" t="s">
-        <v>253</v>
+      <c r="BH6" s="298" t="s">
+        <v>256</v>
       </c>
       <c r="BI6" s="292"/>
-      <c r="BJ6" s="291" t="s">
-        <v>255</v>
+      <c r="BJ6" s="298" t="s">
+        <v>258</v>
       </c>
       <c r="BK6" s="292"/>
-      <c r="BL6" s="291" t="s">
-        <v>258</v>
+      <c r="BL6" s="298" t="s">
+        <v>261</v>
       </c>
       <c r="BM6" s="292"/>
-      <c r="BN6" s="291" t="s">
-        <v>259</v>
+      <c r="BN6" s="298" t="s">
+        <v>262</v>
       </c>
       <c r="BO6" s="292"/>
-      <c r="BP6" s="291" t="s">
+      <c r="BP6" s="298" t="s">
+        <v>268</v>
+      </c>
+      <c r="BQ6" s="292"/>
+      <c r="BR6" s="298" t="s">
+        <v>267</v>
+      </c>
+      <c r="BS6" s="292"/>
+      <c r="BT6" s="298" t="s">
+        <v>266</v>
+      </c>
+      <c r="BU6" s="292"/>
+      <c r="BV6" s="298" t="s">
         <v>265</v>
       </c>
-      <c r="BQ6" s="292"/>
-      <c r="BR6" s="291" t="s">
+      <c r="BW6" s="292"/>
+      <c r="BX6" s="298" t="s">
         <v>264</v>
       </c>
-      <c r="BS6" s="292"/>
-      <c r="BT6" s="291" t="s">
+      <c r="BY6" s="292"/>
+      <c r="BZ6" s="298" t="s">
         <v>263</v>
       </c>
-      <c r="BU6" s="292"/>
-      <c r="BV6" s="291" t="s">
-        <v>262</v>
-      </c>
-      <c r="BW6" s="292"/>
-      <c r="BX6" s="291" t="s">
-        <v>261</v>
-      </c>
-      <c r="BY6" s="292"/>
-      <c r="BZ6" s="291" t="s">
-        <v>260</v>
-      </c>
       <c r="CA6" s="292"/>
-      <c r="CB6" s="291" t="s">
-        <v>267</v>
+      <c r="CB6" s="298" t="s">
+        <v>270</v>
       </c>
       <c r="CC6" s="292"/>
-      <c r="CD6" s="291" t="s">
-        <v>266</v>
+      <c r="CD6" s="298" t="s">
+        <v>269</v>
       </c>
       <c r="CE6" s="292"/>
-      <c r="CF6" s="291" t="s">
-        <v>268</v>
+      <c r="CF6" s="298" t="s">
+        <v>271</v>
       </c>
       <c r="CG6" s="292"/>
-      <c r="CH6" s="291" t="s">
-        <v>269</v>
+      <c r="CH6" s="298" t="s">
+        <v>272</v>
       </c>
       <c r="CI6" s="292"/>
-      <c r="CJ6" s="291" t="s">
-        <v>270</v>
+      <c r="CJ6" s="298" t="s">
+        <v>273</v>
       </c>
       <c r="CK6" s="292"/>
-      <c r="CL6" s="291" t="s">
-        <v>280</v>
+      <c r="CL6" s="298" t="s">
+        <v>274</v>
       </c>
       <c r="CM6" s="292"/>
-      <c r="CN6" s="291" t="s">
-        <v>281</v>
+      <c r="CN6" s="298" t="s">
+        <v>275</v>
       </c>
       <c r="CO6" s="292"/>
-      <c r="CP6" s="291" t="s">
-        <v>282</v>
+      <c r="CP6" s="298" t="s">
+        <v>276</v>
       </c>
       <c r="CQ6" s="292"/>
     </row>
     <row r="7" spans="1:95">
-      <c r="A7" s="288"/>
+      <c r="A7" s="287"/>
       <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
@@ -19098,7 +19101,7 @@
         <v>221</v>
       </c>
       <c r="B8" s="218">
-        <v>33881</v>
+        <v>33880</v>
       </c>
       <c r="C8" s="183">
         <v>100</v>
@@ -19107,277 +19110,277 @@
         <v>31</v>
       </c>
       <c r="E8" s="178">
-        <v>9.1496709069980003E-2</v>
+        <v>9.1499409681230007E-2</v>
       </c>
       <c r="F8" s="130">
         <v>128</v>
       </c>
       <c r="G8" s="176">
-        <v>0.37779286325668998</v>
+        <v>0.37780401416765003</v>
       </c>
       <c r="H8" s="78">
         <v>424</v>
       </c>
       <c r="I8" s="176">
-        <v>1.2514388595377901</v>
+        <v>1.2514757969303401</v>
       </c>
       <c r="J8" s="78">
         <v>991</v>
       </c>
       <c r="K8" s="176">
-        <v>2.92494318349517</v>
+        <v>2.9250295159386099</v>
       </c>
       <c r="L8" s="78">
         <v>1218</v>
       </c>
       <c r="M8" s="176">
-        <v>3.5949352144269699</v>
+        <v>3.5950413223140498</v>
       </c>
       <c r="N8" s="78">
         <v>1396</v>
       </c>
       <c r="O8" s="176">
-        <v>4.1203034148933</v>
+        <v>4.1204250295159399</v>
       </c>
       <c r="P8" s="78">
         <v>1416</v>
       </c>
       <c r="Q8" s="176">
-        <v>4.1793335497771604</v>
+        <v>4.1794569067296301</v>
       </c>
       <c r="R8" s="78">
         <v>1288</v>
       </c>
       <c r="S8" s="217">
-        <v>3.8015406865204699</v>
+        <v>3.8016528925619801</v>
       </c>
       <c r="T8" s="130">
         <v>1284</v>
       </c>
       <c r="U8" s="212">
-        <v>3.7897346595436998</v>
+        <v>3.7898465171192401</v>
       </c>
       <c r="V8" s="88">
         <v>1107</v>
       </c>
       <c r="W8" s="216">
-        <v>3.2673179658215501</v>
+        <v>3.2674144037780399</v>
       </c>
       <c r="X8" s="130">
         <v>1043</v>
       </c>
       <c r="Y8" s="211">
-        <v>3.0784215341932102</v>
+        <v>3.0785123966942201</v>
       </c>
       <c r="Z8" s="130">
         <v>1082</v>
       </c>
       <c r="AA8" s="213">
-        <v>3.1935302972167299</v>
+        <v>3.1936245572609199</v>
       </c>
       <c r="AB8" s="88">
         <v>1010</v>
       </c>
       <c r="AC8" s="213">
-        <v>2.9810218116348399</v>
+        <v>2.98110979929162</v>
       </c>
       <c r="AD8" s="88">
         <v>907</v>
       </c>
       <c r="AE8" s="211">
-        <v>2.6770166169829701</v>
+        <v>2.6770956316410901</v>
       </c>
       <c r="AF8" s="130">
         <v>794</v>
       </c>
       <c r="AG8" s="213">
-        <v>2.3434963548891701</v>
+        <v>2.3435655253837102</v>
       </c>
       <c r="AH8" s="88">
         <v>787</v>
       </c>
       <c r="AI8" s="214">
-        <v>2.3228358076798199</v>
+        <v>2.3229043683589099</v>
       </c>
       <c r="AJ8" s="88">
         <v>581</v>
       </c>
       <c r="AK8" s="213">
-        <v>1.71482541837608</v>
+        <v>1.7148760330578501</v>
       </c>
       <c r="AL8" s="88">
         <v>421</v>
       </c>
       <c r="AM8" s="213">
-        <v>1.2425843393052201</v>
+        <v>1.2426210153482899</v>
       </c>
       <c r="AN8" s="88">
         <v>285</v>
       </c>
       <c r="AO8" s="211">
-        <v>0.84117942209497998</v>
+        <v>0.84120425029515999</v>
       </c>
       <c r="AP8" s="215">
         <v>201</v>
       </c>
       <c r="AQ8" s="214">
-        <v>0.59325285558277996</v>
+        <v>0.59327036599764005</v>
       </c>
       <c r="AR8" s="88">
         <v>200</v>
       </c>
       <c r="AS8" s="211">
-        <v>0.59030134883857999</v>
+        <v>0.59031877213695005</v>
       </c>
       <c r="AT8" s="215">
         <v>165</v>
       </c>
       <c r="AU8" s="211">
-        <v>0.48699861279182999</v>
+        <v>0.48701298701299001</v>
       </c>
       <c r="AV8" s="130">
         <v>160</v>
       </c>
       <c r="AW8" s="211">
-        <v>0.47224107907086998</v>
+        <v>0.47225501770956002</v>
       </c>
       <c r="AX8" s="130">
         <v>168</v>
       </c>
       <c r="AY8" s="213">
-        <v>0.49585313302440998</v>
+        <v>0.49586776859504</v>
       </c>
       <c r="AZ8" s="88">
         <v>133</v>
       </c>
       <c r="BA8" s="211">
-        <v>0.39255039697765998</v>
+        <v>0.39256198347107002</v>
       </c>
       <c r="BB8" s="215">
         <v>112</v>
       </c>
       <c r="BC8" s="214">
-        <v>0.33056875534961</v>
+        <v>0.33057851239669001</v>
       </c>
       <c r="BD8" s="88">
         <v>98</v>
       </c>
       <c r="BE8" s="213">
-        <v>0.28924766093090998</v>
+        <v>0.28925619834711003</v>
       </c>
       <c r="BF8" s="88">
         <v>119</v>
       </c>
       <c r="BG8" s="213">
-        <v>0.35122930255896001</v>
+        <v>0.35123966942148999</v>
       </c>
       <c r="BH8" s="88">
         <v>126</v>
       </c>
       <c r="BI8" s="213">
-        <v>0.37188984976831002</v>
+        <v>0.37190082644627998</v>
       </c>
       <c r="BJ8" s="88">
         <v>154</v>
       </c>
       <c r="BK8" s="213">
-        <v>0.45453203860571001</v>
+        <v>0.45454545454544998</v>
       </c>
       <c r="BL8" s="88">
         <v>155</v>
       </c>
       <c r="BM8" s="213">
-        <v>0.45748354534989999</v>
+        <v>0.45749704840613997</v>
       </c>
       <c r="BN8" s="88">
         <v>192</v>
       </c>
       <c r="BO8" s="212">
-        <v>0.56668929488504005</v>
+        <v>0.56670602125147995</v>
       </c>
       <c r="BP8" s="88">
         <v>221</v>
       </c>
       <c r="BQ8" s="212">
-        <v>0.65228299046662996</v>
+        <v>0.65230224321133001</v>
       </c>
       <c r="BR8" s="88">
         <v>352</v>
       </c>
       <c r="BS8" s="174">
-        <v>1.0389303739558999</v>
+        <v>1.03896103896104</v>
       </c>
       <c r="BT8" s="88">
         <v>594</v>
       </c>
       <c r="BU8" s="174">
-        <v>1.7531950060505901</v>
+        <v>1.7532467532467499</v>
       </c>
       <c r="BV8" s="88">
         <v>893</v>
       </c>
       <c r="BW8" s="211">
-        <v>2.6356955225642702</v>
+        <v>2.6357733175915001</v>
       </c>
       <c r="BX8" s="88">
         <v>1092</v>
       </c>
       <c r="BY8" s="211">
-        <v>3.2230453646586601</v>
+        <v>3.2231404958677699</v>
       </c>
       <c r="BZ8" s="88">
         <v>1340</v>
       </c>
       <c r="CA8" s="211">
-        <v>3.9550190372184999</v>
+        <v>3.9551357733175898</v>
       </c>
       <c r="CB8" s="88">
         <v>1283</v>
       </c>
       <c r="CC8" s="211">
-        <v>3.7867831527995</v>
+        <v>3.78689492325856</v>
       </c>
       <c r="CD8" s="88">
         <v>1385</v>
       </c>
       <c r="CE8" s="211">
-        <v>4.0878368407071797</v>
+        <v>4.0879574970484098</v>
       </c>
       <c r="CF8" s="88">
         <v>1467</v>
       </c>
       <c r="CG8" s="211">
-        <v>4.3298603937309998</v>
+        <v>4.3299881936245601</v>
       </c>
       <c r="CH8" s="88">
         <v>1626</v>
       </c>
       <c r="CI8" s="211">
-        <v>4.7991499660576702</v>
+        <v>4.7992916174734397</v>
       </c>
       <c r="CJ8" s="88">
         <v>1690</v>
       </c>
       <c r="CK8" s="211">
-        <v>4.9880463976860199</v>
+        <v>4.98819362455726</v>
       </c>
       <c r="CL8" s="88">
         <v>1533</v>
       </c>
       <c r="CM8" s="211">
-        <v>4.5246598388477297</v>
+        <v>4.5247933884297504</v>
       </c>
       <c r="CN8" s="88">
         <v>1415</v>
       </c>
       <c r="CO8" s="211">
-        <v>4.1763820430329703</v>
+        <v>4.17650531286895</v>
       </c>
       <c r="CP8" s="88">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="CQ8" s="211">
-        <v>2.3080782739588601</v>
+        <v>2.3051948051948101</v>
       </c>
     </row>
     <row r="9" spans="1:95">
@@ -19487,7 +19490,7 @@
         <v>11464</v>
       </c>
       <c r="C10" s="91">
-        <v>33.836073315427498</v>
+        <v>33.837072018890197</v>
       </c>
       <c r="D10" s="78">
         <v>18</v>
@@ -19774,7 +19777,7 @@
         <v>5245</v>
       </c>
       <c r="C11" s="93">
-        <v>15.480652873291801</v>
+        <v>15.4811097992916</v>
       </c>
       <c r="D11" s="78">
         <v>4</v>
@@ -20061,16 +20064,16 @@
         <v>3809</v>
       </c>
       <c r="C12" s="93">
-        <v>11.242289188630799</v>
+        <v>11.2426210153483</v>
       </c>
       <c r="D12" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="E12" s="207" t="s">
         <v>110</v>
       </c>
       <c r="F12" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="G12" s="207" t="s">
         <v>110</v>
@@ -20348,10 +20351,10 @@
         <v>1773</v>
       </c>
       <c r="C13" s="93">
-        <v>5.2330214574540301</v>
+        <v>5.2331759149941002</v>
       </c>
       <c r="D13" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="E13" s="207" t="s">
         <v>110</v>
@@ -20501,13 +20504,13 @@
         <v>0.28200789622109002</v>
       </c>
       <c r="BB13" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BC13" s="206" t="s">
         <v>110</v>
       </c>
       <c r="BD13" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BE13" s="206" t="s">
         <v>110</v>
@@ -20531,19 +20534,19 @@
         <v>0.39481105470952998</v>
       </c>
       <c r="BL13" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BM13" s="204" t="s">
         <v>110</v>
       </c>
       <c r="BN13" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BO13" s="204" t="s">
         <v>110</v>
       </c>
       <c r="BP13" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BQ13" s="204" t="s">
         <v>110</v>
@@ -20635,7 +20638,7 @@
         <v>1338</v>
       </c>
       <c r="C14" s="94">
-        <v>3.9491160237301099</v>
+        <v>3.9492325855962198</v>
       </c>
       <c r="D14" s="78">
         <v>0</v>
@@ -20788,7 +20791,7 @@
         <v>0.29895366218236002</v>
       </c>
       <c r="BB14" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BC14" s="202" t="s">
         <v>110</v>
@@ -20800,25 +20803,25 @@
         <v>0.37369207772794999</v>
       </c>
       <c r="BF14" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BG14" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BH14" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BI14" s="200" t="s">
         <v>110</v>
       </c>
       <c r="BJ14" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BK14" s="200" t="s">
         <v>110</v>
       </c>
       <c r="BL14" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BM14" s="200" t="s">
         <v>110</v>
@@ -20919,10 +20922,10 @@
         <v>124</v>
       </c>
       <c r="B15" s="90">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C15" s="94">
-        <v>3.70118945721791</v>
+        <v>3.6983471074380199</v>
       </c>
       <c r="D15" s="78">
         <v>0</v>
@@ -20931,7 +20934,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="G15" s="203" t="s">
         <v>110</v>
@@ -20940,166 +20943,166 @@
         <v>6</v>
       </c>
       <c r="I15" s="203">
-        <v>0.47846889952152999</v>
+        <v>0.47885075818036998</v>
       </c>
       <c r="J15" s="78">
         <v>41</v>
       </c>
       <c r="K15" s="203">
-        <v>3.2695374800638</v>
+        <v>3.27214684756584</v>
       </c>
       <c r="L15" s="78">
         <v>32</v>
       </c>
       <c r="M15" s="203">
-        <v>2.5518341307814998</v>
+        <v>2.55387071029529</v>
       </c>
       <c r="N15" s="78">
         <v>53</v>
       </c>
       <c r="O15" s="203">
-        <v>4.2264752791068601</v>
+        <v>4.22984836392658</v>
       </c>
       <c r="P15" s="78">
         <v>34</v>
       </c>
       <c r="Q15" s="203">
-        <v>2.71132376395534</v>
+        <v>2.7134876296887498</v>
       </c>
       <c r="R15" s="78">
         <v>45</v>
       </c>
       <c r="S15" s="203">
-        <v>3.58851674641148</v>
+        <v>3.5913806863527502</v>
       </c>
       <c r="T15" s="78">
         <v>39</v>
       </c>
       <c r="U15" s="202">
-        <v>3.11004784688995</v>
+        <v>3.1125299281723899</v>
       </c>
       <c r="V15" s="78">
         <v>33</v>
       </c>
       <c r="W15" s="202">
-        <v>2.6315789473684199</v>
+        <v>2.6336791699920199</v>
       </c>
       <c r="X15" s="78">
         <v>35</v>
       </c>
       <c r="Y15" s="202">
-        <v>2.7910685805422601</v>
+        <v>2.7932960893854801</v>
       </c>
       <c r="Z15" s="78">
         <v>32</v>
       </c>
       <c r="AA15" s="202">
-        <v>2.5518341307814998</v>
+        <v>2.55387071029529</v>
       </c>
       <c r="AB15" s="78">
         <v>33</v>
       </c>
       <c r="AC15" s="202">
-        <v>2.6315789473684199</v>
+        <v>2.6336791699920199</v>
       </c>
       <c r="AD15" s="78">
         <v>32</v>
       </c>
       <c r="AE15" s="202">
-        <v>2.5518341307814998</v>
+        <v>2.55387071029529</v>
       </c>
       <c r="AF15" s="78">
         <v>40</v>
       </c>
       <c r="AG15" s="202">
-        <v>3.1897926634768701</v>
+        <v>3.1923383878691101</v>
       </c>
       <c r="AH15" s="78">
         <v>30</v>
       </c>
       <c r="AI15" s="202">
-        <v>2.39234449760766</v>
+        <v>2.39425379090184</v>
       </c>
       <c r="AJ15" s="78">
         <v>30</v>
       </c>
       <c r="AK15" s="202">
-        <v>2.39234449760766</v>
+        <v>2.39425379090184</v>
       </c>
       <c r="AL15" s="78">
         <v>23</v>
       </c>
       <c r="AM15" s="202">
-        <v>1.8341307814992001</v>
+        <v>1.8355945730247401</v>
       </c>
       <c r="AN15" s="78">
         <v>16</v>
       </c>
       <c r="AO15" s="202">
-        <v>1.2759170653907499</v>
+        <v>1.2769353551476501</v>
       </c>
       <c r="AP15" s="78">
         <v>21</v>
       </c>
       <c r="AQ15" s="202">
-        <v>1.67464114832536</v>
+        <v>1.67597765363129</v>
       </c>
       <c r="AR15" s="78">
         <v>11</v>
       </c>
       <c r="AS15" s="202">
-        <v>0.87719298245613997</v>
+        <v>0.87789305666400996</v>
       </c>
       <c r="AT15" s="78">
         <v>9</v>
       </c>
       <c r="AU15" s="202">
-        <v>0.71770334928229995</v>
+        <v>0.71827613727054995</v>
       </c>
       <c r="AV15" s="78">
         <v>10</v>
       </c>
       <c r="AW15" s="202">
-        <v>0.79744816586921996</v>
+        <v>0.79808459696727996</v>
       </c>
       <c r="AX15" s="78">
         <v>9</v>
       </c>
       <c r="AY15" s="202">
-        <v>0.71770334928229995</v>
+        <v>0.71827613727054995</v>
       </c>
       <c r="AZ15" s="78">
         <v>8</v>
       </c>
       <c r="BA15" s="202">
-        <v>0.63795853269536995</v>
+        <v>0.63846767757381995</v>
       </c>
       <c r="BB15" s="78">
         <v>7</v>
       </c>
       <c r="BC15" s="202">
-        <v>0.55821371610845005</v>
+        <v>0.55865921787710004</v>
       </c>
       <c r="BD15" s="78">
         <v>9</v>
       </c>
       <c r="BE15" s="202">
-        <v>0.71770334928229995</v>
+        <v>0.71827613727054995</v>
       </c>
       <c r="BF15" s="78">
         <v>6</v>
       </c>
       <c r="BG15" s="202">
-        <v>0.47846889952152999</v>
+        <v>0.47885075818036998</v>
       </c>
       <c r="BH15" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BI15" s="200" t="s">
         <v>110</v>
       </c>
       <c r="BJ15" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BK15" s="200" t="s">
         <v>110</v>
@@ -21108,97 +21111,97 @@
         <v>8</v>
       </c>
       <c r="BM15" s="200">
-        <v>0.63795853269536995</v>
+        <v>0.63846767757381995</v>
       </c>
       <c r="BN15" s="78">
         <v>11</v>
       </c>
       <c r="BO15" s="200">
-        <v>0.87719298245613997</v>
+        <v>0.87789305666400996</v>
       </c>
       <c r="BP15" s="78">
         <v>8</v>
       </c>
       <c r="BQ15" s="200">
-        <v>0.63795853269536995</v>
+        <v>0.63846767757381995</v>
       </c>
       <c r="BR15" s="78">
         <v>9</v>
       </c>
       <c r="BS15" s="201">
-        <v>0.71770334928229995</v>
+        <v>0.71827613727054995</v>
       </c>
       <c r="BT15" s="78">
         <v>14</v>
       </c>
       <c r="BU15" s="201">
-        <v>1.1164274322169101</v>
+        <v>1.1173184357541901</v>
       </c>
       <c r="BV15" s="78">
         <v>18</v>
       </c>
       <c r="BW15" s="200">
-        <v>1.4354066985645899</v>
+        <v>1.4365522745410999</v>
       </c>
       <c r="BX15" s="78">
         <v>38</v>
       </c>
       <c r="BY15" s="200">
-        <v>3.0303030303030298</v>
+        <v>3.03272146847566</v>
       </c>
       <c r="BZ15" s="78">
         <v>38</v>
       </c>
       <c r="CA15" s="200">
-        <v>3.0303030303030298</v>
+        <v>3.03272146847566</v>
       </c>
       <c r="CB15" s="78">
         <v>48</v>
       </c>
       <c r="CC15" s="200">
-        <v>3.8277511961722501</v>
+        <v>3.8308060654429399</v>
       </c>
       <c r="CD15" s="78">
         <v>54</v>
       </c>
       <c r="CE15" s="200">
-        <v>4.3062200956937797</v>
+        <v>4.3096568236233104</v>
       </c>
       <c r="CF15" s="103">
         <v>53</v>
       </c>
       <c r="CG15" s="220">
-        <v>4.2264752791068601</v>
+        <v>4.22984836392658</v>
       </c>
       <c r="CH15" s="221">
         <v>70</v>
       </c>
       <c r="CI15" s="220">
-        <v>5.5821371610845301</v>
+        <v>5.5865921787709496</v>
       </c>
       <c r="CJ15" s="221">
         <v>90</v>
       </c>
       <c r="CK15" s="220">
-        <v>7.1770334928229698</v>
+        <v>7.1827613727055102</v>
       </c>
       <c r="CL15" s="221">
         <v>65</v>
       </c>
       <c r="CM15" s="220">
-        <v>5.1834130781499201</v>
+        <v>5.1875498802873103</v>
       </c>
       <c r="CN15" s="221">
         <v>54</v>
       </c>
       <c r="CO15" s="220">
-        <v>4.3062200956937797</v>
+        <v>4.3096568236233104</v>
       </c>
       <c r="CP15" s="221">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="CQ15" s="220">
-        <v>1.91387559808612</v>
+        <v>1.8355945730247401</v>
       </c>
     </row>
     <row r="16" spans="1:95">
@@ -21209,10 +21212,10 @@
         <v>1023</v>
       </c>
       <c r="C16" s="94">
-        <v>3.0193913993093502</v>
+        <v>3.0194805194805201</v>
       </c>
       <c r="D16" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="E16" s="203" t="s">
         <v>110</v>
@@ -21326,13 +21329,13 @@
         <v>0.97751710654935997</v>
       </c>
       <c r="AP16" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AQ16" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AR16" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AS16" s="202" t="s">
         <v>110</v>
@@ -21344,7 +21347,7 @@
         <v>0</v>
       </c>
       <c r="AV16" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AW16" s="202" t="s">
         <v>110</v>
@@ -21362,7 +21365,7 @@
         <v>0</v>
       </c>
       <c r="BB16" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BC16" s="202" t="s">
         <v>110</v>
@@ -21374,7 +21377,7 @@
         <v>0</v>
       </c>
       <c r="BF16" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BG16" s="202" t="s">
         <v>110</v>
@@ -21386,25 +21389,25 @@
         <v>0</v>
       </c>
       <c r="BJ16" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BK16" s="200" t="s">
         <v>110</v>
       </c>
       <c r="BL16" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BM16" s="200" t="s">
         <v>110</v>
       </c>
       <c r="BN16" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BO16" s="200" t="s">
         <v>110</v>
       </c>
       <c r="BP16" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BQ16" s="200" t="s">
         <v>110</v>
@@ -21496,16 +21499,16 @@
         <v>1159</v>
       </c>
       <c r="C17" s="94">
-        <v>3.42079631651958</v>
+        <v>3.4208972845336501</v>
       </c>
       <c r="D17" s="85" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="E17" s="203" t="s">
         <v>110</v>
       </c>
       <c r="F17" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="G17" s="203" t="s">
         <v>110</v>
@@ -21619,7 +21622,7 @@
         <v>0.3451251078516</v>
       </c>
       <c r="AR17" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AS17" s="202" t="s">
         <v>110</v>
@@ -21631,19 +21634,19 @@
         <v>0.3451251078516</v>
       </c>
       <c r="AV17" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AW17" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AX17" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AY17" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AZ17" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BA17" s="202" t="s">
         <v>110</v>
@@ -21661,7 +21664,7 @@
         <v>0.3451251078516</v>
       </c>
       <c r="BF17" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BG17" s="202" t="s">
         <v>110</v>
@@ -21783,7 +21786,7 @@
         <v>580</v>
       </c>
       <c r="C18" s="94">
-        <v>1.71187391163189</v>
+        <v>1.71192443919717</v>
       </c>
       <c r="D18" s="85">
         <v>0</v>
@@ -21966,7 +21969,7 @@
         <v>1.72413793103448</v>
       </c>
       <c r="BL18" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BM18" s="200" t="s">
         <v>110</v>
@@ -22014,52 +22017,52 @@
         <v>2.9310344827586201</v>
       </c>
       <c r="CB18" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="CC18" s="200" t="s">
         <v>110</v>
       </c>
       <c r="CD18" s="143" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="CE18" s="200" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="CF18" s="143" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="CG18" s="200" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="CH18" s="143" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="CI18" s="200" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="CJ18" s="143" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="CK18" s="200" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="CL18" s="143" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="CM18" s="200" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="CN18" s="143" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="CO18" s="200" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="CP18" s="143" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="CQ18" s="200" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" spans="1:95">
@@ -22070,7 +22073,7 @@
         <v>921</v>
       </c>
       <c r="C19" s="93">
-        <v>2.71833771140167</v>
+        <v>2.7184179456906699</v>
       </c>
       <c r="D19" s="83">
         <v>0</v>
@@ -22079,7 +22082,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="G19" s="207" t="s">
         <v>110</v>
@@ -22187,7 +22190,7 @@
         <v>0.65146579804560001</v>
       </c>
       <c r="AP19" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AQ19" s="206" t="s">
         <v>110</v>
@@ -22223,13 +22226,13 @@
         <v>0.76004343105320005</v>
       </c>
       <c r="BB19" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BC19" s="206" t="s">
         <v>110</v>
       </c>
       <c r="BD19" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BE19" s="206" t="s">
         <v>110</v>
@@ -22357,7 +22360,7 @@
         <v>846</v>
       </c>
       <c r="C20" s="94">
-        <v>2.4969747055872</v>
+        <v>2.4970484061393199</v>
       </c>
       <c r="D20" s="78">
         <v>0</v>
@@ -22474,7 +22477,7 @@
         <v>0.47281323877068998</v>
       </c>
       <c r="AP20" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AQ20" s="202" t="s">
         <v>110</v>
@@ -22492,31 +22495,31 @@
         <v>0.47281323877068998</v>
       </c>
       <c r="AV20" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AW20" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AX20" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AY20" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AZ20" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BA20" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BB20" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BC20" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BD20" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BE20" s="202" t="s">
         <v>110</v>
@@ -22534,7 +22537,7 @@
         <v>0.47281323877068998</v>
       </c>
       <c r="BJ20" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BK20" s="200" t="s">
         <v>110</v>
@@ -22629,11 +22632,11 @@
       <c r="CO20" s="220">
         <v>3.3096926713947998</v>
       </c>
-      <c r="CP20" s="228" t="s">
-        <v>273</v>
-      </c>
-      <c r="CQ20" s="229" t="s">
-        <v>273</v>
+      <c r="CP20" s="221">
+        <v>0</v>
+      </c>
+      <c r="CQ20" s="220">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:95">
@@ -22644,16 +22647,16 @@
         <v>617</v>
       </c>
       <c r="C21" s="96">
-        <v>1.8210796611670299</v>
+        <v>1.8211334120425</v>
       </c>
       <c r="D21" s="62" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="E21" s="203" t="s">
         <v>110</v>
       </c>
       <c r="F21" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="G21" s="203" t="s">
         <v>110</v>
@@ -22761,19 +22764,19 @@
         <v>0.81037277147487996</v>
       </c>
       <c r="AP21" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AQ21" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AR21" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AS21" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AT21" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AU21" s="202" t="s">
         <v>110</v>
@@ -22785,13 +22788,13 @@
         <v>0.81037277147487996</v>
       </c>
       <c r="AX21" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AY21" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AZ21" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BA21" s="202" t="s">
         <v>110</v>
@@ -22803,13 +22806,13 @@
         <v>0.97244732576985005</v>
       </c>
       <c r="BD21" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BE21" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BF21" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BG21" s="202" t="s">
         <v>110</v>
@@ -22910,12 +22913,14 @@
       <c r="CM21" s="220">
         <v>1.7828200972447299</v>
       </c>
-      <c r="CN21" s="228" t="s">
-        <v>271</v>
-      </c>
-      <c r="CO21" s="220"/>
+      <c r="CN21" s="221">
+        <v>11</v>
+      </c>
+      <c r="CO21" s="220">
+        <v>1.7828200972447299</v>
+      </c>
       <c r="CP21" s="221" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="CQ21" s="220" t="s">
         <v>110</v>
@@ -22929,7 +22934,7 @@
         <v>716</v>
       </c>
       <c r="C22" s="94">
-        <v>2.11327882884212</v>
+        <v>2.1133412042502999</v>
       </c>
       <c r="D22" s="85">
         <v>0</v>
@@ -23082,25 +23087,25 @@
         <v>0.69832402234637003</v>
       </c>
       <c r="BB22" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BC22" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BD22" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BE22" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BF22" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BG22" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BH22" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BI22" s="200" t="s">
         <v>110</v>
@@ -23130,13 +23135,13 @@
         <v>0.55865921787710004</v>
       </c>
       <c r="BR22" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BS22" s="201" t="s">
         <v>110</v>
       </c>
       <c r="BT22" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BU22" s="201" t="s">
         <v>110</v>
@@ -23216,7 +23221,7 @@
         <v>451</v>
       </c>
       <c r="C23" s="93">
-        <v>1.3311295416310001</v>
+        <v>1.3311688311688299</v>
       </c>
       <c r="D23" s="78">
         <v>0</v>
@@ -23243,7 +23248,7 @@
         <v>1.1086474501108701</v>
       </c>
       <c r="L23" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="M23" s="207" t="s">
         <v>110</v>
@@ -23339,7 +23344,7 @@
         <v>0</v>
       </c>
       <c r="AR23" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AS23" s="206" t="s">
         <v>110</v>
@@ -23351,43 +23356,43 @@
         <v>0</v>
       </c>
       <c r="AV23" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AW23" s="206" t="s">
         <v>110</v>
       </c>
       <c r="AX23" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AY23" s="206" t="s">
         <v>110</v>
       </c>
       <c r="AZ23" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BA23" s="206" t="s">
         <v>110</v>
       </c>
       <c r="BB23" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BC23" s="206" t="s">
         <v>110</v>
       </c>
       <c r="BD23" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BE23" s="206" t="s">
         <v>110</v>
       </c>
       <c r="BF23" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BG23" s="206" t="s">
         <v>110</v>
       </c>
       <c r="BH23" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BI23" s="204" t="s">
         <v>110</v>
@@ -23405,19 +23410,19 @@
         <v>1.3303769401330401</v>
       </c>
       <c r="BN23" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BO23" s="204" t="s">
         <v>110</v>
       </c>
       <c r="BP23" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BQ23" s="204" t="s">
         <v>110</v>
       </c>
       <c r="BR23" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BS23" s="205" t="s">
         <v>110</v>
@@ -23483,15 +23488,17 @@
         <v>0</v>
       </c>
       <c r="CN23" s="221" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="CO23" s="220" t="s">
         <v>110</v>
       </c>
-      <c r="CP23" s="228" t="s">
-        <v>271</v>
-      </c>
-      <c r="CQ23" s="220"/>
+      <c r="CP23" s="221">
+        <v>0</v>
+      </c>
+      <c r="CQ23" s="220">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:95">
       <c r="A24" s="30" t="s">
@@ -23501,7 +23508,7 @@
         <v>645</v>
       </c>
       <c r="C24" s="94">
-        <v>1.9037218500044299</v>
+        <v>1.90377804014168</v>
       </c>
       <c r="D24" s="85">
         <v>0</v>
@@ -23510,7 +23517,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="G24" s="203" t="s">
         <v>110</v>
@@ -23624,25 +23631,25 @@
         <v>0</v>
       </c>
       <c r="AR24" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AS24" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AT24" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AU24" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AV24" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AW24" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AX24" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AY24" s="202" t="s">
         <v>110</v>
@@ -23654,13 +23661,13 @@
         <v>0.62015503875969002</v>
       </c>
       <c r="BB24" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BC24" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BD24" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BE24" s="202" t="s">
         <v>110</v>
@@ -23672,7 +23679,7 @@
         <v>0.77519379844961001</v>
       </c>
       <c r="BH24" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BI24" s="200" t="s">
         <v>110</v>
@@ -23684,13 +23691,13 @@
         <v>0.77519379844961001</v>
       </c>
       <c r="BL24" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BM24" s="200" t="s">
         <v>110</v>
       </c>
       <c r="BN24" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BO24" s="200" t="s">
         <v>110</v>
@@ -23788,22 +23795,22 @@
         <v>562</v>
       </c>
       <c r="C25" s="94">
-        <v>1.6587467902364199</v>
+        <v>1.65879574970484</v>
       </c>
       <c r="D25" s="85" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="E25" s="203" t="s">
         <v>110</v>
       </c>
       <c r="F25" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="G25" s="203" t="s">
         <v>110</v>
       </c>
       <c r="H25" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="I25" s="203" t="s">
         <v>110</v>
@@ -23905,31 +23912,31 @@
         <v>1.4234875444839901</v>
       </c>
       <c r="AP25" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AQ25" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AR25" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AS25" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AT25" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AU25" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AV25" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AW25" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AX25" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AY25" s="202" t="s">
         <v>110</v>
@@ -23941,43 +23948,43 @@
         <v>0.71174377224199004</v>
       </c>
       <c r="BB25" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BC25" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BD25" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BE25" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BF25" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BG25" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BH25" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BI25" s="200" t="s">
         <v>110</v>
       </c>
       <c r="BJ25" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BK25" s="200" t="s">
         <v>110</v>
       </c>
       <c r="BL25" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BM25" s="200" t="s">
         <v>110</v>
       </c>
       <c r="BN25" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BO25" s="200" t="s">
         <v>110</v>
@@ -23995,7 +24002,7 @@
         <v>0.71174377224199004</v>
       </c>
       <c r="BT25" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BU25" s="201" t="s">
         <v>110</v>
@@ -24075,7 +24082,7 @@
         <v>493</v>
       </c>
       <c r="C26" s="94">
-        <v>1.45509282488711</v>
+        <v>1.45513577331759</v>
       </c>
       <c r="D26" s="84">
         <v>0</v>
@@ -24090,13 +24097,13 @@
         <v>0</v>
       </c>
       <c r="H26" s="84" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="I26" s="203" t="s">
         <v>110</v>
       </c>
       <c r="J26" s="84" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="K26" s="203" t="s">
         <v>110</v>
@@ -24180,19 +24187,19 @@
         <v>1.21703853955375</v>
       </c>
       <c r="AL26" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AM26" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AN26" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AO26" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AP26" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AQ26" s="202" t="s">
         <v>110</v>
@@ -24210,7 +24217,7 @@
         <v>0</v>
       </c>
       <c r="AV26" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AW26" s="202" t="s">
         <v>110</v>
@@ -24222,7 +24229,7 @@
         <v>1.21703853955375</v>
       </c>
       <c r="AZ26" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BA26" s="202" t="s">
         <v>110</v>
@@ -24234,19 +24241,19 @@
         <v>0</v>
       </c>
       <c r="BD26" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BE26" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BF26" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BG26" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BH26" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BI26" s="200" t="s">
         <v>110</v>
@@ -24258,7 +24265,7 @@
         <v>1.01419878296146</v>
       </c>
       <c r="BL26" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BM26" s="200" t="s">
         <v>110</v>
@@ -24362,10 +24369,10 @@
         <v>357</v>
       </c>
       <c r="C27" s="94">
-        <v>1.0536879076768699</v>
+        <v>1.0537190082644601</v>
       </c>
       <c r="D27" s="84" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="E27" s="203" t="s">
         <v>110</v>
@@ -24377,7 +24384,7 @@
         <v>1.6806722689075599</v>
       </c>
       <c r="H27" s="84" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="I27" s="203" t="s">
         <v>110</v>
@@ -24473,55 +24480,55 @@
         <v>1.12044817927171</v>
       </c>
       <c r="AN27" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AO27" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AP27" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AQ27" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AR27" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AS27" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AT27" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AU27" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AV27" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AW27" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AX27" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AY27" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AZ27" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BA27" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BB27" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BC27" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BD27" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BE27" s="202" t="s">
         <v>110</v>
@@ -24533,13 +24540,13 @@
         <v>0</v>
       </c>
       <c r="BH27" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BI27" s="200" t="s">
         <v>110</v>
       </c>
       <c r="BJ27" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BK27" s="200" t="s">
         <v>110</v>
@@ -24551,19 +24558,19 @@
         <v>0</v>
       </c>
       <c r="BN27" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BO27" s="200" t="s">
         <v>110</v>
       </c>
       <c r="BP27" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BQ27" s="200" t="s">
         <v>110</v>
       </c>
       <c r="BR27" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BS27" s="201" t="s">
         <v>110</v>
@@ -24649,7 +24656,7 @@
         <v>250</v>
       </c>
       <c r="C28" s="93">
-        <v>0.73787668604822998</v>
+        <v>0.73789846517118995</v>
       </c>
       <c r="D28" s="83">
         <v>0</v>
@@ -24658,13 +24665,13 @@
         <v>0</v>
       </c>
       <c r="F28" s="83" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="G28" s="207" t="s">
         <v>110</v>
       </c>
       <c r="H28" s="78" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="I28" s="207" t="s">
         <v>110</v>
@@ -24736,7 +24743,7 @@
         <v>2</v>
       </c>
       <c r="AF28" s="83" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AG28" s="206" t="s">
         <v>110</v>
@@ -24754,13 +24761,13 @@
         <v>4.8</v>
       </c>
       <c r="AL28" s="83" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AM28" s="206" t="s">
         <v>110</v>
       </c>
       <c r="AN28" s="83" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AO28" s="206" t="s">
         <v>110</v>
@@ -24778,7 +24785,7 @@
         <v>0</v>
       </c>
       <c r="AT28" s="83" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AU28" s="206" t="s">
         <v>110</v>
@@ -24790,25 +24797,25 @@
         <v>0</v>
       </c>
       <c r="AX28" s="83" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AY28" s="206" t="s">
         <v>110</v>
       </c>
       <c r="AZ28" s="83" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BA28" s="206" t="s">
         <v>110</v>
       </c>
       <c r="BB28" s="83" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BC28" s="206" t="s">
         <v>110</v>
       </c>
       <c r="BD28" s="83" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BE28" s="206" t="s">
         <v>110</v>
@@ -24820,25 +24827,25 @@
         <v>0</v>
       </c>
       <c r="BH28" s="83" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BI28" s="204" t="s">
         <v>110</v>
       </c>
       <c r="BJ28" s="83" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BK28" s="204" t="s">
         <v>110</v>
       </c>
       <c r="BL28" s="83" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BM28" s="204" t="s">
         <v>110</v>
       </c>
       <c r="BN28" s="83" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BO28" s="204" t="s">
         <v>110</v>
@@ -24850,19 +24857,19 @@
         <v>0</v>
       </c>
       <c r="BR28" s="83" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BS28" s="205" t="s">
         <v>110</v>
       </c>
       <c r="BT28" s="83" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BU28" s="205" t="s">
         <v>110</v>
       </c>
       <c r="BV28" s="83" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BW28" s="204" t="s">
         <v>110</v>
@@ -24930,13 +24937,13 @@
     </row>
     <row r="29" spans="1:95">
       <c r="A29" s="30" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B29" s="90">
         <v>305</v>
       </c>
       <c r="C29" s="94">
-        <v>0.90020955697883998</v>
+        <v>0.90023612750884996</v>
       </c>
       <c r="D29" s="84">
         <v>0</v>
@@ -24951,7 +24958,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="84" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="I29" s="203" t="s">
         <v>110</v>
@@ -24963,13 +24970,13 @@
         <v>1.3114754098360699</v>
       </c>
       <c r="L29" s="84" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="M29" s="203" t="s">
         <v>110</v>
       </c>
       <c r="N29" s="84" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="O29" s="203" t="s">
         <v>110</v>
@@ -24981,7 +24988,7 @@
         <v>1.3114754098360699</v>
       </c>
       <c r="R29" s="84" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="S29" s="203" t="s">
         <v>110</v>
@@ -24993,7 +25000,7 @@
         <v>1.63934426229508</v>
       </c>
       <c r="V29" s="84" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="W29" s="202" t="s">
         <v>110</v>
@@ -25047,7 +25054,7 @@
         <v>1.3114754098360699</v>
       </c>
       <c r="AN29" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AO29" s="202" t="s">
         <v>110</v>
@@ -25071,7 +25078,7 @@
         <v>1.3114754098360699</v>
       </c>
       <c r="AV29" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AW29" s="202" t="s">
         <v>110</v>
@@ -25083,31 +25090,31 @@
         <v>1.63934426229508</v>
       </c>
       <c r="AZ29" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BA29" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BB29" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BC29" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BD29" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BE29" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BF29" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BG29" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BH29" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BI29" s="200" t="s">
         <v>110</v>
@@ -25131,13 +25138,13 @@
         <v>1.63934426229508</v>
       </c>
       <c r="BP29" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BQ29" s="200" t="s">
         <v>110</v>
       </c>
       <c r="BR29" s="100" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BS29" s="201" t="s">
         <v>110</v>
@@ -25223,7 +25230,7 @@
         <v>73</v>
       </c>
       <c r="C30" s="97">
-        <v>0.21545999232608001</v>
+        <v>0.21546635182998999</v>
       </c>
       <c r="D30" s="86">
         <v>0</v>
@@ -25244,7 +25251,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="86" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="K30" s="199" t="s">
         <v>110</v>
@@ -25262,19 +25269,19 @@
         <v>0</v>
       </c>
       <c r="P30" s="86" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="Q30" s="199" t="s">
         <v>110</v>
       </c>
       <c r="R30" s="86" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="S30" s="199" t="s">
         <v>110</v>
       </c>
       <c r="T30" s="86" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="U30" s="198" t="s">
         <v>110</v>
@@ -25286,7 +25293,7 @@
         <v>0</v>
       </c>
       <c r="X30" s="86" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="Y30" s="198" t="s">
         <v>110</v>
@@ -25298,37 +25305,37 @@
         <v>0</v>
       </c>
       <c r="AB30" s="86" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AC30" s="198" t="s">
         <v>110</v>
       </c>
       <c r="AD30" s="86" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AE30" s="198" t="s">
         <v>110</v>
       </c>
       <c r="AF30" s="86" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AG30" s="198" t="s">
         <v>110</v>
       </c>
       <c r="AH30" s="86" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AI30" s="198" t="s">
         <v>110</v>
       </c>
       <c r="AJ30" s="86" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AK30" s="198" t="s">
         <v>110</v>
       </c>
       <c r="AL30" s="86" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AM30" s="198" t="s">
         <v>110</v>
@@ -25346,7 +25353,7 @@
         <v>0</v>
       </c>
       <c r="AR30" s="86" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AS30" s="198" t="s">
         <v>110</v>
@@ -25358,37 +25365,37 @@
         <v>0</v>
       </c>
       <c r="AV30" s="86" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AW30" s="198" t="s">
         <v>110</v>
       </c>
       <c r="AX30" s="86" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AY30" s="198" t="s">
         <v>110</v>
       </c>
       <c r="AZ30" s="86" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BA30" s="198" t="s">
         <v>110</v>
       </c>
       <c r="BB30" s="86" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BC30" s="198" t="s">
         <v>110</v>
       </c>
       <c r="BD30" s="86" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BE30" s="198" t="s">
         <v>110</v>
       </c>
       <c r="BF30" s="86" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BG30" s="198" t="s">
         <v>110</v>
@@ -25406,13 +25413,13 @@
         <v>0</v>
       </c>
       <c r="BL30" s="86" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BM30" s="196" t="s">
         <v>110</v>
       </c>
       <c r="BN30" s="86" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BO30" s="196" t="s">
         <v>110</v>
@@ -25424,13 +25431,13 @@
         <v>0</v>
       </c>
       <c r="BR30" s="86" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BS30" s="197" t="s">
         <v>110</v>
       </c>
       <c r="BT30" s="86" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="BU30" s="197" t="s">
         <v>110</v>
@@ -25454,52 +25461,52 @@
         <v>12.328767123287699</v>
       </c>
       <c r="CB30" s="86" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="CC30" s="196" t="s">
         <v>110</v>
       </c>
       <c r="CD30" s="86" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="CE30" s="196" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="CF30" s="86" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="CG30" s="196" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="CH30" s="86" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="CI30" s="196" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="CJ30" s="86" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="CK30" s="196" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="CL30" s="86" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="CM30" s="196" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="CN30" s="86" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="CO30" s="196" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="CP30" s="86" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="CQ30" s="196" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31" spans="1:95" ht="15.75" customHeight="1" thickTop="1">
@@ -25589,21 +25596,27 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="CN6:CO6"/>
-    <mergeCell ref="CP6:CQ6"/>
-    <mergeCell ref="BX6:BY6"/>
-    <mergeCell ref="AV6:AW6"/>
-    <mergeCell ref="AT6:AU6"/>
-    <mergeCell ref="CF6:CG6"/>
-    <mergeCell ref="CH6:CI6"/>
-    <mergeCell ref="CD6:CE6"/>
-    <mergeCell ref="BZ6:CA6"/>
-    <mergeCell ref="CB6:CC6"/>
+    <mergeCell ref="AP6:AQ6"/>
+    <mergeCell ref="AR6:AS6"/>
+    <mergeCell ref="BP6:BQ6"/>
+    <mergeCell ref="BR6:BS6"/>
+    <mergeCell ref="BT6:BU6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="BJ6:BK6"/>
+    <mergeCell ref="BL6:BM6"/>
     <mergeCell ref="BN6:BO6"/>
-    <mergeCell ref="CJ6:CK6"/>
-    <mergeCell ref="CL6:CM6"/>
-    <mergeCell ref="BV6:BW6"/>
-    <mergeCell ref="CD5:CQ5"/>
+    <mergeCell ref="BH6:BI6"/>
+    <mergeCell ref="BF6:BG6"/>
+    <mergeCell ref="BD6:BE6"/>
+    <mergeCell ref="BB6:BC6"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="AF6:AG6"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AJ6:AK6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:Y6"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="B5:C6"/>
     <mergeCell ref="A6:A7"/>
@@ -25620,26 +25633,20 @@
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="AL6:AM6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="BJ6:BK6"/>
-    <mergeCell ref="BL6:BM6"/>
-    <mergeCell ref="BH6:BI6"/>
-    <mergeCell ref="BF6:BG6"/>
-    <mergeCell ref="BD6:BE6"/>
-    <mergeCell ref="BB6:BC6"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="AF6:AG6"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="AJ6:AK6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="AP6:AQ6"/>
-    <mergeCell ref="AR6:AS6"/>
-    <mergeCell ref="BP6:BQ6"/>
-    <mergeCell ref="BR6:BS6"/>
-    <mergeCell ref="BT6:BU6"/>
+    <mergeCell ref="AT6:AU6"/>
+    <mergeCell ref="CF6:CG6"/>
+    <mergeCell ref="CH6:CI6"/>
+    <mergeCell ref="CD6:CE6"/>
+    <mergeCell ref="BZ6:CA6"/>
+    <mergeCell ref="CB6:CC6"/>
+    <mergeCell ref="BV6:BW6"/>
+    <mergeCell ref="CN6:CO6"/>
+    <mergeCell ref="CP6:CQ6"/>
+    <mergeCell ref="CD5:CQ5"/>
+    <mergeCell ref="BX6:BY6"/>
+    <mergeCell ref="AV6:AW6"/>
+    <mergeCell ref="CJ6:CK6"/>
+    <mergeCell ref="CL6:CM6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -25657,44 +25664,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Publiceringsdatum xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">2020-04-28T22:00:00+00:00</Publiceringsdatum>
-    <Verksamhetsomr_x00e5_de xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
-      <Value>Hälso- och sjukvård</Value>
-    </Verksamhetsomr_x00e5_de>
-    <E_x002d_plikt xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Ja</E_x002d_plikt>
-    <Produkt xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Statistik</Produkt>
-    <Ansvarig_x0020_webbredakt_x00f6_r xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
-      <UserInfo>
-        <DisplayName>Söderholm, Joen</DisplayName>
-        <AccountId>87</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </Ansvarig_x0020_webbredakt_x00f6_r>
-    <TaxCatchAll xmlns="343f6c91-b5b3-4dff-89ad-5fc55ccc8930">
-      <Value>9</Value>
-    </TaxCatchAll>
-    <Dokumenttyp xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Övrigt</Dokumenttyp>
-    <Titel xmlns="343f6c91-b5b3-4dff-89ad-5fc55ccc8930">statistik-covid19-avlidna</Titel>
-    <Webbplatstillh_x00f6_righet xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
-      <Value>Socialstyrelsen.se</Value>
-    </Webbplatstillh_x00f6_righet>
-    <i01e5b6f93524074838bfc1e1bab8714 xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">statistik och jämförelser</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">338b04a2-62bc-42a8-9e4b-6158db2fb390</TermId>
-        </TermInfo>
-      </Terms>
-    </i01e5b6f93524074838bfc1e1bab8714>
-    <_x00c4_mnesomr_x00e5_de xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
-    <Status_x0020_p_x00e5__x0020_publikation xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Publicerad</Status_x0020_p_x00e5__x0020_publikation>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100361443839E954C488E1554F766430BDE" ma:contentTypeVersion="37" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="ec0867efc9d878e75742a5b73fddae48">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dd3acd59-a8d8-42b1-950d-eec6c247243c" xmlns:ns3="343f6c91-b5b3-4dff-89ad-5fc55ccc8930" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4f4ea334ff345e29c5775f0a2fd1174f" ns2:_="" ns3:_="">
     <xsd:import namespace="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
@@ -26027,6 +25996,44 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Publiceringsdatum xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">2020-04-28T22:00:00+00:00</Publiceringsdatum>
+    <Verksamhetsomr_x00e5_de xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
+      <Value>Hälso- och sjukvård</Value>
+    </Verksamhetsomr_x00e5_de>
+    <E_x002d_plikt xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Ja</E_x002d_plikt>
+    <Produkt xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Statistik</Produkt>
+    <Ansvarig_x0020_webbredakt_x00f6_r xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
+      <UserInfo>
+        <DisplayName>Söderholm, Joen</DisplayName>
+        <AccountId>87</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </Ansvarig_x0020_webbredakt_x00f6_r>
+    <TaxCatchAll xmlns="343f6c91-b5b3-4dff-89ad-5fc55ccc8930">
+      <Value>9</Value>
+    </TaxCatchAll>
+    <Dokumenttyp xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Övrigt</Dokumenttyp>
+    <Titel xmlns="343f6c91-b5b3-4dff-89ad-5fc55ccc8930">statistik-covid19-avlidna</Titel>
+    <Webbplatstillh_x00f6_righet xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
+      <Value>Socialstyrelsen.se</Value>
+    </Webbplatstillh_x00f6_righet>
+    <i01e5b6f93524074838bfc1e1bab8714 xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">statistik och jämförelser</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">338b04a2-62bc-42a8-9e4b-6158db2fb390</TermId>
+        </TermInfo>
+      </Terms>
+    </i01e5b6f93524074838bfc1e1bab8714>
+    <_x00c4_mnesomr_x00e5_de xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
+    <Status_x0020_p_x00e5__x0020_publikation xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Publicerad</Status_x0020_p_x00e5__x0020_publikation>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C92573-D875-4871-BB97-75789C903393}">
   <ds:schemaRefs>
@@ -26036,23 +26043,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F4CF34A-7793-424A-BF7F-3DB732CF3454}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
-    <ds:schemaRef ds:uri="343f6c91-b5b3-4dff-89ad-5fc55ccc8930"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2BDD971-BADF-427E-9579-B824215A28B1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26069,4 +26059,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F4CF34A-7793-424A-BF7F-3DB732CF3454}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="343f6c91-b5b3-4dff-89ad-5fc55ccc8930"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/socialstyrelsen/statistik-covid19-inskrivna_2021-01-24.xlsx
+++ b/socialstyrelsen/statistik-covid19-inskrivna_2021-01-24.xlsx
@@ -31,12 +31,12 @@
     <definedName name="innehållsförteckning" localSheetId="2">'[2]Om statistiken'!#REF!</definedName>
     <definedName name="innehållsförteckning">'Om statistiken'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="288">
   <si>
     <t>Diabetes</t>
   </si>
@@ -995,6 +995,141 @@
     </r>
   </si>
   <si>
+    <t>Antal unika patienter som rapporterats till Socialstyrelsen som inskrivna i slutenvård med diagnosen covid-19.</t>
+  </si>
+  <si>
+    <t>vecka 26</t>
+  </si>
+  <si>
+    <t>vecka 27</t>
+  </si>
+  <si>
+    <t>vecka 28</t>
+  </si>
+  <si>
+    <t>vecka 29</t>
+  </si>
+  <si>
+    <t>vecka 30</t>
+  </si>
+  <si>
+    <t>vecka 31</t>
+  </si>
+  <si>
+    <t>vecka 32</t>
+  </si>
+  <si>
+    <t>vecka 33</t>
+  </si>
+  <si>
+    <t>vecka 34</t>
+  </si>
+  <si>
+    <t>Beräkning av boendeform/socialtjänstinsats har korrigerats.</t>
+  </si>
+  <si>
+    <t>vecka 35</t>
+  </si>
+  <si>
+    <t>vecka 36</t>
+  </si>
+  <si>
+    <t>vecka 37</t>
+  </si>
+  <si>
+    <t>vecka 39</t>
+  </si>
+  <si>
+    <t>vecka 38</t>
+  </si>
+  <si>
+    <t>vecka 40</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>Blekinge</t>
+  </si>
+  <si>
+    <t>vecka 41</t>
+  </si>
+  <si>
+    <t>vecka 42</t>
+  </si>
+  <si>
+    <t>vecka 48</t>
+  </si>
+  <si>
+    <t>vecka 47</t>
+  </si>
+  <si>
+    <t>vecka 46</t>
+  </si>
+  <si>
+    <t>vecka 45</t>
+  </si>
+  <si>
+    <t>vecka 44</t>
+  </si>
+  <si>
+    <t>vecka 43</t>
+  </si>
+  <si>
+    <t>vecka 50</t>
+  </si>
+  <si>
+    <t>vecka 49</t>
+  </si>
+  <si>
+    <t>vecka 51</t>
+  </si>
+  <si>
+    <t>vecka 52</t>
+  </si>
+  <si>
+    <t>vecka 53</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>IU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IU </t>
+  </si>
+  <si>
+    <t>Populationen utgörs av alla individer som slutenvårdats för covid-19 med inskrivningsdatum fram till och med 24 januari enligt rapportering till patientregistret eller frivillig särskild</t>
+  </si>
+  <si>
+    <t>gång. Statistiken är preliminär och baserad på de uppgifter som inkommit till Socialstyrelsen vid den 24 januari 2021. Notera bortfallet som beskrivs nedan.</t>
+  </si>
+  <si>
+    <t>2021W03</t>
+  </si>
+  <si>
+    <t>2020W49</t>
+  </si>
+  <si>
+    <t>2021W04</t>
+  </si>
+  <si>
+    <t>2021W02</t>
+  </si>
+  <si>
+    <t>vecka 1 2021</t>
+  </si>
+  <si>
+    <t>vecka 2 2021</t>
+  </si>
+  <si>
+    <t>vecka 3 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antal unika patienter som rapporterats till Socialstyrelsen, som utskrivna från slutenvård som vårdats med diagnosen covid-19. Endast den sista utskrivningen i slutenvård för en patient ingår i statistiken, om det skulle förekomma mer än ett. </t>
+  </si>
+  <si>
     <r>
       <t>Antal unika patienter som rapporterats till Socialstyrelsen som inskrivna i slutenvård med diagnosen covid-19</t>
     </r>
@@ -1015,146 +1150,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Endast den första inskrivningen i slutenvård för en patient ingår i statistiken, skulle det förkomma mer än ett.</t>
+      <t xml:space="preserve"> Endast den första inskrivningen i slutenvård för en patient ingår i statistiken, om det skulle förekomma mer än ett.</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Antal unika patienter som rapporterats till Socialstyrelsen, som utskrivna från slutenvård som vårdats med diagnosen covid-19. Endast den sista utskrivningen i slutenvård för en patient ingår i statistiken, skulle det förkomma mer än ett. </t>
-  </si>
-  <si>
-    <t>Antal unika patienter som rapporterats till Socialstyrelsen som inskrivna i slutenvård med diagnosen covid-19.</t>
-  </si>
-  <si>
-    <t>Antal unika patienter som rapporterats till Socialstyrelsen som inskrivna i slutenvård med diagnosen covid-19. Endast ett slutenvårdstillfälle för en patient ingår i statistiken, skulle det förkomma mer än ett.</t>
-  </si>
-  <si>
-    <t>vecka 26</t>
-  </si>
-  <si>
-    <t>vecka 27</t>
-  </si>
-  <si>
-    <t>vecka 28</t>
-  </si>
-  <si>
-    <t>vecka 29</t>
-  </si>
-  <si>
-    <t>vecka 30</t>
-  </si>
-  <si>
-    <t>vecka 31</t>
-  </si>
-  <si>
-    <t>vecka 32</t>
-  </si>
-  <si>
-    <t>vecka 33</t>
-  </si>
-  <si>
-    <t>vecka 34</t>
-  </si>
-  <si>
-    <t>Beräkning av boendeform/socialtjänstinsats har korrigerats.</t>
-  </si>
-  <si>
-    <t>vecka 35</t>
-  </si>
-  <si>
-    <t>vecka 36</t>
-  </si>
-  <si>
-    <t>vecka 37</t>
-  </si>
-  <si>
-    <t>vecka 39</t>
-  </si>
-  <si>
-    <t>vecka 38</t>
-  </si>
-  <si>
-    <t>vecka 40</t>
-  </si>
-  <si>
-    <t>Population</t>
-  </si>
-  <si>
-    <t>Blekinge</t>
-  </si>
-  <si>
-    <t>vecka 41</t>
-  </si>
-  <si>
-    <t>vecka 42</t>
-  </si>
-  <si>
-    <t>vecka 48</t>
-  </si>
-  <si>
-    <t>vecka 47</t>
-  </si>
-  <si>
-    <t>vecka 46</t>
-  </si>
-  <si>
-    <t>vecka 45</t>
-  </si>
-  <si>
-    <t>vecka 44</t>
-  </si>
-  <si>
-    <t>vecka 43</t>
-  </si>
-  <si>
-    <t>vecka 50</t>
-  </si>
-  <si>
-    <t>vecka 49</t>
-  </si>
-  <si>
-    <t>vecka 51</t>
-  </si>
-  <si>
-    <t>vecka 52</t>
-  </si>
-  <si>
-    <t>vecka 53</t>
-  </si>
-  <si>
-    <t>vecka 1</t>
-  </si>
-  <si>
-    <t>vecka 2</t>
-  </si>
-  <si>
-    <t>vecka 3</t>
-  </si>
-  <si>
-    <t>IU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IU </t>
-  </si>
-  <si>
-    <t>Populationen utgörs av alla individer som slutenvårdats för covid-19 med inskrivningsdatum fram till och med 24 januari enligt rapportering till patientregistret eller frivillig särskild</t>
-  </si>
-  <si>
-    <t>gång. Statistiken är preliminär och baserad på de uppgifter som inkommit till Socialstyrelsen vid den 24 januari 2021. Notera bortfallet som beskrivs nedan.</t>
-  </si>
-  <si>
-    <t>2021W03</t>
-  </si>
-  <si>
-    <t>2020W49</t>
-  </si>
-  <si>
-    <t>2021W04</t>
-  </si>
-  <si>
-    <t>2021W02</t>
-  </si>
-  <si>
-    <t>X</t>
+    <t>Antal unika patienter som rapporterats till Socialstyrelsen som inskrivna i slutenvård med diagnosen covid-19. Endast ett slutenvårdstillfälle för en patient ingår i statistiken,  om det skulle förekomma mer än ett.</t>
   </si>
   <si>
     <r>
@@ -1449,7 +1449,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="54">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -2029,17 +2029,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2091,7 +2080,7 @@
     <xf numFmtId="167" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="300">
+  <cellXfs count="301">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2711,22 +2700,25 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="52" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="36" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="19" fillId="0" borderId="53" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="38" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="36" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2768,6 +2760,69 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2783,78 +2838,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="10" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2912,32 +2904,32 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="29" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="47" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="29" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="47" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="52" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5459,16 +5451,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>483870</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>65370</xdr:colOff>
+      <xdr:colOff>55845</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>36195</xdr:rowOff>
+      <xdr:rowOff>17145</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5479,7 +5471,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4922520" y="638175"/>
+          <a:off x="4912995" y="619125"/>
           <a:ext cx="1296000" cy="360045"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -5958,7 +5950,7 @@
               <a:latin typeface="Century Gothic"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>Antal unika patienter som rapporterats till Socialstyrelsen som inskrivna i slutenvård med diagnosen covid-19. Endast ett slutenvårdstillfälle för en patient ingår i statistiken, skulle det förkomma mer än ett.</a:t>
+            <a:t>Antal unika patienter som rapporterats till Socialstyrelsen som inskrivna i slutenvård med diagnosen covid-19. Endast ett slutenvårdstillfälle för en patient ingår i statistiken,  om det skulle förekomma mer än ett.</a:t>
           </a:fld>
           <a:endParaRPr lang="sv-SE" sz="800" b="0"/>
         </a:p>
@@ -7791,88 +7783,88 @@
     <row r="1" spans="2:6" ht="60" customHeight="1"/>
     <row r="2" spans="2:6" ht="14.25" thickBot="1"/>
     <row r="3" spans="2:6" ht="15.6" customHeight="1">
-      <c r="B3" s="233" t="s">
-        <v>259</v>
-      </c>
-      <c r="C3" s="234"/>
-      <c r="D3" s="234"/>
-      <c r="E3" s="234"/>
-      <c r="F3" s="235"/>
+      <c r="B3" s="234" t="s">
+        <v>256</v>
+      </c>
+      <c r="C3" s="235"/>
+      <c r="D3" s="235"/>
+      <c r="E3" s="235"/>
+      <c r="F3" s="236"/>
     </row>
     <row r="4" spans="2:6" s="30" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B4" s="239" t="s">
-        <v>279</v>
-      </c>
-      <c r="C4" s="240"/>
-      <c r="D4" s="240"/>
-      <c r="E4" s="240"/>
-      <c r="F4" s="241"/>
+      <c r="B4" s="240" t="s">
+        <v>274</v>
+      </c>
+      <c r="C4" s="241"/>
+      <c r="D4" s="241"/>
+      <c r="E4" s="241"/>
+      <c r="F4" s="242"/>
     </row>
     <row r="5" spans="2:6" s="30" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B5" s="239" t="str">
+      <c r="B5" s="240" t="str">
         <f>"veckovis inrapportering om slutenvård till Socialstyrelsen från regionerna. Patienter som slutenvårdas vid fler än ett tillfälle räknas bara som inskriven en gång respektive utskriven en"</f>
         <v>veckovis inrapportering om slutenvård till Socialstyrelsen från regionerna. Patienter som slutenvårdas vid fler än ett tillfälle räknas bara som inskriven en gång respektive utskriven en</v>
       </c>
-      <c r="C5" s="240"/>
-      <c r="D5" s="240"/>
-      <c r="E5" s="240"/>
-      <c r="F5" s="241"/>
+      <c r="C5" s="241"/>
+      <c r="D5" s="241"/>
+      <c r="E5" s="241"/>
+      <c r="F5" s="242"/>
     </row>
     <row r="6" spans="2:6" s="30" customFormat="1" ht="15.6" customHeight="1">
-      <c r="B6" s="239" t="s">
-        <v>280</v>
-      </c>
-      <c r="C6" s="240"/>
-      <c r="D6" s="240"/>
-      <c r="E6" s="240"/>
-      <c r="F6" s="241"/>
+      <c r="B6" s="240" t="s">
+        <v>275</v>
+      </c>
+      <c r="C6" s="241"/>
+      <c r="D6" s="241"/>
+      <c r="E6" s="241"/>
+      <c r="F6" s="242"/>
     </row>
     <row r="7" spans="2:6" ht="42.6" customHeight="1">
-      <c r="B7" s="236" t="s">
+      <c r="B7" s="237" t="s">
         <v>220</v>
       </c>
-      <c r="C7" s="237"/>
-      <c r="D7" s="237"/>
-      <c r="E7" s="237"/>
-      <c r="F7" s="238"/>
+      <c r="C7" s="238"/>
+      <c r="D7" s="238"/>
+      <c r="E7" s="238"/>
+      <c r="F7" s="239"/>
     </row>
     <row r="8" spans="2:6" ht="33" customHeight="1">
-      <c r="B8" s="236" t="s">
+      <c r="B8" s="237" t="s">
         <v>179</v>
       </c>
-      <c r="C8" s="237"/>
-      <c r="D8" s="237"/>
-      <c r="E8" s="237"/>
-      <c r="F8" s="238"/>
+      <c r="C8" s="238"/>
+      <c r="D8" s="238"/>
+      <c r="E8" s="238"/>
+      <c r="F8" s="239"/>
     </row>
     <row r="9" spans="2:6" ht="57.75" customHeight="1">
-      <c r="B9" s="239" t="s">
+      <c r="B9" s="240" t="s">
         <v>223</v>
       </c>
-      <c r="C9" s="240"/>
-      <c r="D9" s="240"/>
-      <c r="E9" s="240"/>
-      <c r="F9" s="241"/>
+      <c r="C9" s="241"/>
+      <c r="D9" s="241"/>
+      <c r="E9" s="241"/>
+      <c r="F9" s="242"/>
     </row>
     <row r="10" spans="2:6" ht="54.75" customHeight="1">
-      <c r="B10" s="239" t="s">
+      <c r="B10" s="240" t="s">
         <v>188</v>
       </c>
-      <c r="C10" s="240"/>
-      <c r="D10" s="240"/>
-      <c r="E10" s="240"/>
-      <c r="F10" s="241"/>
-    </row>
-    <row r="11" spans="2:6" ht="148.5" customHeight="1" thickBot="1">
-      <c r="B11" s="230" t="s">
+      <c r="C10" s="241"/>
+      <c r="D10" s="241"/>
+      <c r="E10" s="241"/>
+      <c r="F10" s="242"/>
+    </row>
+    <row r="11" spans="2:6" ht="153.75" customHeight="1" thickBot="1">
+      <c r="B11" s="231" t="s">
         <v>286</v>
       </c>
-      <c r="C11" s="231"/>
-      <c r="D11" s="231"/>
-      <c r="E11" s="231"/>
-      <c r="F11" s="232"/>
-    </row>
-    <row r="12" spans="2:6">
+      <c r="C11" s="232"/>
+      <c r="D11" s="232"/>
+      <c r="E11" s="232"/>
+      <c r="F11" s="233"/>
+    </row>
+    <row r="12" spans="2:6" ht="14.25" customHeight="1">
       <c r="B12" s="20"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -7891,11 +7883,11 @@
       <c r="B15" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="C15" s="229" t="s">
+      <c r="C15" s="230" t="s">
         <v>155</v>
       </c>
-      <c r="D15" s="229"/>
-      <c r="E15" s="229"/>
+      <c r="D15" s="230"/>
+      <c r="E15" s="230"/>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="37" t="s">
@@ -8420,7 +8412,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="50.45" customHeight="1">
-      <c r="B13" s="244" t="s">
+      <c r="B13" s="266" t="s">
         <v>163</v>
       </c>
       <c r="C13" s="74" t="s">
@@ -8434,24 +8426,24 @@
       </c>
     </row>
     <row r="14" spans="2:5" s="30" customFormat="1" ht="29.25" customHeight="1">
-      <c r="B14" s="245"/>
+      <c r="B14" s="267"/>
       <c r="C14" s="129" t="s">
         <v>238</v>
       </c>
-      <c r="D14" s="242" t="s">
+      <c r="D14" s="264" t="s">
         <v>151</v>
       </c>
-      <c r="E14" s="242" t="s">
+      <c r="E14" s="264" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="15" spans="2:5" s="30" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
-      <c r="B15" s="245"/>
+      <c r="B15" s="267"/>
       <c r="C15" s="112" t="s">
         <v>187</v>
       </c>
-      <c r="D15" s="242"/>
-      <c r="E15" s="243"/>
+      <c r="D15" s="264"/>
+      <c r="E15" s="265"/>
     </row>
     <row r="16" spans="2:5" s="30" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="B16" s="109" t="s">
@@ -8467,20 +8459,20 @@
       <c r="B17" s="106" t="s">
         <v>215</v>
       </c>
-      <c r="C17" s="251" t="s">
+      <c r="C17" s="271" t="s">
         <v>219</v>
       </c>
-      <c r="D17" s="251"/>
+      <c r="D17" s="271"/>
       <c r="E17" s="108"/>
     </row>
     <row r="18" spans="2:6" s="30" customFormat="1" ht="40.5" customHeight="1" thickBot="1">
       <c r="B18" s="107" t="s">
         <v>216</v>
       </c>
-      <c r="C18" s="250" t="s">
+      <c r="C18" s="270" t="s">
         <v>217</v>
       </c>
-      <c r="D18" s="250"/>
+      <c r="D18" s="270"/>
       <c r="E18" s="108"/>
     </row>
     <row r="19" spans="2:6" ht="14.25" thickTop="1">
@@ -8697,16 +8689,16 @@
       <c r="F38" s="39"/>
     </row>
     <row r="39" spans="2:6" ht="27.75" thickTop="1">
-      <c r="B39" s="246" t="s">
+      <c r="B39" s="268" t="s">
         <v>47</v>
       </c>
       <c r="C39" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="248" t="s">
+      <c r="D39" s="269" t="s">
         <v>48</v>
       </c>
-      <c r="E39" s="248" t="s">
+      <c r="E39" s="269" t="s">
         <v>49</v>
       </c>
       <c r="F39" s="10" t="s">
@@ -8714,45 +8706,45 @@
       </c>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="247"/>
+      <c r="B40" s="260"/>
       <c r="C40" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="249"/>
-      <c r="E40" s="249"/>
+      <c r="D40" s="255"/>
+      <c r="E40" s="255"/>
       <c r="F40" s="11" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="247"/>
+      <c r="B41" s="260"/>
       <c r="C41" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="249"/>
-      <c r="E41" s="249"/>
+      <c r="D41" s="255"/>
+      <c r="E41" s="255"/>
       <c r="F41" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="247"/>
+      <c r="B42" s="260"/>
       <c r="C42" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="D42" s="249"/>
-      <c r="E42" s="249"/>
+      <c r="D42" s="255"/>
+      <c r="E42" s="255"/>
       <c r="F42" s="11" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="43" spans="2:6" ht="27">
-      <c r="B43" s="247"/>
+      <c r="B43" s="260"/>
       <c r="C43" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="D43" s="249"/>
-      <c r="E43" s="249"/>
+      <c r="D43" s="255"/>
+      <c r="E43" s="255"/>
       <c r="F43" s="11" t="s">
         <v>55</v>
       </c>
@@ -8782,22 +8774,22 @@
       <c r="F45" s="26"/>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="255"/>
-      <c r="C46" s="255"/>
-      <c r="D46" s="249" t="s">
+      <c r="B46" s="254"/>
+      <c r="C46" s="254"/>
+      <c r="D46" s="255" t="s">
         <v>60</v>
       </c>
-      <c r="E46" s="249" t="s">
+      <c r="E46" s="255" t="s">
         <v>61</v>
       </c>
-      <c r="F46" s="249"/>
+      <c r="F46" s="255"/>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="255"/>
-      <c r="C47" s="255"/>
-      <c r="D47" s="249"/>
-      <c r="E47" s="249"/>
-      <c r="F47" s="249"/>
+      <c r="B47" s="254"/>
+      <c r="C47" s="254"/>
+      <c r="D47" s="255"/>
+      <c r="E47" s="255"/>
+      <c r="F47" s="255"/>
     </row>
     <row r="48" spans="2:6" ht="14.25" thickBot="1">
       <c r="B48" s="39"/>
@@ -8811,16 +8803,16 @@
       <c r="F48" s="40"/>
     </row>
     <row r="49" spans="2:6" ht="14.25" thickTop="1">
-      <c r="B49" s="254" t="s">
+      <c r="B49" s="259" t="s">
         <v>0</v>
       </c>
       <c r="C49" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D49" s="256" t="s">
+      <c r="D49" s="261" t="s">
         <v>65</v>
       </c>
-      <c r="E49" s="256" t="s">
+      <c r="E49" s="261" t="s">
         <v>66</v>
       </c>
       <c r="F49" s="25" t="s">
@@ -8828,30 +8820,30 @@
       </c>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="247"/>
+      <c r="B50" s="260"/>
       <c r="C50" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="255"/>
-      <c r="E50" s="255"/>
+      <c r="D50" s="254"/>
+      <c r="E50" s="254"/>
       <c r="F50" s="25"/>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="247"/>
+      <c r="B51" s="260"/>
       <c r="C51" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D51" s="255"/>
-      <c r="E51" s="255"/>
+      <c r="D51" s="254"/>
+      <c r="E51" s="254"/>
       <c r="F51" s="25"/>
     </row>
     <row r="52" spans="2:6">
-      <c r="B52" s="247"/>
+      <c r="B52" s="260"/>
       <c r="C52" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="D52" s="255"/>
-      <c r="E52" s="255"/>
+      <c r="D52" s="254"/>
+      <c r="E52" s="254"/>
       <c r="F52" s="25"/>
     </row>
     <row r="53" spans="2:6" ht="27">
@@ -8903,46 +8895,46 @@
       <c r="F56" s="39"/>
     </row>
     <row r="57" spans="2:6" ht="14.25" thickTop="1">
-      <c r="B57" s="257" t="s">
+      <c r="B57" s="262" t="s">
         <v>76</v>
       </c>
       <c r="C57" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D57" s="259" t="s">
+      <c r="D57" s="263" t="s">
         <v>77</v>
       </c>
-      <c r="E57" s="259" t="s">
+      <c r="E57" s="263" t="s">
         <v>76</v>
       </c>
-      <c r="F57" s="252"/>
+      <c r="F57" s="258"/>
     </row>
     <row r="58" spans="2:6">
-      <c r="B58" s="258"/>
+      <c r="B58" s="253"/>
       <c r="C58" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D58" s="249"/>
-      <c r="E58" s="249"/>
-      <c r="F58" s="253"/>
+      <c r="D58" s="255"/>
+      <c r="E58" s="255"/>
+      <c r="F58" s="243"/>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="258"/>
+      <c r="B59" s="253"/>
       <c r="C59" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="249"/>
-      <c r="E59" s="249"/>
-      <c r="F59" s="253"/>
+      <c r="D59" s="255"/>
+      <c r="E59" s="255"/>
+      <c r="F59" s="243"/>
     </row>
     <row r="60" spans="2:6">
-      <c r="B60" s="258"/>
+      <c r="B60" s="253"/>
       <c r="C60" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="D60" s="249"/>
-      <c r="E60" s="249"/>
-      <c r="F60" s="253"/>
+      <c r="D60" s="255"/>
+      <c r="E60" s="255"/>
+      <c r="F60" s="243"/>
     </row>
     <row r="61" spans="2:6" ht="27">
       <c r="B61" s="24"/>
@@ -8958,22 +8950,22 @@
       <c r="F61" s="23"/>
     </row>
     <row r="62" spans="2:6">
-      <c r="B62" s="258"/>
-      <c r="C62" s="255"/>
-      <c r="D62" s="249" t="s">
+      <c r="B62" s="253"/>
+      <c r="C62" s="254"/>
+      <c r="D62" s="255" t="s">
         <v>80</v>
       </c>
-      <c r="E62" s="249" t="s">
+      <c r="E62" s="255" t="s">
         <v>81</v>
       </c>
-      <c r="F62" s="253"/>
+      <c r="F62" s="243"/>
     </row>
     <row r="63" spans="2:6">
-      <c r="B63" s="258"/>
-      <c r="C63" s="255"/>
-      <c r="D63" s="249"/>
-      <c r="E63" s="249"/>
-      <c r="F63" s="253"/>
+      <c r="B63" s="253"/>
+      <c r="C63" s="254"/>
+      <c r="D63" s="255"/>
+      <c r="E63" s="255"/>
+      <c r="F63" s="243"/>
     </row>
     <row r="64" spans="2:6">
       <c r="B64" s="24"/>
@@ -9109,47 +9101,47 @@
     </row>
     <row r="76" spans="2:6" ht="14.25" thickTop="1"/>
     <row r="78" spans="2:6">
-      <c r="B78" s="266" t="s">
+      <c r="B78" s="250" t="s">
         <v>147</v>
       </c>
-      <c r="C78" s="267"/>
-      <c r="D78" s="267"/>
-      <c r="E78" s="267"/>
+      <c r="C78" s="251"/>
+      <c r="D78" s="251"/>
+      <c r="E78" s="251"/>
     </row>
     <row r="79" spans="2:6" s="30" customFormat="1" ht="45.75" customHeight="1" thickBot="1">
-      <c r="B79" s="264" t="s">
+      <c r="B79" s="248" t="s">
         <v>287</v>
       </c>
-      <c r="C79" s="264"/>
-      <c r="D79" s="264"/>
+      <c r="C79" s="248"/>
+      <c r="D79" s="248"/>
       <c r="E79" s="28"/>
     </row>
     <row r="80" spans="2:6">
       <c r="B80" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="C80" s="263" t="s">
+      <c r="C80" s="247" t="s">
         <v>138</v>
       </c>
-      <c r="D80" s="263"/>
+      <c r="D80" s="247"/>
     </row>
     <row r="81" spans="2:4" ht="57" customHeight="1">
       <c r="B81" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="C81" s="265" t="s">
+      <c r="C81" s="249" t="s">
         <v>143</v>
       </c>
-      <c r="D81" s="265"/>
+      <c r="D81" s="249"/>
     </row>
     <row r="82" spans="2:4" ht="72" customHeight="1" thickBot="1">
       <c r="B82" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="C82" s="262" t="s">
+      <c r="C82" s="246" t="s">
         <v>144</v>
       </c>
-      <c r="D82" s="262"/>
+      <c r="D82" s="246"/>
     </row>
     <row r="83" spans="2:4" ht="14.25" thickTop="1"/>
     <row r="84" spans="2:4">
@@ -9164,37 +9156,37 @@
       <c r="C85" s="73"/>
     </row>
     <row r="86" spans="2:4" ht="42" customHeight="1" thickBot="1">
-      <c r="B86" s="270" t="s">
+      <c r="B86" s="257" t="s">
         <v>186</v>
       </c>
-      <c r="C86" s="270"/>
-      <c r="D86" s="270"/>
+      <c r="C86" s="257"/>
+      <c r="D86" s="257"/>
     </row>
     <row r="87" spans="2:4" ht="14.25" thickBot="1">
-      <c r="B87" s="260" t="s">
+      <c r="B87" s="244" t="s">
         <v>148</v>
       </c>
-      <c r="C87" s="268" t="s">
+      <c r="C87" s="252" t="s">
         <v>224</v>
       </c>
-      <c r="D87" s="269" t="s">
+      <c r="D87" s="256" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="88" spans="2:4">
-      <c r="B88" s="261"/>
-      <c r="C88" s="268"/>
-      <c r="D88" s="269"/>
+      <c r="B88" s="245"/>
+      <c r="C88" s="252"/>
+      <c r="D88" s="256"/>
     </row>
     <row r="89" spans="2:4">
       <c r="B89" s="19" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C89" s="133">
         <v>44220</v>
       </c>
       <c r="D89" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="90" spans="2:4">
@@ -9205,7 +9197,7 @@
         <v>44217</v>
       </c>
       <c r="D90" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="91" spans="2:4">
@@ -9216,7 +9208,7 @@
         <v>44165</v>
       </c>
       <c r="D91" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="92" spans="2:4">
@@ -9227,7 +9219,7 @@
         <v>44218</v>
       </c>
       <c r="D92" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="93" spans="2:4">
@@ -9238,7 +9230,7 @@
         <v>44220</v>
       </c>
       <c r="D93" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="94" spans="2:4">
@@ -9249,7 +9241,7 @@
         <v>44220</v>
       </c>
       <c r="D94" s="30" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="95" spans="2:4">
@@ -9260,7 +9252,7 @@
         <v>44220</v>
       </c>
       <c r="D95" s="30" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="96" spans="2:4">
@@ -9271,7 +9263,7 @@
         <v>44220</v>
       </c>
       <c r="D96" s="30" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="97" spans="2:4">
@@ -9282,7 +9274,7 @@
         <v>44220</v>
       </c>
       <c r="D97" s="30" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="98" spans="2:4">
@@ -9293,7 +9285,7 @@
         <v>44165</v>
       </c>
       <c r="D98" s="30" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="99" spans="2:4">
@@ -9304,7 +9296,7 @@
         <v>44214</v>
       </c>
       <c r="D99" s="30" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="100" spans="2:4">
@@ -9315,7 +9307,7 @@
         <v>44220</v>
       </c>
       <c r="D100" s="30" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="101" spans="2:4">
@@ -9326,7 +9318,7 @@
         <v>44221</v>
       </c>
       <c r="D101" s="30" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="102" spans="2:4">
@@ -9337,7 +9329,7 @@
         <v>44220</v>
       </c>
       <c r="D102" s="30" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="103" spans="2:4">
@@ -9348,7 +9340,7 @@
         <v>44220</v>
       </c>
       <c r="D103" s="30" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="104" spans="2:4">
@@ -9359,7 +9351,7 @@
         <v>44216</v>
       </c>
       <c r="D104" s="30" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="105" spans="2:4">
@@ -9367,10 +9359,10 @@
         <v>125</v>
       </c>
       <c r="C105" s="133">
-        <v>44224</v>
+        <v>44221</v>
       </c>
       <c r="D105" s="30" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="106" spans="2:4">
@@ -9381,7 +9373,7 @@
         <v>44215</v>
       </c>
       <c r="D106" s="30" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="107" spans="2:4">
@@ -9392,7 +9384,7 @@
         <v>44221</v>
       </c>
       <c r="D107" s="30" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="108" spans="2:4">
@@ -9403,7 +9395,7 @@
         <v>44213</v>
       </c>
       <c r="D108" s="30" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="109" spans="2:4" ht="14.25" thickBot="1">
@@ -9414,7 +9406,7 @@
         <v>44220</v>
       </c>
       <c r="D109" s="135" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="110" spans="2:4" ht="14.25" thickTop="1"/>
@@ -9423,6 +9415,26 @@
     <sortCondition ref="B85:B105"/>
   </sortState>
   <mergeCells count="34">
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="E39:E43"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F57:F60"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="E49:E52"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="E57:E60"/>
     <mergeCell ref="F62:F63"/>
     <mergeCell ref="B87:B88"/>
     <mergeCell ref="C82:D82"/>
@@ -9437,26 +9449,6 @@
     <mergeCell ref="E62:E63"/>
     <mergeCell ref="D87:D88"/>
     <mergeCell ref="B86:D86"/>
-    <mergeCell ref="F57:F60"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="E49:E52"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="D57:D60"/>
-    <mergeCell ref="E57:E60"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="E39:E43"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C17:D17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B6" location="Definitioner!B21" display="Riskfaktorer"/>
@@ -9478,7 +9470,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="30" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="30" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="9.33203125" style="30"/>
   </cols>
   <sheetData>
@@ -9492,7 +9484,7 @@
         <v>44069</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -9554,15 +9546,15 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="29.25" customHeight="1">
-      <c r="A2" s="271" t="s">
-        <v>242</v>
-      </c>
-      <c r="B2" s="271"/>
-      <c r="C2" s="271"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="271"/>
-      <c r="F2" s="271"/>
-      <c r="G2" s="271"/>
+      <c r="A2" s="272" t="s">
+        <v>285</v>
+      </c>
+      <c r="B2" s="272"/>
+      <c r="C2" s="272"/>
+      <c r="D2" s="272"/>
+      <c r="E2" s="272"/>
+      <c r="F2" s="272"/>
+      <c r="G2" s="272"/>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="76"/>
@@ -9593,29 +9585,29 @@
     </row>
     <row r="6" spans="1:22" ht="21.75" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="272" t="s">
+      <c r="B6" s="273" t="s">
         <v>178</v>
       </c>
-      <c r="C6" s="273"/>
-      <c r="D6" s="273"/>
-      <c r="E6" s="273"/>
-      <c r="F6" s="273"/>
-      <c r="G6" s="274"/>
+      <c r="C6" s="274"/>
+      <c r="D6" s="274"/>
+      <c r="E6" s="274"/>
+      <c r="F6" s="274"/>
+      <c r="G6" s="275"/>
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="58"/>
-      <c r="B7" s="280" t="s">
+      <c r="B7" s="281" t="s">
         <v>160</v>
       </c>
-      <c r="C7" s="280"/>
-      <c r="D7" s="278" t="s">
+      <c r="C7" s="281"/>
+      <c r="D7" s="279" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="279"/>
-      <c r="F7" s="277" t="s">
+      <c r="E7" s="280"/>
+      <c r="F7" s="278" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="277"/>
+      <c r="G7" s="278"/>
       <c r="V7" t="s">
         <v>110</v>
       </c>
@@ -9692,16 +9684,16 @@
         <v>214</v>
       </c>
       <c r="B11" s="34">
-        <v>33880</v>
+        <v>33881</v>
       </c>
       <c r="C11" s="119">
-        <v>78.033949800000002</v>
+        <v>78.036253099999996</v>
       </c>
       <c r="D11" s="34">
-        <v>18533</v>
+        <v>18534</v>
       </c>
       <c r="E11" s="54">
-        <v>76.386942500000004</v>
+        <v>76.391064200000002</v>
       </c>
       <c r="F11" s="34">
         <v>15347</v>
@@ -9715,43 +9707,43 @@
         <v>205</v>
       </c>
       <c r="B12" s="34">
-        <v>6664</v>
+        <v>6592</v>
       </c>
       <c r="C12" s="119">
-        <v>15.348826499999999</v>
+        <v>15.182992799999999</v>
       </c>
       <c r="D12" s="34">
-        <v>4066</v>
+        <v>4017</v>
       </c>
       <c r="E12" s="54">
-        <v>16.758717300000001</v>
+        <v>16.5567554</v>
       </c>
       <c r="F12" s="34">
-        <v>2598</v>
+        <v>2575</v>
       </c>
       <c r="G12" s="54">
-        <v>13.5630384</v>
+        <v>13.442965299999999</v>
       </c>
     </row>
     <row r="13" spans="1:22" s="30" customFormat="1">
       <c r="A13" s="17"/>
       <c r="B13" s="118">
-        <v>4314</v>
+        <v>4305</v>
       </c>
       <c r="C13" s="121">
-        <v>9.9362001000000006</v>
+        <v>9.9154709000000008</v>
       </c>
       <c r="D13" s="118">
-        <v>3082</v>
+        <v>3075</v>
       </c>
       <c r="E13" s="81">
-        <v>12.7029923</v>
+        <v>12.674140599999999</v>
       </c>
       <c r="F13" s="118">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="G13" s="82">
-        <v>6.4317411</v>
+        <v>6.4212999000000002</v>
       </c>
     </row>
     <row r="14" spans="1:22" s="30" customFormat="1">
@@ -10263,22 +10255,22 @@
         <v>133</v>
       </c>
       <c r="B36" s="29">
-        <v>2719</v>
+        <v>2702</v>
       </c>
       <c r="C36" s="119">
-        <v>6.2625238999999997</v>
+        <v>6.2233687</v>
       </c>
       <c r="D36" s="29">
-        <v>1281</v>
+        <v>1273</v>
       </c>
       <c r="E36" s="54">
-        <v>5.2798615</v>
+        <v>5.2468880999999996</v>
       </c>
       <c r="F36" s="60">
-        <v>1438</v>
+        <v>1429</v>
       </c>
       <c r="G36" s="54">
-        <v>7.5071782999999996</v>
+        <v>7.4601932</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="14.25" thickBot="1">
@@ -10286,56 +10278,56 @@
         <v>146</v>
       </c>
       <c r="B37" s="52">
-        <v>7901</v>
+        <v>7847</v>
       </c>
       <c r="C37" s="120">
-        <v>18.197940899999999</v>
+        <v>18.0735657</v>
       </c>
       <c r="D37" s="52">
-        <v>3581</v>
+        <v>3547</v>
       </c>
       <c r="E37" s="69">
-        <v>14.7597065</v>
+        <v>14.6195697</v>
       </c>
       <c r="F37" s="52">
-        <v>4320</v>
+        <v>4300</v>
       </c>
       <c r="G37" s="69">
-        <v>22.5528583</v>
+        <v>22.4484469</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="24" customHeight="1" thickTop="1">
-      <c r="A38" s="275" t="s">
+      <c r="A38" s="276" t="s">
         <v>182</v>
       </c>
-      <c r="B38" s="275"/>
-      <c r="C38" s="275"/>
-      <c r="D38" s="275"/>
-      <c r="E38" s="275"/>
-      <c r="F38" s="275"/>
-      <c r="G38" s="275"/>
+      <c r="B38" s="276"/>
+      <c r="C38" s="276"/>
+      <c r="D38" s="276"/>
+      <c r="E38" s="276"/>
+      <c r="F38" s="276"/>
+      <c r="G38" s="276"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="281" t="s">
+      <c r="A39" s="282" t="s">
         <v>177</v>
       </c>
-      <c r="B39" s="281"/>
-      <c r="C39" s="281"/>
-      <c r="D39" s="281"/>
-      <c r="E39" s="281"/>
-      <c r="F39" s="281"/>
-      <c r="G39" s="281"/>
+      <c r="B39" s="282"/>
+      <c r="C39" s="282"/>
+      <c r="D39" s="282"/>
+      <c r="E39" s="282"/>
+      <c r="F39" s="282"/>
+      <c r="G39" s="282"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="276" t="s">
+      <c r="A40" s="277" t="s">
         <v>129</v>
       </c>
-      <c r="B40" s="276"/>
-      <c r="C40" s="276"/>
-      <c r="D40" s="276"/>
-      <c r="E40" s="276"/>
-      <c r="F40" s="276"/>
-      <c r="G40" s="276"/>
+      <c r="B40" s="277"/>
+      <c r="C40" s="277"/>
+      <c r="D40" s="277"/>
+      <c r="E40" s="277"/>
+      <c r="F40" s="277"/>
+      <c r="G40" s="277"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="47"/>
@@ -10387,15 +10379,15 @@
       <c r="I1" s="30"/>
     </row>
     <row r="2" spans="1:9" ht="28.5" customHeight="1">
-      <c r="A2" s="282" t="s">
-        <v>241</v>
-      </c>
-      <c r="B2" s="282"/>
-      <c r="C2" s="282"/>
-      <c r="D2" s="282"/>
-      <c r="E2" s="282"/>
-      <c r="F2" s="282"/>
-      <c r="G2" s="282"/>
+      <c r="A2" s="283" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" s="283"/>
+      <c r="C2" s="283"/>
+      <c r="D2" s="283"/>
+      <c r="E2" s="283"/>
+      <c r="F2" s="283"/>
+      <c r="G2" s="283"/>
       <c r="H2" s="76"/>
       <c r="I2" s="76"/>
     </row>
@@ -10404,30 +10396,30 @@
     </row>
     <row r="5" spans="1:9" ht="13.5" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="284" t="s">
+      <c r="B5" s="285" t="s">
         <v>202</v>
       </c>
-      <c r="C5" s="285"/>
-      <c r="D5" s="284" t="s">
+      <c r="C5" s="286"/>
+      <c r="D5" s="285" t="s">
         <v>214</v>
       </c>
-      <c r="E5" s="285"/>
-      <c r="F5" s="284" t="s">
+      <c r="E5" s="286"/>
+      <c r="F5" s="285" t="s">
         <v>205</v>
       </c>
-      <c r="G5" s="285"/>
+      <c r="G5" s="286"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="286"/>
-      <c r="B6" s="279"/>
-      <c r="C6" s="278"/>
-      <c r="D6" s="279"/>
-      <c r="E6" s="278"/>
-      <c r="F6" s="279"/>
-      <c r="G6" s="278"/>
+      <c r="A6" s="287"/>
+      <c r="B6" s="280"/>
+      <c r="C6" s="279"/>
+      <c r="D6" s="280"/>
+      <c r="E6" s="279"/>
+      <c r="F6" s="280"/>
+      <c r="G6" s="279"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="287"/>
+      <c r="A7" s="288"/>
       <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
@@ -10458,16 +10450,16 @@
         <v>100</v>
       </c>
       <c r="D8" s="88">
-        <v>33880</v>
+        <v>33881</v>
       </c>
       <c r="E8" s="128">
-        <v>78.033949835317998</v>
+        <v>78.036253080590598</v>
       </c>
       <c r="F8" s="88">
-        <v>6664</v>
+        <v>6592</v>
       </c>
       <c r="G8" s="128">
-        <v>15.348826496533601</v>
+        <v>15.1829928369072</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -10510,10 +10502,10 @@
         <v>76.487856952228498</v>
       </c>
       <c r="F10" s="103">
-        <v>2388</v>
+        <v>2368</v>
       </c>
       <c r="G10" s="127">
-        <v>15.9327461969576</v>
+        <v>15.7993061115559</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -10533,10 +10525,10 @@
         <v>77.189109639440801</v>
       </c>
       <c r="F11" s="103">
-        <v>1103</v>
+        <v>1081</v>
       </c>
       <c r="G11" s="127">
-        <v>16.2325239146431</v>
+        <v>15.9087564385578</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -10556,10 +10548,10 @@
         <v>81.406283393887605</v>
       </c>
       <c r="F12" s="103">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="G12" s="127">
-        <v>15.345159222055999</v>
+        <v>15.238298781791</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -10579,10 +10571,10 @@
         <v>79.685393258426998</v>
       </c>
       <c r="F13" s="103">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G13" s="127">
-        <v>11.8202247191011</v>
+        <v>11.5955056179775</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -10602,10 +10594,10 @@
         <v>81.090909090909093</v>
       </c>
       <c r="F14" s="103">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G14" s="127">
-        <v>13.5151515151515</v>
+        <v>13.454545454545499</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -10619,16 +10611,16 @@
         <v>3.58845613469378</v>
       </c>
       <c r="D15" s="103">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="E15" s="127">
-        <v>80.423620025673998</v>
+        <v>80.487804878048806</v>
       </c>
       <c r="F15" s="103">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G15" s="127">
-        <v>16.1745827984596</v>
+        <v>15.982028241335</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -10648,10 +10640,10 @@
         <v>77.680965147453094</v>
       </c>
       <c r="F16" s="103">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G16" s="127">
-        <v>15.9517426273458</v>
+        <v>15.884718498659501</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -10694,10 +10686,10 @@
         <v>74.635332252836307</v>
       </c>
       <c r="F18" s="103">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G18" s="127">
-        <v>12.4797406807131</v>
+        <v>12.2366288492707</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -10717,10 +10709,10 @@
         <v>86.503067484662594</v>
       </c>
       <c r="F19" s="103">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G19" s="127">
-        <v>11.451942740286301</v>
+        <v>11.349693251533701</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -10763,10 +10755,10 @@
         <v>69.7175141242938</v>
       </c>
       <c r="F21" s="103">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G21" s="127">
-        <v>18.1920903954802</v>
+        <v>18.079096045197701</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -10786,10 +10778,10 @@
         <v>85.204755614266901</v>
       </c>
       <c r="F22" s="103">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G22" s="127">
-        <v>12.549537648612899</v>
+        <v>12.4174372523118</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -10809,10 +10801,10 @@
         <v>68.4722222222222</v>
       </c>
       <c r="F23" s="103">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G23" s="127">
-        <v>18.8888888888889</v>
+        <v>18.3333333333333</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -10832,10 +10824,10 @@
         <v>81.805359661495103</v>
       </c>
       <c r="F24" s="103">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G24" s="127">
-        <v>10.7193229901269</v>
+        <v>10.578279266572601</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -10855,10 +10847,10 @@
         <v>79.603399433427796</v>
       </c>
       <c r="F25" s="103">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G25" s="127">
-        <v>14.022662889518401</v>
+        <v>13.7393767705382</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -10878,10 +10870,10 @@
         <v>68.126888217522705</v>
       </c>
       <c r="F26" s="103">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G26" s="127">
-        <v>16.616314199395799</v>
+        <v>16.465256797583098</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -10909,7 +10901,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="30" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B28" s="92">
         <v>386</v>
@@ -10970,10 +10962,10 @@
         <v>69.523809523809504</v>
       </c>
       <c r="F30" s="150">
-        <v>14</v>
-      </c>
-      <c r="G30" s="228">
-        <v>13.3333333333333</v>
+        <v>13</v>
+      </c>
+      <c r="G30" s="149">
+        <v>12.380952380952399</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -10998,13 +10990,13 @@
       <c r="C33" s="80"/>
     </row>
     <row r="34" spans="1:7" ht="24.75" customHeight="1">
-      <c r="A34" s="283"/>
-      <c r="B34" s="283"/>
-      <c r="C34" s="283"/>
-      <c r="D34" s="283"/>
-      <c r="E34" s="283"/>
-      <c r="F34" s="283"/>
-      <c r="G34" s="283"/>
+      <c r="A34" s="284"/>
+      <c r="B34" s="284"/>
+      <c r="C34" s="284"/>
+      <c r="D34" s="284"/>
+      <c r="E34" s="284"/>
+      <c r="F34" s="284"/>
+      <c r="G34" s="284"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -11061,17 +11053,17 @@
       </c>
     </row>
     <row r="2" spans="1:97" ht="30" customHeight="1">
-      <c r="A2" s="271" t="s">
-        <v>239</v>
-      </c>
-      <c r="B2" s="271"/>
-      <c r="C2" s="271"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="271"/>
-      <c r="F2" s="271"/>
-      <c r="G2" s="271"/>
-      <c r="H2" s="271"/>
-      <c r="I2" s="271"/>
+      <c r="A2" s="272" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2" s="272"/>
+      <c r="C2" s="272"/>
+      <c r="D2" s="272"/>
+      <c r="E2" s="272"/>
+      <c r="F2" s="272"/>
+      <c r="G2" s="272"/>
+      <c r="H2" s="272"/>
+      <c r="I2" s="272"/>
     </row>
     <row r="3" spans="1:97">
       <c r="A3" s="61"/>
@@ -11092,304 +11084,304 @@
     </row>
     <row r="5" spans="1:97" ht="28.5" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="284" t="s">
+      <c r="B5" s="285" t="s">
         <v>202</v>
       </c>
-      <c r="C5" s="285"/>
-      <c r="D5" s="223" t="s">
+      <c r="C5" s="286"/>
+      <c r="D5" s="273" t="s">
         <v>193</v>
       </c>
-      <c r="E5" s="224"/>
-      <c r="F5" s="224"/>
-      <c r="G5" s="224"/>
-      <c r="H5" s="224"/>
-      <c r="I5" s="224"/>
-      <c r="J5" s="224"/>
-      <c r="K5" s="224"/>
-      <c r="L5" s="224"/>
-      <c r="M5" s="224"/>
-      <c r="N5" s="224"/>
-      <c r="O5" s="224"/>
-      <c r="P5" s="224"/>
-      <c r="Q5" s="224"/>
-      <c r="R5" s="224"/>
-      <c r="S5" s="224"/>
-      <c r="T5" s="224"/>
-      <c r="U5" s="224"/>
-      <c r="V5" s="224"/>
-      <c r="W5" s="224"/>
-      <c r="X5" s="224"/>
-      <c r="Y5" s="224"/>
-      <c r="Z5" s="224"/>
-      <c r="AA5" s="224"/>
-      <c r="AB5" s="224"/>
-      <c r="AC5" s="224"/>
-      <c r="AD5" s="224"/>
-      <c r="AE5" s="224"/>
-      <c r="AF5" s="224"/>
-      <c r="AG5" s="224"/>
-      <c r="AH5" s="224"/>
-      <c r="AI5" s="224"/>
-      <c r="AJ5" s="224"/>
-      <c r="AK5" s="224"/>
-      <c r="AL5" s="224"/>
-      <c r="AM5" s="224"/>
-      <c r="AN5" s="224"/>
-      <c r="AO5" s="224"/>
-      <c r="AP5" s="224"/>
-      <c r="AQ5" s="224"/>
-      <c r="AR5" s="224"/>
-      <c r="AS5" s="224"/>
-      <c r="AT5" s="224"/>
-      <c r="AU5" s="224"/>
-      <c r="AV5" s="224"/>
-      <c r="AW5" s="224"/>
-      <c r="AX5" s="224"/>
-      <c r="AY5" s="224"/>
-      <c r="AZ5" s="224"/>
-      <c r="BA5" s="224"/>
-      <c r="BB5" s="224"/>
-      <c r="BC5" s="224"/>
-      <c r="BD5" s="222"/>
-      <c r="BE5" s="222"/>
-      <c r="BF5" s="222"/>
-      <c r="BG5" s="222"/>
-      <c r="BH5" s="222"/>
-      <c r="BI5" s="222"/>
-      <c r="BJ5" s="222"/>
-      <c r="BK5" s="222"/>
-      <c r="BL5" s="222"/>
-      <c r="BM5" s="222"/>
-      <c r="BN5" s="222"/>
-      <c r="BO5" s="222"/>
-      <c r="BP5" s="222"/>
-      <c r="BQ5" s="222"/>
-      <c r="BR5" s="222"/>
-      <c r="BS5" s="222"/>
-      <c r="BT5" s="224"/>
-      <c r="BU5" s="224"/>
-      <c r="BV5" s="224"/>
-      <c r="BW5" s="224"/>
-      <c r="BX5" s="224"/>
-      <c r="BY5" s="224"/>
-      <c r="BZ5" s="224"/>
-      <c r="CA5" s="224"/>
-      <c r="CB5" s="224"/>
-      <c r="CC5" s="224"/>
-      <c r="CD5" s="224"/>
-      <c r="CE5" s="225"/>
-      <c r="CF5" s="290" t="s">
+      <c r="E5" s="274"/>
+      <c r="F5" s="274"/>
+      <c r="G5" s="274"/>
+      <c r="H5" s="274"/>
+      <c r="I5" s="274"/>
+      <c r="J5" s="274"/>
+      <c r="K5" s="274"/>
+      <c r="L5" s="274"/>
+      <c r="M5" s="274"/>
+      <c r="N5" s="274"/>
+      <c r="O5" s="274"/>
+      <c r="P5" s="274"/>
+      <c r="Q5" s="274"/>
+      <c r="R5" s="274"/>
+      <c r="S5" s="274"/>
+      <c r="T5" s="274"/>
+      <c r="U5" s="274"/>
+      <c r="V5" s="274"/>
+      <c r="W5" s="274"/>
+      <c r="X5" s="274"/>
+      <c r="Y5" s="274"/>
+      <c r="Z5" s="274"/>
+      <c r="AA5" s="274"/>
+      <c r="AB5" s="274"/>
+      <c r="AC5" s="274"/>
+      <c r="AD5" s="274"/>
+      <c r="AE5" s="274"/>
+      <c r="AF5" s="274"/>
+      <c r="AG5" s="274"/>
+      <c r="AH5" s="274"/>
+      <c r="AI5" s="274"/>
+      <c r="AJ5" s="274"/>
+      <c r="AK5" s="274"/>
+      <c r="AL5" s="274"/>
+      <c r="AM5" s="274"/>
+      <c r="AN5" s="274"/>
+      <c r="AO5" s="274"/>
+      <c r="AP5" s="274"/>
+      <c r="AQ5" s="274"/>
+      <c r="AR5" s="274"/>
+      <c r="AS5" s="274"/>
+      <c r="AT5" s="274"/>
+      <c r="AU5" s="274"/>
+      <c r="AV5" s="274"/>
+      <c r="AW5" s="274"/>
+      <c r="AX5" s="274"/>
+      <c r="AY5" s="274"/>
+      <c r="AZ5" s="274"/>
+      <c r="BA5" s="274"/>
+      <c r="BB5" s="274"/>
+      <c r="BC5" s="274"/>
+      <c r="BD5" s="274"/>
+      <c r="BE5" s="274"/>
+      <c r="BF5" s="274"/>
+      <c r="BG5" s="274"/>
+      <c r="BH5" s="274"/>
+      <c r="BI5" s="274"/>
+      <c r="BJ5" s="274"/>
+      <c r="BK5" s="274"/>
+      <c r="BL5" s="274"/>
+      <c r="BM5" s="274"/>
+      <c r="BN5" s="274"/>
+      <c r="BO5" s="274"/>
+      <c r="BP5" s="274"/>
+      <c r="BQ5" s="274"/>
+      <c r="BR5" s="274"/>
+      <c r="BS5" s="274"/>
+      <c r="BT5" s="274"/>
+      <c r="BU5" s="274"/>
+      <c r="BV5" s="274"/>
+      <c r="BW5" s="274"/>
+      <c r="BX5" s="274"/>
+      <c r="BY5" s="274"/>
+      <c r="BZ5" s="274"/>
+      <c r="CA5" s="274"/>
+      <c r="CB5" s="274"/>
+      <c r="CC5" s="274"/>
+      <c r="CD5" s="274"/>
+      <c r="CE5" s="300"/>
+      <c r="CF5" s="299" t="s">
         <v>194</v>
       </c>
-      <c r="CG5" s="273"/>
-      <c r="CH5" s="273"/>
-      <c r="CI5" s="273"/>
-      <c r="CJ5" s="273"/>
-      <c r="CK5" s="273"/>
-      <c r="CL5" s="273"/>
-      <c r="CM5" s="273"/>
-      <c r="CN5" s="273"/>
-      <c r="CO5" s="273"/>
-      <c r="CP5" s="273"/>
-      <c r="CQ5" s="273"/>
-      <c r="CR5" s="273"/>
-      <c r="CS5" s="273"/>
+      <c r="CG5" s="274"/>
+      <c r="CH5" s="274"/>
+      <c r="CI5" s="274"/>
+      <c r="CJ5" s="274"/>
+      <c r="CK5" s="274"/>
+      <c r="CL5" s="274"/>
+      <c r="CM5" s="274"/>
+      <c r="CN5" s="274"/>
+      <c r="CO5" s="274"/>
+      <c r="CP5" s="274"/>
+      <c r="CQ5" s="274"/>
+      <c r="CR5" s="274"/>
+      <c r="CS5" s="274"/>
     </row>
     <row r="6" spans="1:97" ht="13.5" customHeight="1">
-      <c r="A6" s="295"/>
-      <c r="B6" s="293"/>
-      <c r="C6" s="294"/>
-      <c r="D6" s="291" t="s">
+      <c r="A6" s="297"/>
+      <c r="B6" s="295"/>
+      <c r="C6" s="296"/>
+      <c r="D6" s="293" t="s">
         <v>195</v>
       </c>
       <c r="E6" s="292"/>
-      <c r="F6" s="291" t="s">
+      <c r="F6" s="293" t="s">
         <v>196</v>
       </c>
       <c r="G6" s="292"/>
-      <c r="H6" s="291" t="s">
+      <c r="H6" s="293" t="s">
         <v>191</v>
       </c>
       <c r="I6" s="292"/>
-      <c r="J6" s="291" t="s">
+      <c r="J6" s="293" t="s">
         <v>167</v>
       </c>
       <c r="K6" s="292"/>
-      <c r="L6" s="291" t="s">
+      <c r="L6" s="293" t="s">
         <v>168</v>
       </c>
       <c r="M6" s="292"/>
-      <c r="N6" s="291" t="s">
+      <c r="N6" s="293" t="s">
         <v>169</v>
       </c>
       <c r="O6" s="292"/>
-      <c r="P6" s="291" t="s">
+      <c r="P6" s="293" t="s">
         <v>170</v>
       </c>
       <c r="Q6" s="292"/>
-      <c r="R6" s="291" t="s">
+      <c r="R6" s="293" t="s">
         <v>171</v>
       </c>
       <c r="S6" s="292"/>
-      <c r="T6" s="291" t="s">
+      <c r="T6" s="293" t="s">
         <v>172</v>
       </c>
       <c r="U6" s="292"/>
-      <c r="V6" s="291" t="s">
+      <c r="V6" s="293" t="s">
         <v>173</v>
       </c>
       <c r="W6" s="292"/>
-      <c r="X6" s="291" t="s">
+      <c r="X6" s="293" t="s">
         <v>174</v>
       </c>
       <c r="Y6" s="292"/>
-      <c r="Z6" s="291" t="s">
+      <c r="Z6" s="293" t="s">
         <v>175</v>
       </c>
       <c r="AA6" s="292"/>
-      <c r="AB6" s="291" t="s">
+      <c r="AB6" s="293" t="s">
         <v>201</v>
       </c>
       <c r="AC6" s="292"/>
-      <c r="AD6" s="291" t="s">
+      <c r="AD6" s="293" t="s">
         <v>222</v>
       </c>
       <c r="AE6" s="292"/>
-      <c r="AF6" s="291" t="s">
+      <c r="AF6" s="293" t="s">
         <v>230</v>
       </c>
       <c r="AG6" s="292"/>
-      <c r="AH6" s="291" t="s">
+      <c r="AH6" s="293" t="s">
         <v>234</v>
       </c>
       <c r="AI6" s="292"/>
-      <c r="AJ6" s="291" t="s">
+      <c r="AJ6" s="293" t="s">
+        <v>240</v>
+      </c>
+      <c r="AK6" s="292"/>
+      <c r="AL6" s="293" t="s">
+        <v>241</v>
+      </c>
+      <c r="AM6" s="292"/>
+      <c r="AN6" s="293" t="s">
+        <v>242</v>
+      </c>
+      <c r="AO6" s="292"/>
+      <c r="AP6" s="293" t="s">
         <v>243</v>
       </c>
-      <c r="AK6" s="292"/>
-      <c r="AL6" s="291" t="s">
+      <c r="AQ6" s="292"/>
+      <c r="AR6" s="293" t="s">
         <v>244</v>
       </c>
-      <c r="AM6" s="292"/>
-      <c r="AN6" s="291" t="s">
+      <c r="AS6" s="292"/>
+      <c r="AT6" s="293" t="s">
         <v>245</v>
       </c>
-      <c r="AO6" s="292"/>
-      <c r="AP6" s="291" t="s">
+      <c r="AU6" s="292"/>
+      <c r="AV6" s="293" t="s">
         <v>246</v>
       </c>
-      <c r="AQ6" s="292"/>
-      <c r="AR6" s="291" t="s">
+      <c r="AW6" s="292"/>
+      <c r="AX6" s="293" t="s">
         <v>247</v>
       </c>
-      <c r="AS6" s="292"/>
-      <c r="AT6" s="291" t="s">
+      <c r="AY6" s="292"/>
+      <c r="AZ6" s="293" t="s">
         <v>248</v>
       </c>
-      <c r="AU6" s="292"/>
-      <c r="AV6" s="291" t="s">
-        <v>249</v>
-      </c>
-      <c r="AW6" s="292"/>
-      <c r="AX6" s="291" t="s">
+      <c r="BA6" s="294"/>
+      <c r="BB6" s="289" t="s">
         <v>250</v>
       </c>
-      <c r="AY6" s="292"/>
-      <c r="AZ6" s="291" t="s">
+      <c r="BC6" s="298"/>
+      <c r="BD6" s="289" t="s">
         <v>251</v>
       </c>
-      <c r="BA6" s="297"/>
-      <c r="BB6" s="288" t="s">
+      <c r="BE6" s="290"/>
+      <c r="BF6" s="289" t="s">
+        <v>252</v>
+      </c>
+      <c r="BG6" s="290"/>
+      <c r="BH6" s="289" t="s">
+        <v>254</v>
+      </c>
+      <c r="BI6" s="290"/>
+      <c r="BJ6" s="289" t="s">
         <v>253</v>
       </c>
-      <c r="BC6" s="296"/>
-      <c r="BD6" s="288" t="s">
-        <v>254</v>
-      </c>
-      <c r="BE6" s="289"/>
-      <c r="BF6" s="288" t="s">
+      <c r="BK6" s="290"/>
+      <c r="BL6" s="289" t="s">
         <v>255</v>
       </c>
-      <c r="BG6" s="289"/>
-      <c r="BH6" s="288" t="s">
-        <v>257</v>
-      </c>
-      <c r="BI6" s="289"/>
-      <c r="BJ6" s="288" t="s">
-        <v>256</v>
-      </c>
-      <c r="BK6" s="289"/>
-      <c r="BL6" s="288" t="s">
+      <c r="BM6" s="290"/>
+      <c r="BN6" s="289" t="s">
         <v>258</v>
       </c>
-      <c r="BM6" s="289"/>
-      <c r="BN6" s="288" t="s">
+      <c r="BO6" s="290"/>
+      <c r="BP6" s="289" t="s">
+        <v>259</v>
+      </c>
+      <c r="BQ6" s="290"/>
+      <c r="BR6" s="289" t="s">
+        <v>265</v>
+      </c>
+      <c r="BS6" s="290"/>
+      <c r="BT6" s="289" t="s">
+        <v>264</v>
+      </c>
+      <c r="BU6" s="290"/>
+      <c r="BV6" s="289" t="s">
+        <v>263</v>
+      </c>
+      <c r="BW6" s="290"/>
+      <c r="BX6" s="289" t="s">
+        <v>262</v>
+      </c>
+      <c r="BY6" s="290"/>
+      <c r="BZ6" s="289" t="s">
         <v>261</v>
       </c>
-      <c r="BO6" s="289"/>
-      <c r="BP6" s="288" t="s">
-        <v>262</v>
-      </c>
-      <c r="BQ6" s="289"/>
-      <c r="BR6" s="288" t="s">
+      <c r="CA6" s="290"/>
+      <c r="CB6" s="289" t="s">
+        <v>260</v>
+      </c>
+      <c r="CC6" s="290"/>
+      <c r="CD6" s="289" t="s">
+        <v>267</v>
+      </c>
+      <c r="CE6" s="290"/>
+      <c r="CF6" s="289" t="s">
+        <v>266</v>
+      </c>
+      <c r="CG6" s="290"/>
+      <c r="CH6" s="289" t="s">
         <v>268</v>
       </c>
-      <c r="BS6" s="289"/>
-      <c r="BT6" s="288" t="s">
-        <v>267</v>
-      </c>
-      <c r="BU6" s="289"/>
-      <c r="BV6" s="288" t="s">
-        <v>266</v>
-      </c>
-      <c r="BW6" s="289"/>
-      <c r="BX6" s="288" t="s">
-        <v>265</v>
-      </c>
-      <c r="BY6" s="289"/>
-      <c r="BZ6" s="288" t="s">
-        <v>264</v>
-      </c>
-      <c r="CA6" s="289"/>
-      <c r="CB6" s="288" t="s">
-        <v>263</v>
-      </c>
-      <c r="CC6" s="289"/>
-      <c r="CD6" s="288" t="s">
+      <c r="CI6" s="290"/>
+      <c r="CJ6" s="289" t="s">
+        <v>269</v>
+      </c>
+      <c r="CK6" s="290"/>
+      <c r="CL6" s="289" t="s">
         <v>270</v>
       </c>
-      <c r="CE6" s="289"/>
-      <c r="CF6" s="288" t="s">
-        <v>269</v>
-      </c>
-      <c r="CG6" s="289"/>
-      <c r="CH6" s="288" t="s">
-        <v>271</v>
-      </c>
-      <c r="CI6" s="289"/>
-      <c r="CJ6" s="288" t="s">
-        <v>272</v>
-      </c>
-      <c r="CK6" s="289"/>
-      <c r="CL6" s="288" t="s">
-        <v>273</v>
-      </c>
-      <c r="CM6" s="289"/>
-      <c r="CN6" s="288" t="s">
-        <v>274</v>
-      </c>
-      <c r="CO6" s="289"/>
-      <c r="CP6" s="288" t="s">
-        <v>275</v>
-      </c>
-      <c r="CQ6" s="289"/>
-      <c r="CR6" s="288" t="s">
-        <v>276</v>
-      </c>
-      <c r="CS6" s="289"/>
+      <c r="CM6" s="290"/>
+      <c r="CN6" s="291" t="s">
+        <v>280</v>
+      </c>
+      <c r="CO6" s="292"/>
+      <c r="CP6" s="291" t="s">
+        <v>281</v>
+      </c>
+      <c r="CQ6" s="292"/>
+      <c r="CR6" s="291" t="s">
+        <v>282</v>
+      </c>
+      <c r="CS6" s="292"/>
     </row>
     <row r="7" spans="1:97">
-      <c r="A7" s="295"/>
+      <c r="A7" s="297"/>
       <c r="B7" s="191" t="s">
         <v>5</v>
       </c>
@@ -11959,13 +11951,13 @@
       <c r="CO8" s="163">
         <v>3.7105281341410099</v>
       </c>
-      <c r="CP8" s="164">
+      <c r="CP8" s="163">
         <v>1049</v>
       </c>
       <c r="CQ8" s="163">
         <v>2.41610429094594</v>
       </c>
-      <c r="CR8" s="164">
+      <c r="CR8" s="163">
         <v>267</v>
       </c>
       <c r="CS8" s="163">
@@ -12069,9 +12061,13 @@
       <c r="CN9" s="65"/>
       <c r="CO9" s="169"/>
       <c r="CP9" s="65"/>
-      <c r="CQ9" s="169"/>
+      <c r="CQ9" s="169" t="s">
+        <v>110</v>
+      </c>
       <c r="CR9" s="65"/>
-      <c r="CS9" s="169"/>
+      <c r="CS9" s="169" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="10" spans="1:97">
       <c r="A10" s="68" t="s">
@@ -12670,7 +12666,7 @@
         <v>10.7768846304443</v>
       </c>
       <c r="D12" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="E12" s="163" t="s">
         <v>110</v>
@@ -12946,7 +12942,7 @@
         <v>3.7401154092754898</v>
       </c>
       <c r="CR12" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="CS12" s="163" t="s">
         <v>110</v>
@@ -13101,7 +13097,7 @@
         <v>0.17977528089888001</v>
       </c>
       <c r="AX13" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AY13" s="163" t="s">
         <v>110</v>
@@ -13119,7 +13115,7 @@
         <v>0.35955056179775002</v>
       </c>
       <c r="BD13" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BE13" s="163" t="s">
         <v>110</v>
@@ -13256,7 +13252,7 @@
         <v>2.9527604394592002</v>
       </c>
       <c r="D14" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="E14" s="163" t="s">
         <v>110</v>
@@ -13376,13 +13372,13 @@
         <v>0.54602184087364003</v>
       </c>
       <c r="AR14" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AS14" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AT14" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AU14" s="163" t="s">
         <v>110</v>
@@ -13394,19 +13390,19 @@
         <v>0</v>
       </c>
       <c r="AX14" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AY14" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AZ14" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BA14" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BB14" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BC14" s="163" t="s">
         <v>110</v>
@@ -13418,31 +13414,31 @@
         <v>0</v>
       </c>
       <c r="BF14" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BG14" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BH14" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BI14" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BJ14" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BK14" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BL14" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BM14" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BN14" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BO14" s="163" t="s">
         <v>110</v>
@@ -13532,7 +13528,7 @@
         <v>2.3400936037441502</v>
       </c>
       <c r="CR14" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="CS14" s="163" t="s">
         <v>110</v>
@@ -13549,7 +13545,7 @@
         <v>3.8003546997719799</v>
       </c>
       <c r="D15" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="E15" s="163" t="s">
         <v>110</v>
@@ -13693,13 +13689,13 @@
         <v>0.42424242424241998</v>
       </c>
       <c r="AZ15" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BA15" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BB15" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BC15" s="163" t="s">
         <v>110</v>
@@ -13717,19 +13713,19 @@
         <v>0.36363636363635998</v>
       </c>
       <c r="BH15" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BI15" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BJ15" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BK15" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BL15" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BM15" s="163" t="s">
         <v>110</v>
@@ -14010,7 +14006,7 @@
         <v>0.70603337612324002</v>
       </c>
       <c r="BH16" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BI16" s="163" t="s">
         <v>110</v>
@@ -14118,7 +14114,7 @@
         <v>1.5404364569961499</v>
       </c>
       <c r="CR16" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="CS16" s="163" t="s">
         <v>110</v>
@@ -14135,7 +14131,7 @@
         <v>3.4364419467028999</v>
       </c>
       <c r="D17" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="E17" s="163" t="s">
         <v>110</v>
@@ -14243,25 +14239,25 @@
         <v>0.73726541554960001</v>
       </c>
       <c r="AN17" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AO17" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AP17" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AQ17" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AR17" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AS17" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AT17" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AU17" s="163" t="s">
         <v>110</v>
@@ -14279,13 +14275,13 @@
         <v>0.26809651474530999</v>
       </c>
       <c r="AZ17" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BA17" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BB17" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BC17" s="163" t="s">
         <v>110</v>
@@ -14303,7 +14299,7 @@
         <v>0.26809651474530999</v>
       </c>
       <c r="BH17" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BI17" s="163" t="s">
         <v>110</v>
@@ -14411,7 +14407,7 @@
         <v>1.27345844504021</v>
       </c>
       <c r="CR17" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="CS17" s="163" t="s">
         <v>110</v>
@@ -14434,7 +14430,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="G18" s="163" t="s">
         <v>110</v>
@@ -14578,7 +14574,7 @@
         <v>0.64829821717989999</v>
       </c>
       <c r="BB18" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BC18" s="163" t="s">
         <v>110</v>
@@ -14590,13 +14586,13 @@
         <v>0.40518638573743998</v>
       </c>
       <c r="BF18" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BG18" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BH18" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BI18" s="163" t="s">
         <v>110</v>
@@ -14704,7 +14700,7 @@
         <v>1.53970826580227</v>
       </c>
       <c r="CR18" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="CS18" s="163" t="s">
         <v>110</v>
@@ -14727,7 +14723,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="G19" s="163" t="s">
         <v>110</v>
@@ -14907,7 +14903,7 @@
         <v>0.70521861777150996</v>
       </c>
       <c r="BN19" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BO19" s="163" t="s">
         <v>110</v>
@@ -14954,53 +14950,53 @@
       <c r="CC19" s="163">
         <v>1.69252468265162</v>
       </c>
-      <c r="CD19" s="164">
-        <v>0</v>
-      </c>
-      <c r="CE19" s="163">
-        <v>0</v>
+      <c r="CD19" s="226" t="s">
+        <v>272</v>
+      </c>
+      <c r="CE19" s="227" t="s">
+        <v>273</v>
       </c>
       <c r="CF19" s="226" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="CG19" s="227" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="CH19" s="226" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="CI19" s="227" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="CJ19" s="226" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="CK19" s="227" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="CL19" s="226" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="CM19" s="227" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="CN19" s="226" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="CO19" s="227" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="CP19" s="226" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="CQ19" s="227" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="CR19" s="226" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="CS19" s="227" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:97">
@@ -15014,13 +15010,13 @@
         <v>2.2525738765921202</v>
       </c>
       <c r="D20" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="E20" s="163" t="s">
         <v>110</v>
       </c>
       <c r="F20" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="G20" s="163" t="s">
         <v>110</v>
@@ -15122,19 +15118,19 @@
         <v>0.71574642126789001</v>
       </c>
       <c r="AN20" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AO20" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AP20" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AQ20" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AR20" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AS20" s="163" t="s">
         <v>110</v>
@@ -15146,37 +15142,37 @@
         <v>0.40899795501023001</v>
       </c>
       <c r="AV20" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AW20" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AX20" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AY20" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AZ20" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BA20" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BB20" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BC20" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BD20" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BE20" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BF20" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BG20" s="163" t="s">
         <v>110</v>
@@ -15188,7 +15184,7 @@
         <v>0.40899795501023001</v>
       </c>
       <c r="BJ20" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BK20" s="163" t="s">
         <v>110</v>
@@ -15289,11 +15285,11 @@
       <c r="CQ20" s="163">
         <v>0.81799591002045002</v>
       </c>
-      <c r="CR20" s="164">
-        <v>0</v>
-      </c>
-      <c r="CS20" s="163">
-        <v>0</v>
+      <c r="CR20" s="226" t="s">
+        <v>272</v>
+      </c>
+      <c r="CS20" s="227" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:97">
@@ -15307,7 +15303,7 @@
         <v>2.03837206624133</v>
       </c>
       <c r="D21" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="E21" s="163" t="s">
         <v>110</v>
@@ -15421,7 +15417,7 @@
         <v>1.1299435028248599</v>
       </c>
       <c r="AP21" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AQ21" s="163" t="s">
         <v>110</v>
@@ -15433,25 +15429,25 @@
         <v>0.45197740112994</v>
       </c>
       <c r="AT21" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AU21" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AV21" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AW21" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AX21" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AY21" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AZ21" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BA21" s="163" t="s">
         <v>110</v>
@@ -15463,7 +15459,7 @@
         <v>1.0169491525423699</v>
       </c>
       <c r="BD21" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BE21" s="163" t="s">
         <v>110</v>
@@ -15606,7 +15602,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="G22" s="163" t="s">
         <v>110</v>
@@ -15750,13 +15746,13 @@
         <v>0.89086859688195996</v>
       </c>
       <c r="BB22" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BC22" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BD22" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BE22" s="163" t="s">
         <v>110</v>
@@ -15792,7 +15788,7 @@
         <v>0.89086859688195996</v>
       </c>
       <c r="BP22" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BQ22" s="163" t="s">
         <v>110</v>
@@ -15804,7 +15800,7 @@
         <v>0.44543429844097998</v>
       </c>
       <c r="BT22" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BU22" s="163" t="s">
         <v>110</v>
@@ -15876,7 +15872,7 @@
         <v>1.67037861915368</v>
       </c>
       <c r="CR22" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="CS22" s="163" t="s">
         <v>110</v>
@@ -15893,7 +15889,7 @@
         <v>1.5247483704539699</v>
       </c>
       <c r="D23" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="E23" s="163" t="s">
         <v>110</v>
@@ -16007,13 +16003,13 @@
         <v>1.5105740181268901</v>
       </c>
       <c r="AP23" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AQ23" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AR23" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AS23" s="163" t="s">
         <v>110</v>
@@ -16025,7 +16021,7 @@
         <v>0</v>
       </c>
       <c r="AV23" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AW23" s="163" t="s">
         <v>110</v>
@@ -16037,7 +16033,7 @@
         <v>0.75528700906344004</v>
       </c>
       <c r="AZ23" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BA23" s="163" t="s">
         <v>110</v>
@@ -16055,19 +16051,19 @@
         <v>0.75528700906344004</v>
       </c>
       <c r="BF23" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BG23" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BH23" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BI23" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BJ23" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BK23" s="163" t="s">
         <v>110</v>
@@ -16079,19 +16075,19 @@
         <v>1.0574018126888201</v>
       </c>
       <c r="BN23" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BO23" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BP23" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BQ23" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BR23" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BS23" s="163" t="s">
         <v>110</v>
@@ -16169,7 +16165,7 @@
         <v>1.5105740181268901</v>
       </c>
       <c r="CR23" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="CS23" s="163" t="s">
         <v>110</v>
@@ -16192,7 +16188,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="G24" s="163" t="s">
         <v>110</v>
@@ -16294,25 +16290,25 @@
         <v>0.79260237780713005</v>
       </c>
       <c r="AN24" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AO24" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AP24" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AQ24" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AR24" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AS24" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AT24" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AU24" s="163" t="s">
         <v>110</v>
@@ -16324,13 +16320,13 @@
         <v>0.52840158520475999</v>
       </c>
       <c r="AX24" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AY24" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AZ24" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BA24" s="163" t="s">
         <v>110</v>
@@ -16348,7 +16344,7 @@
         <v>0.52840158520475999</v>
       </c>
       <c r="BF24" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BG24" s="163" t="s">
         <v>110</v>
@@ -16485,7 +16481,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="G25" s="163" t="s">
         <v>110</v>
@@ -16599,25 +16595,25 @@
         <v>0.70821529745042999</v>
       </c>
       <c r="AR25" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AS25" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AT25" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AU25" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AV25" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AW25" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AX25" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AY25" s="163" t="s">
         <v>110</v>
@@ -16635,19 +16631,19 @@
         <v>0.70821529745042999</v>
       </c>
       <c r="BD25" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BE25" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BF25" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BG25" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BH25" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BI25" s="163" t="s">
         <v>110</v>
@@ -16659,19 +16655,19 @@
         <v>0</v>
       </c>
       <c r="BL25" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BM25" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BN25" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BO25" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BP25" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BQ25" s="163" t="s">
         <v>110</v>
@@ -16796,7 +16792,7 @@
         <v>0.97222222222221999</v>
       </c>
       <c r="L26" s="79" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="M26" s="163" t="s">
         <v>110</v>
@@ -16880,19 +16876,19 @@
         <v>0.69444444444443998</v>
       </c>
       <c r="AN26" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AO26" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AP26" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AQ26" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AR26" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AS26" s="163" t="s">
         <v>110</v>
@@ -16904,7 +16900,7 @@
         <v>1.1111111111111101</v>
       </c>
       <c r="AV26" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AW26" s="163" t="s">
         <v>110</v>
@@ -16916,7 +16912,7 @@
         <v>0.55555555555556002</v>
       </c>
       <c r="AZ26" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BA26" s="163" t="s">
         <v>110</v>
@@ -16928,7 +16924,7 @@
         <v>0</v>
       </c>
       <c r="BD26" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BE26" s="163" t="s">
         <v>110</v>
@@ -16952,7 +16948,7 @@
         <v>0.97222222222221999</v>
       </c>
       <c r="BL26" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BM26" s="163" t="s">
         <v>110</v>
@@ -17173,13 +17169,13 @@
         <v>2.3489932885906</v>
       </c>
       <c r="AN27" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AO27" s="163" t="s">
         <v>110</v>
       </c>
       <c r="AP27" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AQ27" s="163" t="s">
         <v>110</v>
@@ -17191,7 +17187,7 @@
         <v>1.34228187919463</v>
       </c>
       <c r="AT27" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AU27" s="163" t="s">
         <v>110</v>
@@ -17209,19 +17205,19 @@
         <v>0</v>
       </c>
       <c r="AZ27" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BA27" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BB27" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BC27" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BD27" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BE27" s="163" t="s">
         <v>110</v>
@@ -17233,31 +17229,31 @@
         <v>0</v>
       </c>
       <c r="BH27" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BI27" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BJ27" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BK27" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BL27" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BM27" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BN27" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BO27" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BP27" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BQ27" s="163" t="s">
         <v>110</v>
@@ -17269,13 +17265,13 @@
         <v>1.6778523489932899</v>
       </c>
       <c r="BT27" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BU27" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BV27" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BW27" s="163" t="s">
         <v>110</v>
@@ -17364,7 +17360,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="G28" s="163" t="s">
         <v>110</v>
@@ -17412,7 +17408,7 @@
         <v>1.9512195121951199</v>
       </c>
       <c r="V28" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="W28" s="163" t="s">
         <v>110</v>
@@ -17430,7 +17426,7 @@
         <v>1.7073170731707299</v>
       </c>
       <c r="AB28" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AC28" s="163" t="s">
         <v>110</v>
@@ -17472,7 +17468,7 @@
         <v>0.97560975609755995</v>
       </c>
       <c r="AP28" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AQ28" s="163" t="s">
         <v>110</v>
@@ -17484,7 +17480,7 @@
         <v>0</v>
       </c>
       <c r="AT28" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AU28" s="163" t="s">
         <v>110</v>
@@ -17508,7 +17504,7 @@
         <v>0</v>
       </c>
       <c r="BB28" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BC28" s="163" t="s">
         <v>110</v>
@@ -17520,31 +17516,31 @@
         <v>0</v>
       </c>
       <c r="BF28" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BG28" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BH28" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BI28" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BJ28" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BK28" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BL28" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BM28" s="163" t="s">
         <v>110</v>
       </c>
       <c r="BN28" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BO28" s="163" t="s">
         <v>110</v>
@@ -17556,7 +17552,7 @@
         <v>0.97560975609755995</v>
       </c>
       <c r="BR28" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BS28" s="163" t="s">
         <v>110</v>
@@ -17642,7 +17638,7 @@
     </row>
     <row r="29" spans="1:97">
       <c r="A29" s="153" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B29" s="78">
         <v>386</v>
@@ -17681,25 +17677,25 @@
         <v>1.2953367875647701</v>
       </c>
       <c r="N29" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="O29" s="163" t="s">
         <v>110</v>
       </c>
       <c r="P29" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="Q29" s="163" t="s">
         <v>110</v>
       </c>
       <c r="R29" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="S29" s="163" t="s">
         <v>110</v>
       </c>
       <c r="T29" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="U29" s="163" t="s">
         <v>110</v>
@@ -17747,7 +17743,7 @@
         <v>3.3678756476683902</v>
       </c>
       <c r="AJ29" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AK29" s="163" t="s">
         <v>110</v>
@@ -17759,7 +17755,7 @@
         <v>1.2953367875647701</v>
       </c>
       <c r="AN29" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AO29" s="163" t="s">
         <v>110</v>
@@ -17771,7 +17767,7 @@
         <v>1.03626943005181</v>
       </c>
       <c r="AR29" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AS29" s="163" t="s">
         <v>110</v>
@@ -17783,7 +17779,7 @@
         <v>1.2953367875647701</v>
       </c>
       <c r="AV29" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AW29" s="163" t="s">
         <v>110</v>
@@ -17807,7 +17803,7 @@
         <v>0</v>
       </c>
       <c r="BD29" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BE29" s="163" t="s">
         <v>110</v>
@@ -17819,7 +17815,7 @@
         <v>0</v>
       </c>
       <c r="BH29" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BI29" s="163" t="s">
         <v>110</v>
@@ -17843,7 +17839,7 @@
         <v>1.03626943005181</v>
       </c>
       <c r="BP29" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BQ29" s="163" t="s">
         <v>110</v>
@@ -17927,7 +17923,7 @@
         <v>6.4766839378238403</v>
       </c>
       <c r="CR29" s="164" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="CS29" s="163" t="s">
         <v>110</v>
@@ -17956,13 +17952,13 @@
         <v>0</v>
       </c>
       <c r="H30" s="158" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="I30" s="154" t="s">
         <v>110</v>
       </c>
       <c r="J30" s="155" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="K30" s="154" t="s">
         <v>110</v>
@@ -17974,13 +17970,13 @@
         <v>0</v>
       </c>
       <c r="N30" s="155" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="O30" s="154" t="s">
         <v>110</v>
       </c>
       <c r="P30" s="155" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="Q30" s="154" t="s">
         <v>110</v>
@@ -17992,7 +17988,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="155" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="U30" s="154" t="s">
         <v>110</v>
@@ -18004,31 +18000,31 @@
         <v>0</v>
       </c>
       <c r="X30" s="155" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="Y30" s="154" t="s">
         <v>110</v>
       </c>
       <c r="Z30" s="155" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AA30" s="154" t="s">
         <v>110</v>
       </c>
       <c r="AB30" s="155" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AC30" s="154" t="s">
         <v>110</v>
       </c>
       <c r="AD30" s="155" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AE30" s="154" t="s">
         <v>110</v>
       </c>
       <c r="AF30" s="155" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AG30" s="154" t="s">
         <v>110</v>
@@ -18040,7 +18036,7 @@
         <v>0</v>
       </c>
       <c r="AJ30" s="155" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AK30" s="154" t="s">
         <v>110</v>
@@ -18052,7 +18048,7 @@
         <v>0</v>
       </c>
       <c r="AN30" s="155" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AO30" s="154" t="s">
         <v>110</v>
@@ -18064,7 +18060,7 @@
         <v>0</v>
       </c>
       <c r="AR30" s="155" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AS30" s="154" t="s">
         <v>110</v>
@@ -18082,13 +18078,13 @@
         <v>0</v>
       </c>
       <c r="AX30" s="155" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AY30" s="154" t="s">
         <v>110</v>
       </c>
       <c r="AZ30" s="155" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BA30" s="154" t="s">
         <v>110</v>
@@ -18100,7 +18096,7 @@
         <v>0</v>
       </c>
       <c r="BD30" s="155" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BE30" s="154" t="s">
         <v>110</v>
@@ -18112,7 +18108,7 @@
         <v>0</v>
       </c>
       <c r="BH30" s="155" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BI30" s="154" t="s">
         <v>110</v>
@@ -18130,25 +18126,25 @@
         <v>0</v>
       </c>
       <c r="BN30" s="155" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BO30" s="154" t="s">
         <v>110</v>
       </c>
       <c r="BP30" s="155" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BQ30" s="154" t="s">
         <v>110</v>
       </c>
       <c r="BR30" s="155" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BS30" s="154" t="s">
         <v>110</v>
       </c>
       <c r="BT30" s="155" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BU30" s="154" t="s">
         <v>110</v>
@@ -18156,19 +18152,19 @@
       <c r="BV30" s="155">
         <v>11</v>
       </c>
-      <c r="BW30" s="154">
+      <c r="BW30" s="225">
         <v>10.476190476190499</v>
       </c>
       <c r="BX30" s="155">
         <v>23</v>
       </c>
-      <c r="BY30" s="154">
+      <c r="BY30" s="225">
         <v>21.904761904761902</v>
       </c>
       <c r="BZ30" s="155">
         <v>15</v>
       </c>
-      <c r="CA30" s="154">
+      <c r="CA30" s="225">
         <v>14.285714285714301</v>
       </c>
       <c r="CB30" s="155">
@@ -18177,53 +18173,53 @@
       <c r="CC30" s="154">
         <v>20</v>
       </c>
-      <c r="CD30" s="155">
-        <v>21</v>
-      </c>
-      <c r="CE30" s="154">
-        <v>20</v>
+      <c r="CD30" s="155" t="s">
+        <v>272</v>
+      </c>
+      <c r="CE30" s="154" t="s">
+        <v>273</v>
       </c>
       <c r="CF30" s="155" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="CG30" s="154" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="CH30" s="155" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="CI30" s="154" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="CJ30" s="155" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="CK30" s="154" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="CL30" s="155" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="CM30" s="154" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="CN30" s="155" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="CO30" s="154" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="CP30" s="155" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="CQ30" s="154" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="CR30" s="155" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="CS30" s="154" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31" spans="1:97" ht="15.75" customHeight="1" thickTop="1">
@@ -18338,24 +18334,28 @@
       <c r="A37" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="AN6:AO6"/>
-    <mergeCell ref="AL6:AM6"/>
-    <mergeCell ref="AJ6:AK6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="H6:I6"/>
+  <mergeCells count="52">
+    <mergeCell ref="CP6:CQ6"/>
+    <mergeCell ref="CR6:CS6"/>
+    <mergeCell ref="CF5:CS5"/>
+    <mergeCell ref="D5:CE5"/>
+    <mergeCell ref="CJ6:CK6"/>
+    <mergeCell ref="BX6:BY6"/>
+    <mergeCell ref="BZ6:CA6"/>
+    <mergeCell ref="CB6:CC6"/>
+    <mergeCell ref="BV6:BW6"/>
+    <mergeCell ref="BN6:BO6"/>
+    <mergeCell ref="CD6:CE6"/>
+    <mergeCell ref="CF6:CG6"/>
+    <mergeCell ref="CH6:CI6"/>
+    <mergeCell ref="BJ6:BK6"/>
+    <mergeCell ref="BL6:BM6"/>
+    <mergeCell ref="BP6:BQ6"/>
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="R6:S6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="BR6:BS6"/>
+    <mergeCell ref="BT6:BU6"/>
     <mergeCell ref="AT6:AU6"/>
     <mergeCell ref="Z6:AA6"/>
     <mergeCell ref="AH6:AI6"/>
@@ -18365,31 +18365,28 @@
     <mergeCell ref="AF6:AG6"/>
     <mergeCell ref="AD6:AE6"/>
     <mergeCell ref="BB6:BC6"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="CL6:CM6"/>
+    <mergeCell ref="CN6:CO6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
     <mergeCell ref="AV6:AW6"/>
+    <mergeCell ref="T6:U6"/>
     <mergeCell ref="AZ6:BA6"/>
     <mergeCell ref="AR6:AS6"/>
     <mergeCell ref="AP6:AQ6"/>
     <mergeCell ref="AX6:AY6"/>
     <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="BJ6:BK6"/>
-    <mergeCell ref="BL6:BM6"/>
-    <mergeCell ref="BP6:BQ6"/>
-    <mergeCell ref="BR6:BS6"/>
-    <mergeCell ref="BT6:BU6"/>
-    <mergeCell ref="BV6:BW6"/>
-    <mergeCell ref="BN6:BO6"/>
-    <mergeCell ref="CD6:CE6"/>
-    <mergeCell ref="CF6:CG6"/>
-    <mergeCell ref="CH6:CI6"/>
-    <mergeCell ref="CP6:CQ6"/>
-    <mergeCell ref="CR6:CS6"/>
-    <mergeCell ref="CF5:CS5"/>
-    <mergeCell ref="CJ6:CK6"/>
-    <mergeCell ref="BX6:BY6"/>
-    <mergeCell ref="BZ6:CA6"/>
-    <mergeCell ref="CB6:CC6"/>
-    <mergeCell ref="CL6:CM6"/>
-    <mergeCell ref="CN6:CO6"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="AN6:AO6"/>
+    <mergeCell ref="AL6:AM6"/>
+    <mergeCell ref="AJ6:AK6"/>
+    <mergeCell ref="V6:W6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18474,15 +18471,15 @@
       </c>
     </row>
     <row r="2" spans="1:95" ht="46.5" customHeight="1">
-      <c r="A2" s="282" t="s">
-        <v>240</v>
-      </c>
-      <c r="B2" s="282"/>
-      <c r="C2" s="282"/>
-      <c r="D2" s="282"/>
-      <c r="E2" s="282"/>
-      <c r="F2" s="282"/>
-      <c r="G2" s="282"/>
+      <c r="A2" s="283" t="s">
+        <v>283</v>
+      </c>
+      <c r="B2" s="283"/>
+      <c r="C2" s="283"/>
+      <c r="D2" s="283"/>
+      <c r="E2" s="283"/>
+      <c r="F2" s="283"/>
+      <c r="G2" s="283"/>
       <c r="BC2" s="30"/>
       <c r="BD2" s="193"/>
       <c r="BE2" s="30"/>
@@ -18521,62 +18518,62 @@
     </row>
     <row r="5" spans="1:95" ht="28.5" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="284" t="s">
+      <c r="B5" s="285" t="s">
         <v>204</v>
       </c>
-      <c r="C5" s="285"/>
-      <c r="D5" s="272" t="s">
+      <c r="C5" s="286"/>
+      <c r="D5" s="273" t="s">
         <v>193</v>
       </c>
-      <c r="E5" s="273"/>
-      <c r="F5" s="273"/>
-      <c r="G5" s="273"/>
-      <c r="H5" s="273"/>
-      <c r="I5" s="273"/>
-      <c r="J5" s="273"/>
-      <c r="K5" s="273"/>
-      <c r="L5" s="273"/>
-      <c r="M5" s="273"/>
-      <c r="N5" s="273"/>
-      <c r="O5" s="273"/>
-      <c r="P5" s="273"/>
-      <c r="Q5" s="273"/>
-      <c r="R5" s="273"/>
-      <c r="S5" s="273"/>
-      <c r="T5" s="273"/>
-      <c r="U5" s="273"/>
-      <c r="V5" s="273"/>
-      <c r="W5" s="273"/>
-      <c r="X5" s="273"/>
-      <c r="Y5" s="273"/>
-      <c r="Z5" s="273"/>
-      <c r="AA5" s="273"/>
-      <c r="AB5" s="273"/>
-      <c r="AC5" s="273"/>
-      <c r="AD5" s="273"/>
-      <c r="AE5" s="273"/>
-      <c r="AF5" s="273"/>
-      <c r="AG5" s="273"/>
-      <c r="AH5" s="273"/>
-      <c r="AI5" s="273"/>
-      <c r="AJ5" s="273"/>
-      <c r="AK5" s="273"/>
-      <c r="AL5" s="273"/>
-      <c r="AM5" s="273"/>
-      <c r="AN5" s="273"/>
-      <c r="AO5" s="273"/>
-      <c r="AP5" s="273"/>
-      <c r="AQ5" s="273"/>
-      <c r="AR5" s="273"/>
-      <c r="AS5" s="273"/>
-      <c r="AT5" s="273"/>
-      <c r="AU5" s="273"/>
-      <c r="AV5" s="273"/>
-      <c r="AW5" s="273"/>
-      <c r="AX5" s="273"/>
-      <c r="AY5" s="273"/>
-      <c r="AZ5" s="273"/>
-      <c r="BA5" s="273"/>
+      <c r="E5" s="274"/>
+      <c r="F5" s="274"/>
+      <c r="G5" s="274"/>
+      <c r="H5" s="274"/>
+      <c r="I5" s="274"/>
+      <c r="J5" s="274"/>
+      <c r="K5" s="274"/>
+      <c r="L5" s="274"/>
+      <c r="M5" s="274"/>
+      <c r="N5" s="274"/>
+      <c r="O5" s="274"/>
+      <c r="P5" s="274"/>
+      <c r="Q5" s="274"/>
+      <c r="R5" s="274"/>
+      <c r="S5" s="274"/>
+      <c r="T5" s="274"/>
+      <c r="U5" s="274"/>
+      <c r="V5" s="274"/>
+      <c r="W5" s="274"/>
+      <c r="X5" s="274"/>
+      <c r="Y5" s="274"/>
+      <c r="Z5" s="274"/>
+      <c r="AA5" s="274"/>
+      <c r="AB5" s="274"/>
+      <c r="AC5" s="274"/>
+      <c r="AD5" s="274"/>
+      <c r="AE5" s="274"/>
+      <c r="AF5" s="274"/>
+      <c r="AG5" s="274"/>
+      <c r="AH5" s="274"/>
+      <c r="AI5" s="274"/>
+      <c r="AJ5" s="274"/>
+      <c r="AK5" s="274"/>
+      <c r="AL5" s="274"/>
+      <c r="AM5" s="274"/>
+      <c r="AN5" s="274"/>
+      <c r="AO5" s="274"/>
+      <c r="AP5" s="274"/>
+      <c r="AQ5" s="274"/>
+      <c r="AR5" s="274"/>
+      <c r="AS5" s="274"/>
+      <c r="AT5" s="274"/>
+      <c r="AU5" s="274"/>
+      <c r="AV5" s="274"/>
+      <c r="AW5" s="274"/>
+      <c r="AX5" s="274"/>
+      <c r="AY5" s="274"/>
+      <c r="AZ5" s="274"/>
+      <c r="BA5" s="274"/>
       <c r="BB5" s="222"/>
       <c r="BC5" s="222"/>
       <c r="BD5" s="222"/>
@@ -18593,226 +18590,226 @@
       <c r="BO5" s="222"/>
       <c r="BP5" s="222"/>
       <c r="BQ5" s="222"/>
-      <c r="BR5" s="224"/>
-      <c r="BS5" s="224"/>
-      <c r="BT5" s="224"/>
-      <c r="BU5" s="224"/>
-      <c r="BV5" s="224"/>
-      <c r="BW5" s="224"/>
-      <c r="BX5" s="224"/>
-      <c r="BY5" s="224"/>
-      <c r="BZ5" s="224"/>
-      <c r="CA5" s="224"/>
-      <c r="CB5" s="224"/>
-      <c r="CC5" s="225"/>
-      <c r="CD5" s="290" t="s">
+      <c r="BR5" s="223"/>
+      <c r="BS5" s="223"/>
+      <c r="BT5" s="223"/>
+      <c r="BU5" s="223"/>
+      <c r="BV5" s="223"/>
+      <c r="BW5" s="223"/>
+      <c r="BX5" s="223"/>
+      <c r="BY5" s="223"/>
+      <c r="BZ5" s="223"/>
+      <c r="CA5" s="223"/>
+      <c r="CB5" s="223"/>
+      <c r="CC5" s="224"/>
+      <c r="CD5" s="299" t="s">
         <v>203</v>
       </c>
-      <c r="CE5" s="273"/>
-      <c r="CF5" s="273"/>
-      <c r="CG5" s="273"/>
-      <c r="CH5" s="273"/>
-      <c r="CI5" s="273"/>
-      <c r="CJ5" s="273"/>
-      <c r="CK5" s="273"/>
-      <c r="CL5" s="273"/>
-      <c r="CM5" s="273"/>
-      <c r="CN5" s="273"/>
-      <c r="CO5" s="273"/>
-      <c r="CP5" s="273"/>
-      <c r="CQ5" s="299"/>
+      <c r="CE5" s="274"/>
+      <c r="CF5" s="274"/>
+      <c r="CG5" s="274"/>
+      <c r="CH5" s="274"/>
+      <c r="CI5" s="274"/>
+      <c r="CJ5" s="274"/>
+      <c r="CK5" s="274"/>
+      <c r="CL5" s="274"/>
+      <c r="CM5" s="274"/>
+      <c r="CN5" s="274"/>
+      <c r="CO5" s="274"/>
+      <c r="CP5" s="274"/>
+      <c r="CQ5" s="274"/>
     </row>
     <row r="6" spans="1:95" ht="13.5" customHeight="1">
-      <c r="A6" s="286"/>
-      <c r="B6" s="279"/>
-      <c r="C6" s="278"/>
-      <c r="D6" s="291" t="s">
+      <c r="A6" s="287"/>
+      <c r="B6" s="280"/>
+      <c r="C6" s="279"/>
+      <c r="D6" s="293" t="s">
         <v>196</v>
       </c>
       <c r="E6" s="292"/>
-      <c r="F6" s="291" t="s">
+      <c r="F6" s="293" t="s">
         <v>191</v>
       </c>
       <c r="G6" s="292"/>
-      <c r="H6" s="291" t="s">
+      <c r="H6" s="293" t="s">
         <v>167</v>
       </c>
       <c r="I6" s="292"/>
-      <c r="J6" s="291" t="s">
+      <c r="J6" s="293" t="s">
         <v>168</v>
       </c>
       <c r="K6" s="292"/>
-      <c r="L6" s="291" t="s">
+      <c r="L6" s="293" t="s">
         <v>169</v>
       </c>
       <c r="M6" s="292"/>
-      <c r="N6" s="291" t="s">
+      <c r="N6" s="293" t="s">
         <v>170</v>
       </c>
       <c r="O6" s="292"/>
-      <c r="P6" s="291" t="s">
+      <c r="P6" s="293" t="s">
         <v>171</v>
       </c>
       <c r="Q6" s="292"/>
-      <c r="R6" s="291" t="s">
+      <c r="R6" s="293" t="s">
         <v>172</v>
       </c>
       <c r="S6" s="292"/>
-      <c r="T6" s="291" t="s">
+      <c r="T6" s="293" t="s">
         <v>173</v>
       </c>
       <c r="U6" s="292"/>
-      <c r="V6" s="291" t="s">
+      <c r="V6" s="293" t="s">
         <v>174</v>
       </c>
       <c r="W6" s="292"/>
-      <c r="X6" s="291" t="s">
+      <c r="X6" s="293" t="s">
         <v>175</v>
       </c>
       <c r="Y6" s="292"/>
-      <c r="Z6" s="291" t="s">
+      <c r="Z6" s="293" t="s">
         <v>201</v>
       </c>
       <c r="AA6" s="292"/>
-      <c r="AB6" s="291" t="s">
+      <c r="AB6" s="293" t="s">
         <v>222</v>
       </c>
       <c r="AC6" s="292"/>
-      <c r="AD6" s="298" t="s">
+      <c r="AD6" s="291" t="s">
         <v>230</v>
       </c>
       <c r="AE6" s="292"/>
-      <c r="AF6" s="298" t="s">
+      <c r="AF6" s="291" t="s">
         <v>234</v>
       </c>
       <c r="AG6" s="292"/>
-      <c r="AH6" s="298" t="s">
+      <c r="AH6" s="291" t="s">
+        <v>240</v>
+      </c>
+      <c r="AI6" s="292"/>
+      <c r="AJ6" s="291" t="s">
+        <v>241</v>
+      </c>
+      <c r="AK6" s="292"/>
+      <c r="AL6" s="291" t="s">
+        <v>242</v>
+      </c>
+      <c r="AM6" s="292"/>
+      <c r="AN6" s="291" t="s">
         <v>243</v>
       </c>
-      <c r="AI6" s="292"/>
-      <c r="AJ6" s="298" t="s">
+      <c r="AO6" s="292"/>
+      <c r="AP6" s="291" t="s">
         <v>244</v>
       </c>
-      <c r="AK6" s="292"/>
-      <c r="AL6" s="298" t="s">
+      <c r="AQ6" s="292"/>
+      <c r="AR6" s="291" t="s">
         <v>245</v>
       </c>
-      <c r="AM6" s="292"/>
-      <c r="AN6" s="298" t="s">
+      <c r="AS6" s="292"/>
+      <c r="AT6" s="291" t="s">
         <v>246</v>
       </c>
-      <c r="AO6" s="292"/>
-      <c r="AP6" s="298" t="s">
+      <c r="AU6" s="292"/>
+      <c r="AV6" s="291" t="s">
         <v>247</v>
       </c>
-      <c r="AQ6" s="292"/>
-      <c r="AR6" s="298" t="s">
+      <c r="AW6" s="292"/>
+      <c r="AX6" s="291" t="s">
         <v>248</v>
       </c>
-      <c r="AS6" s="292"/>
-      <c r="AT6" s="298" t="s">
-        <v>249</v>
-      </c>
-      <c r="AU6" s="292"/>
-      <c r="AV6" s="298" t="s">
+      <c r="AY6" s="292"/>
+      <c r="AZ6" s="291" t="s">
         <v>250</v>
       </c>
-      <c r="AW6" s="292"/>
-      <c r="AX6" s="298" t="s">
+      <c r="BA6" s="292"/>
+      <c r="BB6" s="291" t="s">
         <v>251</v>
       </c>
-      <c r="AY6" s="292"/>
-      <c r="AZ6" s="298" t="s">
+      <c r="BC6" s="292"/>
+      <c r="BD6" s="291" t="s">
+        <v>252</v>
+      </c>
+      <c r="BE6" s="292"/>
+      <c r="BF6" s="291" t="s">
+        <v>254</v>
+      </c>
+      <c r="BG6" s="292"/>
+      <c r="BH6" s="291" t="s">
         <v>253</v>
       </c>
-      <c r="BA6" s="292"/>
-      <c r="BB6" s="298" t="s">
-        <v>254</v>
-      </c>
-      <c r="BC6" s="292"/>
-      <c r="BD6" s="298" t="s">
+      <c r="BI6" s="292"/>
+      <c r="BJ6" s="291" t="s">
         <v>255</v>
       </c>
-      <c r="BE6" s="292"/>
-      <c r="BF6" s="298" t="s">
-        <v>257</v>
-      </c>
-      <c r="BG6" s="292"/>
-      <c r="BH6" s="298" t="s">
-        <v>256</v>
-      </c>
-      <c r="BI6" s="292"/>
-      <c r="BJ6" s="298" t="s">
+      <c r="BK6" s="292"/>
+      <c r="BL6" s="291" t="s">
         <v>258</v>
       </c>
-      <c r="BK6" s="292"/>
-      <c r="BL6" s="298" t="s">
+      <c r="BM6" s="292"/>
+      <c r="BN6" s="291" t="s">
+        <v>259</v>
+      </c>
+      <c r="BO6" s="292"/>
+      <c r="BP6" s="291" t="s">
+        <v>265</v>
+      </c>
+      <c r="BQ6" s="292"/>
+      <c r="BR6" s="291" t="s">
+        <v>264</v>
+      </c>
+      <c r="BS6" s="292"/>
+      <c r="BT6" s="291" t="s">
+        <v>263</v>
+      </c>
+      <c r="BU6" s="292"/>
+      <c r="BV6" s="291" t="s">
+        <v>262</v>
+      </c>
+      <c r="BW6" s="292"/>
+      <c r="BX6" s="291" t="s">
         <v>261</v>
       </c>
-      <c r="BM6" s="292"/>
-      <c r="BN6" s="298" t="s">
-        <v>262</v>
-      </c>
-      <c r="BO6" s="292"/>
-      <c r="BP6" s="298" t="s">
+      <c r="BY6" s="292"/>
+      <c r="BZ6" s="291" t="s">
+        <v>260</v>
+      </c>
+      <c r="CA6" s="292"/>
+      <c r="CB6" s="291" t="s">
+        <v>267</v>
+      </c>
+      <c r="CC6" s="292"/>
+      <c r="CD6" s="291" t="s">
+        <v>266</v>
+      </c>
+      <c r="CE6" s="292"/>
+      <c r="CF6" s="291" t="s">
         <v>268</v>
       </c>
-      <c r="BQ6" s="292"/>
-      <c r="BR6" s="298" t="s">
-        <v>267</v>
-      </c>
-      <c r="BS6" s="292"/>
-      <c r="BT6" s="298" t="s">
-        <v>266</v>
-      </c>
-      <c r="BU6" s="292"/>
-      <c r="BV6" s="298" t="s">
-        <v>265</v>
-      </c>
-      <c r="BW6" s="292"/>
-      <c r="BX6" s="298" t="s">
-        <v>264</v>
-      </c>
-      <c r="BY6" s="292"/>
-      <c r="BZ6" s="298" t="s">
-        <v>263</v>
-      </c>
-      <c r="CA6" s="292"/>
-      <c r="CB6" s="298" t="s">
+      <c r="CG6" s="292"/>
+      <c r="CH6" s="291" t="s">
+        <v>269</v>
+      </c>
+      <c r="CI6" s="292"/>
+      <c r="CJ6" s="291" t="s">
         <v>270</v>
       </c>
-      <c r="CC6" s="292"/>
-      <c r="CD6" s="298" t="s">
-        <v>269</v>
-      </c>
-      <c r="CE6" s="292"/>
-      <c r="CF6" s="298" t="s">
-        <v>271</v>
-      </c>
-      <c r="CG6" s="292"/>
-      <c r="CH6" s="298" t="s">
-        <v>272</v>
-      </c>
-      <c r="CI6" s="292"/>
-      <c r="CJ6" s="298" t="s">
-        <v>273</v>
-      </c>
       <c r="CK6" s="292"/>
-      <c r="CL6" s="298" t="s">
-        <v>274</v>
+      <c r="CL6" s="291" t="s">
+        <v>280</v>
       </c>
       <c r="CM6" s="292"/>
-      <c r="CN6" s="298" t="s">
-        <v>275</v>
+      <c r="CN6" s="291" t="s">
+        <v>281</v>
       </c>
       <c r="CO6" s="292"/>
-      <c r="CP6" s="298" t="s">
-        <v>276</v>
+      <c r="CP6" s="291" t="s">
+        <v>282</v>
       </c>
       <c r="CQ6" s="292"/>
     </row>
     <row r="7" spans="1:95">
-      <c r="A7" s="287"/>
+      <c r="A7" s="288"/>
       <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
@@ -19101,7 +19098,7 @@
         <v>221</v>
       </c>
       <c r="B8" s="218">
-        <v>33880</v>
+        <v>33881</v>
       </c>
       <c r="C8" s="183">
         <v>100</v>
@@ -19110,277 +19107,277 @@
         <v>31</v>
       </c>
       <c r="E8" s="178">
-        <v>9.1499409681230007E-2</v>
+        <v>9.1496709069980003E-2</v>
       </c>
       <c r="F8" s="130">
         <v>128</v>
       </c>
       <c r="G8" s="176">
-        <v>0.37780401416765003</v>
+        <v>0.37779286325668998</v>
       </c>
       <c r="H8" s="78">
         <v>424</v>
       </c>
       <c r="I8" s="176">
-        <v>1.2514757969303401</v>
+        <v>1.2514388595377901</v>
       </c>
       <c r="J8" s="78">
         <v>991</v>
       </c>
       <c r="K8" s="176">
-        <v>2.9250295159386099</v>
+        <v>2.92494318349517</v>
       </c>
       <c r="L8" s="78">
         <v>1218</v>
       </c>
       <c r="M8" s="176">
-        <v>3.5950413223140498</v>
+        <v>3.5949352144269699</v>
       </c>
       <c r="N8" s="78">
         <v>1396</v>
       </c>
       <c r="O8" s="176">
-        <v>4.1204250295159399</v>
+        <v>4.1203034148933</v>
       </c>
       <c r="P8" s="78">
         <v>1416</v>
       </c>
       <c r="Q8" s="176">
-        <v>4.1794569067296301</v>
+        <v>4.1793335497771604</v>
       </c>
       <c r="R8" s="78">
         <v>1288</v>
       </c>
       <c r="S8" s="217">
-        <v>3.8016528925619801</v>
+        <v>3.8015406865204699</v>
       </c>
       <c r="T8" s="130">
         <v>1284</v>
       </c>
       <c r="U8" s="212">
-        <v>3.7898465171192401</v>
+        <v>3.7897346595436998</v>
       </c>
       <c r="V8" s="88">
         <v>1107</v>
       </c>
       <c r="W8" s="216">
-        <v>3.2674144037780399</v>
+        <v>3.2673179658215501</v>
       </c>
       <c r="X8" s="130">
         <v>1043</v>
       </c>
       <c r="Y8" s="211">
-        <v>3.0785123966942201</v>
+        <v>3.0784215341932102</v>
       </c>
       <c r="Z8" s="130">
         <v>1082</v>
       </c>
       <c r="AA8" s="213">
-        <v>3.1936245572609199</v>
+        <v>3.1935302972167299</v>
       </c>
       <c r="AB8" s="88">
         <v>1010</v>
       </c>
       <c r="AC8" s="213">
-        <v>2.98110979929162</v>
+        <v>2.9810218116348399</v>
       </c>
       <c r="AD8" s="88">
         <v>907</v>
       </c>
       <c r="AE8" s="211">
-        <v>2.6770956316410901</v>
+        <v>2.6770166169829701</v>
       </c>
       <c r="AF8" s="130">
         <v>794</v>
       </c>
       <c r="AG8" s="213">
-        <v>2.3435655253837102</v>
+        <v>2.3434963548891701</v>
       </c>
       <c r="AH8" s="88">
         <v>787</v>
       </c>
       <c r="AI8" s="214">
-        <v>2.3229043683589099</v>
+        <v>2.3228358076798199</v>
       </c>
       <c r="AJ8" s="88">
         <v>581</v>
       </c>
       <c r="AK8" s="213">
-        <v>1.7148760330578501</v>
+        <v>1.71482541837608</v>
       </c>
       <c r="AL8" s="88">
         <v>421</v>
       </c>
       <c r="AM8" s="213">
-        <v>1.2426210153482899</v>
+        <v>1.2425843393052201</v>
       </c>
       <c r="AN8" s="88">
         <v>285</v>
       </c>
       <c r="AO8" s="211">
-        <v>0.84120425029515999</v>
+        <v>0.84117942209497998</v>
       </c>
       <c r="AP8" s="215">
         <v>201</v>
       </c>
       <c r="AQ8" s="214">
-        <v>0.59327036599764005</v>
+        <v>0.59325285558277996</v>
       </c>
       <c r="AR8" s="88">
         <v>200</v>
       </c>
       <c r="AS8" s="211">
-        <v>0.59031877213695005</v>
+        <v>0.59030134883857999</v>
       </c>
       <c r="AT8" s="215">
         <v>165</v>
       </c>
       <c r="AU8" s="211">
-        <v>0.48701298701299001</v>
+        <v>0.48699861279182999</v>
       </c>
       <c r="AV8" s="130">
         <v>160</v>
       </c>
       <c r="AW8" s="211">
-        <v>0.47225501770956002</v>
+        <v>0.47224107907086998</v>
       </c>
       <c r="AX8" s="130">
         <v>168</v>
       </c>
       <c r="AY8" s="213">
-        <v>0.49586776859504</v>
+        <v>0.49585313302440998</v>
       </c>
       <c r="AZ8" s="88">
         <v>133</v>
       </c>
       <c r="BA8" s="211">
-        <v>0.39256198347107002</v>
+        <v>0.39255039697765998</v>
       </c>
       <c r="BB8" s="215">
         <v>112</v>
       </c>
       <c r="BC8" s="214">
-        <v>0.33057851239669001</v>
+        <v>0.33056875534961</v>
       </c>
       <c r="BD8" s="88">
         <v>98</v>
       </c>
       <c r="BE8" s="213">
-        <v>0.28925619834711003</v>
+        <v>0.28924766093090998</v>
       </c>
       <c r="BF8" s="88">
         <v>119</v>
       </c>
       <c r="BG8" s="213">
-        <v>0.35123966942148999</v>
+        <v>0.35122930255896001</v>
       </c>
       <c r="BH8" s="88">
         <v>126</v>
       </c>
       <c r="BI8" s="213">
-        <v>0.37190082644627998</v>
+        <v>0.37188984976831002</v>
       </c>
       <c r="BJ8" s="88">
         <v>154</v>
       </c>
       <c r="BK8" s="213">
-        <v>0.45454545454544998</v>
+        <v>0.45453203860571001</v>
       </c>
       <c r="BL8" s="88">
         <v>155</v>
       </c>
       <c r="BM8" s="213">
-        <v>0.45749704840613997</v>
+        <v>0.45748354534989999</v>
       </c>
       <c r="BN8" s="88">
         <v>192</v>
       </c>
       <c r="BO8" s="212">
-        <v>0.56670602125147995</v>
+        <v>0.56668929488504005</v>
       </c>
       <c r="BP8" s="88">
         <v>221</v>
       </c>
       <c r="BQ8" s="212">
-        <v>0.65230224321133001</v>
+        <v>0.65228299046662996</v>
       </c>
       <c r="BR8" s="88">
         <v>352</v>
       </c>
       <c r="BS8" s="174">
-        <v>1.03896103896104</v>
+        <v>1.0389303739558999</v>
       </c>
       <c r="BT8" s="88">
         <v>594</v>
       </c>
       <c r="BU8" s="174">
-        <v>1.7532467532467499</v>
+        <v>1.7531950060505901</v>
       </c>
       <c r="BV8" s="88">
         <v>893</v>
       </c>
       <c r="BW8" s="211">
-        <v>2.6357733175915001</v>
+        <v>2.6356955225642702</v>
       </c>
       <c r="BX8" s="88">
         <v>1092</v>
       </c>
       <c r="BY8" s="211">
-        <v>3.2231404958677699</v>
+        <v>3.2230453646586601</v>
       </c>
       <c r="BZ8" s="88">
         <v>1340</v>
       </c>
       <c r="CA8" s="211">
-        <v>3.9551357733175898</v>
+        <v>3.9550190372184999</v>
       </c>
       <c r="CB8" s="88">
         <v>1283</v>
       </c>
       <c r="CC8" s="211">
-        <v>3.78689492325856</v>
+        <v>3.7867831527995</v>
       </c>
       <c r="CD8" s="88">
         <v>1385</v>
       </c>
       <c r="CE8" s="211">
-        <v>4.0879574970484098</v>
+        <v>4.0878368407071797</v>
       </c>
       <c r="CF8" s="88">
         <v>1467</v>
       </c>
       <c r="CG8" s="211">
-        <v>4.3299881936245601</v>
+        <v>4.3298603937309998</v>
       </c>
       <c r="CH8" s="88">
         <v>1626</v>
       </c>
       <c r="CI8" s="211">
-        <v>4.7992916174734397</v>
+        <v>4.7991499660576702</v>
       </c>
       <c r="CJ8" s="88">
         <v>1690</v>
       </c>
       <c r="CK8" s="211">
-        <v>4.98819362455726</v>
+        <v>4.9880463976860199</v>
       </c>
       <c r="CL8" s="88">
         <v>1533</v>
       </c>
       <c r="CM8" s="211">
-        <v>4.5247933884297504</v>
+        <v>4.5246598388477297</v>
       </c>
       <c r="CN8" s="88">
         <v>1415</v>
       </c>
       <c r="CO8" s="211">
-        <v>4.17650531286895</v>
+        <v>4.1763820430329703</v>
       </c>
       <c r="CP8" s="88">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="CQ8" s="211">
-        <v>2.3051948051948101</v>
+        <v>2.3080782739588601</v>
       </c>
     </row>
     <row r="9" spans="1:95">
@@ -19490,7 +19487,7 @@
         <v>11464</v>
       </c>
       <c r="C10" s="91">
-        <v>33.837072018890197</v>
+        <v>33.836073315427498</v>
       </c>
       <c r="D10" s="78">
         <v>18</v>
@@ -19777,7 +19774,7 @@
         <v>5245</v>
       </c>
       <c r="C11" s="93">
-        <v>15.4811097992916</v>
+        <v>15.480652873291801</v>
       </c>
       <c r="D11" s="78">
         <v>4</v>
@@ -20064,16 +20061,16 @@
         <v>3809</v>
       </c>
       <c r="C12" s="93">
-        <v>11.2426210153483</v>
+        <v>11.242289188630799</v>
       </c>
       <c r="D12" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="E12" s="207" t="s">
         <v>110</v>
       </c>
       <c r="F12" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="G12" s="207" t="s">
         <v>110</v>
@@ -20351,10 +20348,10 @@
         <v>1773</v>
       </c>
       <c r="C13" s="93">
-        <v>5.2331759149941002</v>
+        <v>5.2330214574540301</v>
       </c>
       <c r="D13" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="E13" s="207" t="s">
         <v>110</v>
@@ -20504,13 +20501,13 @@
         <v>0.28200789622109002</v>
       </c>
       <c r="BB13" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BC13" s="206" t="s">
         <v>110</v>
       </c>
       <c r="BD13" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BE13" s="206" t="s">
         <v>110</v>
@@ -20534,19 +20531,19 @@
         <v>0.39481105470952998</v>
       </c>
       <c r="BL13" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BM13" s="204" t="s">
         <v>110</v>
       </c>
       <c r="BN13" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BO13" s="204" t="s">
         <v>110</v>
       </c>
       <c r="BP13" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BQ13" s="204" t="s">
         <v>110</v>
@@ -20638,7 +20635,7 @@
         <v>1338</v>
       </c>
       <c r="C14" s="94">
-        <v>3.9492325855962198</v>
+        <v>3.9491160237301099</v>
       </c>
       <c r="D14" s="78">
         <v>0</v>
@@ -20791,7 +20788,7 @@
         <v>0.29895366218236002</v>
       </c>
       <c r="BB14" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BC14" s="202" t="s">
         <v>110</v>
@@ -20803,25 +20800,25 @@
         <v>0.37369207772794999</v>
       </c>
       <c r="BF14" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BG14" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BH14" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BI14" s="200" t="s">
         <v>110</v>
       </c>
       <c r="BJ14" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BK14" s="200" t="s">
         <v>110</v>
       </c>
       <c r="BL14" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BM14" s="200" t="s">
         <v>110</v>
@@ -20922,10 +20919,10 @@
         <v>124</v>
       </c>
       <c r="B15" s="90">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="C15" s="94">
-        <v>3.6983471074380199</v>
+        <v>3.70118945721791</v>
       </c>
       <c r="D15" s="78">
         <v>0</v>
@@ -20934,7 +20931,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="G15" s="203" t="s">
         <v>110</v>
@@ -20943,166 +20940,166 @@
         <v>6</v>
       </c>
       <c r="I15" s="203">
-        <v>0.47885075818036998</v>
+        <v>0.47846889952152999</v>
       </c>
       <c r="J15" s="78">
         <v>41</v>
       </c>
       <c r="K15" s="203">
-        <v>3.27214684756584</v>
+        <v>3.2695374800638</v>
       </c>
       <c r="L15" s="78">
         <v>32</v>
       </c>
       <c r="M15" s="203">
-        <v>2.55387071029529</v>
+        <v>2.5518341307814998</v>
       </c>
       <c r="N15" s="78">
         <v>53</v>
       </c>
       <c r="O15" s="203">
-        <v>4.22984836392658</v>
+        <v>4.2264752791068601</v>
       </c>
       <c r="P15" s="78">
         <v>34</v>
       </c>
       <c r="Q15" s="203">
-        <v>2.7134876296887498</v>
+        <v>2.71132376395534</v>
       </c>
       <c r="R15" s="78">
         <v>45</v>
       </c>
       <c r="S15" s="203">
-        <v>3.5913806863527502</v>
+        <v>3.58851674641148</v>
       </c>
       <c r="T15" s="78">
         <v>39</v>
       </c>
       <c r="U15" s="202">
-        <v>3.1125299281723899</v>
+        <v>3.11004784688995</v>
       </c>
       <c r="V15" s="78">
         <v>33</v>
       </c>
       <c r="W15" s="202">
-        <v>2.6336791699920199</v>
+        <v>2.6315789473684199</v>
       </c>
       <c r="X15" s="78">
         <v>35</v>
       </c>
       <c r="Y15" s="202">
-        <v>2.7932960893854801</v>
+        <v>2.7910685805422601</v>
       </c>
       <c r="Z15" s="78">
         <v>32</v>
       </c>
       <c r="AA15" s="202">
-        <v>2.55387071029529</v>
+        <v>2.5518341307814998</v>
       </c>
       <c r="AB15" s="78">
         <v>33</v>
       </c>
       <c r="AC15" s="202">
-        <v>2.6336791699920199</v>
+        <v>2.6315789473684199</v>
       </c>
       <c r="AD15" s="78">
         <v>32</v>
       </c>
       <c r="AE15" s="202">
-        <v>2.55387071029529</v>
+        <v>2.5518341307814998</v>
       </c>
       <c r="AF15" s="78">
         <v>40</v>
       </c>
       <c r="AG15" s="202">
-        <v>3.1923383878691101</v>
+        <v>3.1897926634768701</v>
       </c>
       <c r="AH15" s="78">
         <v>30</v>
       </c>
       <c r="AI15" s="202">
-        <v>2.39425379090184</v>
+        <v>2.39234449760766</v>
       </c>
       <c r="AJ15" s="78">
         <v>30</v>
       </c>
       <c r="AK15" s="202">
-        <v>2.39425379090184</v>
+        <v>2.39234449760766</v>
       </c>
       <c r="AL15" s="78">
         <v>23</v>
       </c>
       <c r="AM15" s="202">
-        <v>1.8355945730247401</v>
+        <v>1.8341307814992001</v>
       </c>
       <c r="AN15" s="78">
         <v>16</v>
       </c>
       <c r="AO15" s="202">
-        <v>1.2769353551476501</v>
+        <v>1.2759170653907499</v>
       </c>
       <c r="AP15" s="78">
         <v>21</v>
       </c>
       <c r="AQ15" s="202">
-        <v>1.67597765363129</v>
+        <v>1.67464114832536</v>
       </c>
       <c r="AR15" s="78">
         <v>11</v>
       </c>
       <c r="AS15" s="202">
-        <v>0.87789305666400996</v>
+        <v>0.87719298245613997</v>
       </c>
       <c r="AT15" s="78">
         <v>9</v>
       </c>
       <c r="AU15" s="202">
-        <v>0.71827613727054995</v>
+        <v>0.71770334928229995</v>
       </c>
       <c r="AV15" s="78">
         <v>10</v>
       </c>
       <c r="AW15" s="202">
-        <v>0.79808459696727996</v>
+        <v>0.79744816586921996</v>
       </c>
       <c r="AX15" s="78">
         <v>9</v>
       </c>
       <c r="AY15" s="202">
-        <v>0.71827613727054995</v>
+        <v>0.71770334928229995</v>
       </c>
       <c r="AZ15" s="78">
         <v>8</v>
       </c>
       <c r="BA15" s="202">
-        <v>0.63846767757381995</v>
+        <v>0.63795853269536995</v>
       </c>
       <c r="BB15" s="78">
         <v>7</v>
       </c>
       <c r="BC15" s="202">
-        <v>0.55865921787710004</v>
+        <v>0.55821371610845005</v>
       </c>
       <c r="BD15" s="78">
         <v>9</v>
       </c>
       <c r="BE15" s="202">
-        <v>0.71827613727054995</v>
+        <v>0.71770334928229995</v>
       </c>
       <c r="BF15" s="78">
         <v>6</v>
       </c>
       <c r="BG15" s="202">
-        <v>0.47885075818036998</v>
+        <v>0.47846889952152999</v>
       </c>
       <c r="BH15" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BI15" s="200" t="s">
         <v>110</v>
       </c>
       <c r="BJ15" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BK15" s="200" t="s">
         <v>110</v>
@@ -21111,97 +21108,97 @@
         <v>8</v>
       </c>
       <c r="BM15" s="200">
-        <v>0.63846767757381995</v>
+        <v>0.63795853269536995</v>
       </c>
       <c r="BN15" s="78">
         <v>11</v>
       </c>
       <c r="BO15" s="200">
-        <v>0.87789305666400996</v>
+        <v>0.87719298245613997</v>
       </c>
       <c r="BP15" s="78">
         <v>8</v>
       </c>
       <c r="BQ15" s="200">
-        <v>0.63846767757381995</v>
+        <v>0.63795853269536995</v>
       </c>
       <c r="BR15" s="78">
         <v>9</v>
       </c>
       <c r="BS15" s="201">
-        <v>0.71827613727054995</v>
+        <v>0.71770334928229995</v>
       </c>
       <c r="BT15" s="78">
         <v>14</v>
       </c>
       <c r="BU15" s="201">
-        <v>1.1173184357541901</v>
+        <v>1.1164274322169101</v>
       </c>
       <c r="BV15" s="78">
         <v>18</v>
       </c>
       <c r="BW15" s="200">
-        <v>1.4365522745410999</v>
+        <v>1.4354066985645899</v>
       </c>
       <c r="BX15" s="78">
         <v>38</v>
       </c>
       <c r="BY15" s="200">
-        <v>3.03272146847566</v>
+        <v>3.0303030303030298</v>
       </c>
       <c r="BZ15" s="78">
         <v>38</v>
       </c>
       <c r="CA15" s="200">
-        <v>3.03272146847566</v>
+        <v>3.0303030303030298</v>
       </c>
       <c r="CB15" s="78">
         <v>48</v>
       </c>
       <c r="CC15" s="200">
-        <v>3.8308060654429399</v>
+        <v>3.8277511961722501</v>
       </c>
       <c r="CD15" s="78">
         <v>54</v>
       </c>
       <c r="CE15" s="200">
-        <v>4.3096568236233104</v>
+        <v>4.3062200956937797</v>
       </c>
       <c r="CF15" s="103">
         <v>53</v>
       </c>
       <c r="CG15" s="220">
-        <v>4.22984836392658</v>
+        <v>4.2264752791068601</v>
       </c>
       <c r="CH15" s="221">
         <v>70</v>
       </c>
       <c r="CI15" s="220">
-        <v>5.5865921787709496</v>
+        <v>5.5821371610845301</v>
       </c>
       <c r="CJ15" s="221">
         <v>90</v>
       </c>
       <c r="CK15" s="220">
-        <v>7.1827613727055102</v>
+        <v>7.1770334928229698</v>
       </c>
       <c r="CL15" s="221">
         <v>65</v>
       </c>
       <c r="CM15" s="220">
-        <v>5.1875498802873103</v>
+        <v>5.1834130781499201</v>
       </c>
       <c r="CN15" s="221">
         <v>54</v>
       </c>
       <c r="CO15" s="220">
-        <v>4.3096568236233104</v>
+        <v>4.3062200956937797</v>
       </c>
       <c r="CP15" s="221">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="CQ15" s="220">
-        <v>1.8355945730247401</v>
+        <v>1.91387559808612</v>
       </c>
     </row>
     <row r="16" spans="1:95">
@@ -21212,10 +21209,10 @@
         <v>1023</v>
       </c>
       <c r="C16" s="94">
-        <v>3.0194805194805201</v>
+        <v>3.0193913993093502</v>
       </c>
       <c r="D16" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="E16" s="203" t="s">
         <v>110</v>
@@ -21329,13 +21326,13 @@
         <v>0.97751710654935997</v>
       </c>
       <c r="AP16" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AQ16" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AR16" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AS16" s="202" t="s">
         <v>110</v>
@@ -21347,7 +21344,7 @@
         <v>0</v>
       </c>
       <c r="AV16" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AW16" s="202" t="s">
         <v>110</v>
@@ -21365,7 +21362,7 @@
         <v>0</v>
       </c>
       <c r="BB16" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BC16" s="202" t="s">
         <v>110</v>
@@ -21377,7 +21374,7 @@
         <v>0</v>
       </c>
       <c r="BF16" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BG16" s="202" t="s">
         <v>110</v>
@@ -21389,25 +21386,25 @@
         <v>0</v>
       </c>
       <c r="BJ16" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BK16" s="200" t="s">
         <v>110</v>
       </c>
       <c r="BL16" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BM16" s="200" t="s">
         <v>110</v>
       </c>
       <c r="BN16" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BO16" s="200" t="s">
         <v>110</v>
       </c>
       <c r="BP16" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BQ16" s="200" t="s">
         <v>110</v>
@@ -21499,16 +21496,16 @@
         <v>1159</v>
       </c>
       <c r="C17" s="94">
-        <v>3.4208972845336501</v>
+        <v>3.42079631651958</v>
       </c>
       <c r="D17" s="85" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="E17" s="203" t="s">
         <v>110</v>
       </c>
       <c r="F17" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="G17" s="203" t="s">
         <v>110</v>
@@ -21622,7 +21619,7 @@
         <v>0.3451251078516</v>
       </c>
       <c r="AR17" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AS17" s="202" t="s">
         <v>110</v>
@@ -21634,19 +21631,19 @@
         <v>0.3451251078516</v>
       </c>
       <c r="AV17" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AW17" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AX17" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AY17" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AZ17" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BA17" s="202" t="s">
         <v>110</v>
@@ -21664,7 +21661,7 @@
         <v>0.3451251078516</v>
       </c>
       <c r="BF17" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BG17" s="202" t="s">
         <v>110</v>
@@ -21786,7 +21783,7 @@
         <v>580</v>
       </c>
       <c r="C18" s="94">
-        <v>1.71192443919717</v>
+        <v>1.71187391163189</v>
       </c>
       <c r="D18" s="85">
         <v>0</v>
@@ -21969,7 +21966,7 @@
         <v>1.72413793103448</v>
       </c>
       <c r="BL18" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BM18" s="200" t="s">
         <v>110</v>
@@ -22017,52 +22014,52 @@
         <v>2.9310344827586201</v>
       </c>
       <c r="CB18" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="CC18" s="200" t="s">
         <v>110</v>
       </c>
       <c r="CD18" s="143" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="CE18" s="200" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="CF18" s="143" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="CG18" s="200" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="CH18" s="143" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="CI18" s="200" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="CJ18" s="143" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="CK18" s="200" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="CL18" s="143" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="CM18" s="200" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="CN18" s="143" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="CO18" s="200" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="CP18" s="143" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="CQ18" s="200" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="1:95">
@@ -22073,7 +22070,7 @@
         <v>921</v>
       </c>
       <c r="C19" s="93">
-        <v>2.7184179456906699</v>
+        <v>2.71833771140167</v>
       </c>
       <c r="D19" s="83">
         <v>0</v>
@@ -22082,7 +22079,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="G19" s="207" t="s">
         <v>110</v>
@@ -22190,7 +22187,7 @@
         <v>0.65146579804560001</v>
       </c>
       <c r="AP19" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AQ19" s="206" t="s">
         <v>110</v>
@@ -22226,13 +22223,13 @@
         <v>0.76004343105320005</v>
       </c>
       <c r="BB19" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BC19" s="206" t="s">
         <v>110</v>
       </c>
       <c r="BD19" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BE19" s="206" t="s">
         <v>110</v>
@@ -22360,7 +22357,7 @@
         <v>846</v>
       </c>
       <c r="C20" s="94">
-        <v>2.4970484061393199</v>
+        <v>2.4969747055872</v>
       </c>
       <c r="D20" s="78">
         <v>0</v>
@@ -22477,7 +22474,7 @@
         <v>0.47281323877068998</v>
       </c>
       <c r="AP20" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AQ20" s="202" t="s">
         <v>110</v>
@@ -22495,31 +22492,31 @@
         <v>0.47281323877068998</v>
       </c>
       <c r="AV20" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AW20" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AX20" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AY20" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AZ20" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BA20" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BB20" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BC20" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BD20" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BE20" s="202" t="s">
         <v>110</v>
@@ -22537,7 +22534,7 @@
         <v>0.47281323877068998</v>
       </c>
       <c r="BJ20" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BK20" s="200" t="s">
         <v>110</v>
@@ -22632,11 +22629,11 @@
       <c r="CO20" s="220">
         <v>3.3096926713947998</v>
       </c>
-      <c r="CP20" s="221">
-        <v>0</v>
-      </c>
-      <c r="CQ20" s="220">
-        <v>0</v>
+      <c r="CP20" s="228" t="s">
+        <v>273</v>
+      </c>
+      <c r="CQ20" s="229" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:95">
@@ -22647,16 +22644,16 @@
         <v>617</v>
       </c>
       <c r="C21" s="96">
-        <v>1.8211334120425</v>
+        <v>1.8210796611670299</v>
       </c>
       <c r="D21" s="62" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="E21" s="203" t="s">
         <v>110</v>
       </c>
       <c r="F21" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="G21" s="203" t="s">
         <v>110</v>
@@ -22764,19 +22761,19 @@
         <v>0.81037277147487996</v>
       </c>
       <c r="AP21" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AQ21" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AR21" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AS21" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AT21" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AU21" s="202" t="s">
         <v>110</v>
@@ -22788,13 +22785,13 @@
         <v>0.81037277147487996</v>
       </c>
       <c r="AX21" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AY21" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AZ21" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BA21" s="202" t="s">
         <v>110</v>
@@ -22806,13 +22803,13 @@
         <v>0.97244732576985005</v>
       </c>
       <c r="BD21" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BE21" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BF21" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BG21" s="202" t="s">
         <v>110</v>
@@ -22913,14 +22910,12 @@
       <c r="CM21" s="220">
         <v>1.7828200972447299</v>
       </c>
-      <c r="CN21" s="221">
-        <v>11</v>
-      </c>
-      <c r="CO21" s="220">
-        <v>1.7828200972447299</v>
-      </c>
+      <c r="CN21" s="228" t="s">
+        <v>271</v>
+      </c>
+      <c r="CO21" s="220"/>
       <c r="CP21" s="221" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="CQ21" s="220" t="s">
         <v>110</v>
@@ -22934,7 +22929,7 @@
         <v>716</v>
       </c>
       <c r="C22" s="94">
-        <v>2.1133412042502999</v>
+        <v>2.11327882884212</v>
       </c>
       <c r="D22" s="85">
         <v>0</v>
@@ -23087,25 +23082,25 @@
         <v>0.69832402234637003</v>
       </c>
       <c r="BB22" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BC22" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BD22" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BE22" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BF22" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BG22" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BH22" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BI22" s="200" t="s">
         <v>110</v>
@@ -23135,13 +23130,13 @@
         <v>0.55865921787710004</v>
       </c>
       <c r="BR22" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BS22" s="201" t="s">
         <v>110</v>
       </c>
       <c r="BT22" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BU22" s="201" t="s">
         <v>110</v>
@@ -23221,7 +23216,7 @@
         <v>451</v>
       </c>
       <c r="C23" s="93">
-        <v>1.3311688311688299</v>
+        <v>1.3311295416310001</v>
       </c>
       <c r="D23" s="78">
         <v>0</v>
@@ -23248,7 +23243,7 @@
         <v>1.1086474501108701</v>
       </c>
       <c r="L23" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="M23" s="207" t="s">
         <v>110</v>
@@ -23344,7 +23339,7 @@
         <v>0</v>
       </c>
       <c r="AR23" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AS23" s="206" t="s">
         <v>110</v>
@@ -23356,43 +23351,43 @@
         <v>0</v>
       </c>
       <c r="AV23" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AW23" s="206" t="s">
         <v>110</v>
       </c>
       <c r="AX23" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AY23" s="206" t="s">
         <v>110</v>
       </c>
       <c r="AZ23" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BA23" s="206" t="s">
         <v>110</v>
       </c>
       <c r="BB23" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BC23" s="206" t="s">
         <v>110</v>
       </c>
       <c r="BD23" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BE23" s="206" t="s">
         <v>110</v>
       </c>
       <c r="BF23" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BG23" s="206" t="s">
         <v>110</v>
       </c>
       <c r="BH23" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BI23" s="204" t="s">
         <v>110</v>
@@ -23410,19 +23405,19 @@
         <v>1.3303769401330401</v>
       </c>
       <c r="BN23" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BO23" s="204" t="s">
         <v>110</v>
       </c>
       <c r="BP23" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BQ23" s="204" t="s">
         <v>110</v>
       </c>
       <c r="BR23" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BS23" s="205" t="s">
         <v>110</v>
@@ -23488,17 +23483,15 @@
         <v>0</v>
       </c>
       <c r="CN23" s="221" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="CO23" s="220" t="s">
         <v>110</v>
       </c>
-      <c r="CP23" s="221">
-        <v>0</v>
-      </c>
-      <c r="CQ23" s="220">
-        <v>0</v>
-      </c>
+      <c r="CP23" s="228" t="s">
+        <v>271</v>
+      </c>
+      <c r="CQ23" s="220"/>
     </row>
     <row r="24" spans="1:95">
       <c r="A24" s="30" t="s">
@@ -23508,7 +23501,7 @@
         <v>645</v>
       </c>
       <c r="C24" s="94">
-        <v>1.90377804014168</v>
+        <v>1.9037218500044299</v>
       </c>
       <c r="D24" s="85">
         <v>0</v>
@@ -23517,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="G24" s="203" t="s">
         <v>110</v>
@@ -23631,25 +23624,25 @@
         <v>0</v>
       </c>
       <c r="AR24" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AS24" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AT24" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AU24" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AV24" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AW24" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AX24" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AY24" s="202" t="s">
         <v>110</v>
@@ -23661,13 +23654,13 @@
         <v>0.62015503875969002</v>
       </c>
       <c r="BB24" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BC24" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BD24" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BE24" s="202" t="s">
         <v>110</v>
@@ -23679,7 +23672,7 @@
         <v>0.77519379844961001</v>
       </c>
       <c r="BH24" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BI24" s="200" t="s">
         <v>110</v>
@@ -23691,13 +23684,13 @@
         <v>0.77519379844961001</v>
       </c>
       <c r="BL24" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BM24" s="200" t="s">
         <v>110</v>
       </c>
       <c r="BN24" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BO24" s="200" t="s">
         <v>110</v>
@@ -23795,22 +23788,22 @@
         <v>562</v>
       </c>
       <c r="C25" s="94">
-        <v>1.65879574970484</v>
+        <v>1.6587467902364199</v>
       </c>
       <c r="D25" s="85" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="E25" s="203" t="s">
         <v>110</v>
       </c>
       <c r="F25" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="G25" s="203" t="s">
         <v>110</v>
       </c>
       <c r="H25" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="I25" s="203" t="s">
         <v>110</v>
@@ -23912,31 +23905,31 @@
         <v>1.4234875444839901</v>
       </c>
       <c r="AP25" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AQ25" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AR25" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AS25" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AT25" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AU25" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AV25" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AW25" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AX25" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AY25" s="202" t="s">
         <v>110</v>
@@ -23948,43 +23941,43 @@
         <v>0.71174377224199004</v>
       </c>
       <c r="BB25" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BC25" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BD25" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BE25" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BF25" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BG25" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BH25" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BI25" s="200" t="s">
         <v>110</v>
       </c>
       <c r="BJ25" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BK25" s="200" t="s">
         <v>110</v>
       </c>
       <c r="BL25" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BM25" s="200" t="s">
         <v>110</v>
       </c>
       <c r="BN25" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BO25" s="200" t="s">
         <v>110</v>
@@ -24002,7 +23995,7 @@
         <v>0.71174377224199004</v>
       </c>
       <c r="BT25" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BU25" s="201" t="s">
         <v>110</v>
@@ -24082,7 +24075,7 @@
         <v>493</v>
       </c>
       <c r="C26" s="94">
-        <v>1.45513577331759</v>
+        <v>1.45509282488711</v>
       </c>
       <c r="D26" s="84">
         <v>0</v>
@@ -24097,13 +24090,13 @@
         <v>0</v>
       </c>
       <c r="H26" s="84" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="I26" s="203" t="s">
         <v>110</v>
       </c>
       <c r="J26" s="84" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="K26" s="203" t="s">
         <v>110</v>
@@ -24187,19 +24180,19 @@
         <v>1.21703853955375</v>
       </c>
       <c r="AL26" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AM26" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AN26" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AO26" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AP26" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AQ26" s="202" t="s">
         <v>110</v>
@@ -24217,7 +24210,7 @@
         <v>0</v>
       </c>
       <c r="AV26" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AW26" s="202" t="s">
         <v>110</v>
@@ -24229,7 +24222,7 @@
         <v>1.21703853955375</v>
       </c>
       <c r="AZ26" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BA26" s="202" t="s">
         <v>110</v>
@@ -24241,19 +24234,19 @@
         <v>0</v>
       </c>
       <c r="BD26" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BE26" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BF26" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BG26" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BH26" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BI26" s="200" t="s">
         <v>110</v>
@@ -24265,7 +24258,7 @@
         <v>1.01419878296146</v>
       </c>
       <c r="BL26" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BM26" s="200" t="s">
         <v>110</v>
@@ -24369,10 +24362,10 @@
         <v>357</v>
       </c>
       <c r="C27" s="94">
-        <v>1.0537190082644601</v>
+        <v>1.0536879076768699</v>
       </c>
       <c r="D27" s="84" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="E27" s="203" t="s">
         <v>110</v>
@@ -24384,7 +24377,7 @@
         <v>1.6806722689075599</v>
       </c>
       <c r="H27" s="84" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="I27" s="203" t="s">
         <v>110</v>
@@ -24480,55 +24473,55 @@
         <v>1.12044817927171</v>
       </c>
       <c r="AN27" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AO27" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AP27" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AQ27" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AR27" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AS27" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AT27" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AU27" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AV27" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AW27" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AX27" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AY27" s="202" t="s">
         <v>110</v>
       </c>
       <c r="AZ27" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BA27" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BB27" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BC27" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BD27" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BE27" s="202" t="s">
         <v>110</v>
@@ -24540,13 +24533,13 @@
         <v>0</v>
       </c>
       <c r="BH27" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BI27" s="200" t="s">
         <v>110</v>
       </c>
       <c r="BJ27" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BK27" s="200" t="s">
         <v>110</v>
@@ -24558,19 +24551,19 @@
         <v>0</v>
       </c>
       <c r="BN27" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BO27" s="200" t="s">
         <v>110</v>
       </c>
       <c r="BP27" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BQ27" s="200" t="s">
         <v>110</v>
       </c>
       <c r="BR27" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BS27" s="201" t="s">
         <v>110</v>
@@ -24656,7 +24649,7 @@
         <v>250</v>
       </c>
       <c r="C28" s="93">
-        <v>0.73789846517118995</v>
+        <v>0.73787668604822998</v>
       </c>
       <c r="D28" s="83">
         <v>0</v>
@@ -24665,13 +24658,13 @@
         <v>0</v>
       </c>
       <c r="F28" s="83" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="G28" s="207" t="s">
         <v>110</v>
       </c>
       <c r="H28" s="78" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="I28" s="207" t="s">
         <v>110</v>
@@ -24743,7 +24736,7 @@
         <v>2</v>
       </c>
       <c r="AF28" s="83" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AG28" s="206" t="s">
         <v>110</v>
@@ -24761,13 +24754,13 @@
         <v>4.8</v>
       </c>
       <c r="AL28" s="83" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AM28" s="206" t="s">
         <v>110</v>
       </c>
       <c r="AN28" s="83" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AO28" s="206" t="s">
         <v>110</v>
@@ -24785,7 +24778,7 @@
         <v>0</v>
       </c>
       <c r="AT28" s="83" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AU28" s="206" t="s">
         <v>110</v>
@@ -24797,25 +24790,25 @@
         <v>0</v>
       </c>
       <c r="AX28" s="83" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AY28" s="206" t="s">
         <v>110</v>
       </c>
       <c r="AZ28" s="83" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BA28" s="206" t="s">
         <v>110</v>
       </c>
       <c r="BB28" s="83" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BC28" s="206" t="s">
         <v>110</v>
       </c>
       <c r="BD28" s="83" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BE28" s="206" t="s">
         <v>110</v>
@@ -24827,25 +24820,25 @@
         <v>0</v>
       </c>
       <c r="BH28" s="83" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BI28" s="204" t="s">
         <v>110</v>
       </c>
       <c r="BJ28" s="83" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BK28" s="204" t="s">
         <v>110</v>
       </c>
       <c r="BL28" s="83" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BM28" s="204" t="s">
         <v>110</v>
       </c>
       <c r="BN28" s="83" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BO28" s="204" t="s">
         <v>110</v>
@@ -24857,19 +24850,19 @@
         <v>0</v>
       </c>
       <c r="BR28" s="83" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BS28" s="205" t="s">
         <v>110</v>
       </c>
       <c r="BT28" s="83" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BU28" s="205" t="s">
         <v>110</v>
       </c>
       <c r="BV28" s="83" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BW28" s="204" t="s">
         <v>110</v>
@@ -24937,13 +24930,13 @@
     </row>
     <row r="29" spans="1:95">
       <c r="A29" s="30" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B29" s="90">
         <v>305</v>
       </c>
       <c r="C29" s="94">
-        <v>0.90023612750884996</v>
+        <v>0.90020955697883998</v>
       </c>
       <c r="D29" s="84">
         <v>0</v>
@@ -24958,7 +24951,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="84" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="I29" s="203" t="s">
         <v>110</v>
@@ -24970,13 +24963,13 @@
         <v>1.3114754098360699</v>
       </c>
       <c r="L29" s="84" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="M29" s="203" t="s">
         <v>110</v>
       </c>
       <c r="N29" s="84" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="O29" s="203" t="s">
         <v>110</v>
@@ -24988,7 +24981,7 @@
         <v>1.3114754098360699</v>
       </c>
       <c r="R29" s="84" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="S29" s="203" t="s">
         <v>110</v>
@@ -25000,7 +24993,7 @@
         <v>1.63934426229508</v>
       </c>
       <c r="V29" s="84" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="W29" s="202" t="s">
         <v>110</v>
@@ -25054,7 +25047,7 @@
         <v>1.3114754098360699</v>
       </c>
       <c r="AN29" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AO29" s="202" t="s">
         <v>110</v>
@@ -25078,7 +25071,7 @@
         <v>1.3114754098360699</v>
       </c>
       <c r="AV29" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AW29" s="202" t="s">
         <v>110</v>
@@ -25090,31 +25083,31 @@
         <v>1.63934426229508</v>
       </c>
       <c r="AZ29" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BA29" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BB29" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BC29" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BD29" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BE29" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BF29" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BG29" s="202" t="s">
         <v>110</v>
       </c>
       <c r="BH29" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BI29" s="200" t="s">
         <v>110</v>
@@ -25138,13 +25131,13 @@
         <v>1.63934426229508</v>
       </c>
       <c r="BP29" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BQ29" s="200" t="s">
         <v>110</v>
       </c>
       <c r="BR29" s="100" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BS29" s="201" t="s">
         <v>110</v>
@@ -25230,7 +25223,7 @@
         <v>73</v>
       </c>
       <c r="C30" s="97">
-        <v>0.21546635182998999</v>
+        <v>0.21545999232608001</v>
       </c>
       <c r="D30" s="86">
         <v>0</v>
@@ -25251,7 +25244,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="86" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="K30" s="199" t="s">
         <v>110</v>
@@ -25269,19 +25262,19 @@
         <v>0</v>
       </c>
       <c r="P30" s="86" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="Q30" s="199" t="s">
         <v>110</v>
       </c>
       <c r="R30" s="86" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="S30" s="199" t="s">
         <v>110</v>
       </c>
       <c r="T30" s="86" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="U30" s="198" t="s">
         <v>110</v>
@@ -25293,7 +25286,7 @@
         <v>0</v>
       </c>
       <c r="X30" s="86" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="Y30" s="198" t="s">
         <v>110</v>
@@ -25305,37 +25298,37 @@
         <v>0</v>
       </c>
       <c r="AB30" s="86" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AC30" s="198" t="s">
         <v>110</v>
       </c>
       <c r="AD30" s="86" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AE30" s="198" t="s">
         <v>110</v>
       </c>
       <c r="AF30" s="86" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AG30" s="198" t="s">
         <v>110</v>
       </c>
       <c r="AH30" s="86" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AI30" s="198" t="s">
         <v>110</v>
       </c>
       <c r="AJ30" s="86" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AK30" s="198" t="s">
         <v>110</v>
       </c>
       <c r="AL30" s="86" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AM30" s="198" t="s">
         <v>110</v>
@@ -25353,7 +25346,7 @@
         <v>0</v>
       </c>
       <c r="AR30" s="86" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AS30" s="198" t="s">
         <v>110</v>
@@ -25365,37 +25358,37 @@
         <v>0</v>
       </c>
       <c r="AV30" s="86" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AW30" s="198" t="s">
         <v>110</v>
       </c>
       <c r="AX30" s="86" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AY30" s="198" t="s">
         <v>110</v>
       </c>
       <c r="AZ30" s="86" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BA30" s="198" t="s">
         <v>110</v>
       </c>
       <c r="BB30" s="86" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BC30" s="198" t="s">
         <v>110</v>
       </c>
       <c r="BD30" s="86" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BE30" s="198" t="s">
         <v>110</v>
       </c>
       <c r="BF30" s="86" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BG30" s="198" t="s">
         <v>110</v>
@@ -25413,13 +25406,13 @@
         <v>0</v>
       </c>
       <c r="BL30" s="86" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BM30" s="196" t="s">
         <v>110</v>
       </c>
       <c r="BN30" s="86" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BO30" s="196" t="s">
         <v>110</v>
@@ -25431,13 +25424,13 @@
         <v>0</v>
       </c>
       <c r="BR30" s="86" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BS30" s="197" t="s">
         <v>110</v>
       </c>
       <c r="BT30" s="86" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="BU30" s="197" t="s">
         <v>110</v>
@@ -25461,52 +25454,52 @@
         <v>12.328767123287699</v>
       </c>
       <c r="CB30" s="86" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="CC30" s="196" t="s">
         <v>110</v>
       </c>
       <c r="CD30" s="86" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="CE30" s="196" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="CF30" s="86" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="CG30" s="196" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="CH30" s="86" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="CI30" s="196" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="CJ30" s="86" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="CK30" s="196" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="CL30" s="86" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="CM30" s="196" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="CN30" s="86" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="CO30" s="196" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="CP30" s="86" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="CQ30" s="196" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31" spans="1:95" ht="15.75" customHeight="1" thickTop="1">
@@ -25596,27 +25589,21 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="AP6:AQ6"/>
-    <mergeCell ref="AR6:AS6"/>
-    <mergeCell ref="BP6:BQ6"/>
-    <mergeCell ref="BR6:BS6"/>
-    <mergeCell ref="BT6:BU6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="BJ6:BK6"/>
-    <mergeCell ref="BL6:BM6"/>
+    <mergeCell ref="CN6:CO6"/>
+    <mergeCell ref="CP6:CQ6"/>
+    <mergeCell ref="BX6:BY6"/>
+    <mergeCell ref="AV6:AW6"/>
+    <mergeCell ref="AT6:AU6"/>
+    <mergeCell ref="CF6:CG6"/>
+    <mergeCell ref="CH6:CI6"/>
+    <mergeCell ref="CD6:CE6"/>
+    <mergeCell ref="BZ6:CA6"/>
+    <mergeCell ref="CB6:CC6"/>
     <mergeCell ref="BN6:BO6"/>
-    <mergeCell ref="BH6:BI6"/>
-    <mergeCell ref="BF6:BG6"/>
-    <mergeCell ref="BD6:BE6"/>
-    <mergeCell ref="BB6:BC6"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="AF6:AG6"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="AJ6:AK6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="CJ6:CK6"/>
+    <mergeCell ref="CL6:CM6"/>
+    <mergeCell ref="BV6:BW6"/>
+    <mergeCell ref="CD5:CQ5"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="B5:C6"/>
     <mergeCell ref="A6:A7"/>
@@ -25633,20 +25620,26 @@
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="AL6:AM6"/>
-    <mergeCell ref="AT6:AU6"/>
-    <mergeCell ref="CF6:CG6"/>
-    <mergeCell ref="CH6:CI6"/>
-    <mergeCell ref="CD6:CE6"/>
-    <mergeCell ref="BZ6:CA6"/>
-    <mergeCell ref="CB6:CC6"/>
-    <mergeCell ref="BV6:BW6"/>
-    <mergeCell ref="CN6:CO6"/>
-    <mergeCell ref="CP6:CQ6"/>
-    <mergeCell ref="CD5:CQ5"/>
-    <mergeCell ref="BX6:BY6"/>
-    <mergeCell ref="AV6:AW6"/>
-    <mergeCell ref="CJ6:CK6"/>
-    <mergeCell ref="CL6:CM6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="BJ6:BK6"/>
+    <mergeCell ref="BL6:BM6"/>
+    <mergeCell ref="BH6:BI6"/>
+    <mergeCell ref="BF6:BG6"/>
+    <mergeCell ref="BD6:BE6"/>
+    <mergeCell ref="BB6:BC6"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="AF6:AG6"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AJ6:AK6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="AP6:AQ6"/>
+    <mergeCell ref="AR6:AS6"/>
+    <mergeCell ref="BP6:BQ6"/>
+    <mergeCell ref="BR6:BS6"/>
+    <mergeCell ref="BT6:BU6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -25664,6 +25657,44 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Publiceringsdatum xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">2020-04-28T22:00:00+00:00</Publiceringsdatum>
+    <Verksamhetsomr_x00e5_de xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
+      <Value>Hälso- och sjukvård</Value>
+    </Verksamhetsomr_x00e5_de>
+    <E_x002d_plikt xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Ja</E_x002d_plikt>
+    <Produkt xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Statistik</Produkt>
+    <Ansvarig_x0020_webbredakt_x00f6_r xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
+      <UserInfo>
+        <DisplayName>Söderholm, Joen</DisplayName>
+        <AccountId>87</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </Ansvarig_x0020_webbredakt_x00f6_r>
+    <TaxCatchAll xmlns="343f6c91-b5b3-4dff-89ad-5fc55ccc8930">
+      <Value>9</Value>
+    </TaxCatchAll>
+    <Dokumenttyp xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Övrigt</Dokumenttyp>
+    <Titel xmlns="343f6c91-b5b3-4dff-89ad-5fc55ccc8930">statistik-covid19-avlidna</Titel>
+    <Webbplatstillh_x00f6_righet xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
+      <Value>Socialstyrelsen.se</Value>
+    </Webbplatstillh_x00f6_righet>
+    <i01e5b6f93524074838bfc1e1bab8714 xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">statistik och jämförelser</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">338b04a2-62bc-42a8-9e4b-6158db2fb390</TermId>
+        </TermInfo>
+      </Terms>
+    </i01e5b6f93524074838bfc1e1bab8714>
+    <_x00c4_mnesomr_x00e5_de xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
+    <Status_x0020_p_x00e5__x0020_publikation xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Publicerad</Status_x0020_p_x00e5__x0020_publikation>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100361443839E954C488E1554F766430BDE" ma:contentTypeVersion="37" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="ec0867efc9d878e75742a5b73fddae48">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dd3acd59-a8d8-42b1-950d-eec6c247243c" xmlns:ns3="343f6c91-b5b3-4dff-89ad-5fc55ccc8930" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4f4ea334ff345e29c5775f0a2fd1174f" ns2:_="" ns3:_="">
     <xsd:import namespace="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
@@ -25996,44 +26027,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Publiceringsdatum xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">2020-04-28T22:00:00+00:00</Publiceringsdatum>
-    <Verksamhetsomr_x00e5_de xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
-      <Value>Hälso- och sjukvård</Value>
-    </Verksamhetsomr_x00e5_de>
-    <E_x002d_plikt xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Ja</E_x002d_plikt>
-    <Produkt xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Statistik</Produkt>
-    <Ansvarig_x0020_webbredakt_x00f6_r xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
-      <UserInfo>
-        <DisplayName>Söderholm, Joen</DisplayName>
-        <AccountId>87</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </Ansvarig_x0020_webbredakt_x00f6_r>
-    <TaxCatchAll xmlns="343f6c91-b5b3-4dff-89ad-5fc55ccc8930">
-      <Value>9</Value>
-    </TaxCatchAll>
-    <Dokumenttyp xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Övrigt</Dokumenttyp>
-    <Titel xmlns="343f6c91-b5b3-4dff-89ad-5fc55ccc8930">statistik-covid19-avlidna</Titel>
-    <Webbplatstillh_x00f6_righet xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
-      <Value>Socialstyrelsen.se</Value>
-    </Webbplatstillh_x00f6_righet>
-    <i01e5b6f93524074838bfc1e1bab8714 xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">statistik och jämförelser</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">338b04a2-62bc-42a8-9e4b-6158db2fb390</TermId>
-        </TermInfo>
-      </Terms>
-    </i01e5b6f93524074838bfc1e1bab8714>
-    <_x00c4_mnesomr_x00e5_de xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
-    <Status_x0020_p_x00e5__x0020_publikation xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Publicerad</Status_x0020_p_x00e5__x0020_publikation>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C92573-D875-4871-BB97-75789C903393}">
   <ds:schemaRefs>
@@ -26043,6 +26036,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F4CF34A-7793-424A-BF7F-3DB732CF3454}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
+    <ds:schemaRef ds:uri="343f6c91-b5b3-4dff-89ad-5fc55ccc8930"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2BDD971-BADF-427E-9579-B824215A28B1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26059,21 +26069,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F4CF34A-7793-424A-BF7F-3DB732CF3454}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="343f6c91-b5b3-4dff-89ad-5fc55ccc8930"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>